--- a/BlockTileSystem/Assets/Levels/map_schema.xlsx
+++ b/BlockTileSystem/Assets/Levels/map_schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="map source data" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,14 @@
   <connection id="6" name="map2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\U3D\0.PROJECTS\Hidden\Hidden\Hidden\Assets\Levels\map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="7" name="xml" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\U3D\0.PROJECTS\BlockTileSystem\BlockTileSystem\BlockTileSystem\Assets\Levels\xml\xml.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +128,26 @@
   </si>
   <si>
     <t>South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vPositionX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vPositionY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,8 +299,85 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="SavableLevel">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="dDoors" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="DoorInXML" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" name="vPosition" form="unqualified">
+                          <xsd:complexType>
+                            <xsd:sequence minOccurs="0">
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="y" form="unqualified"/>
+                            </xsd:sequence>
+                          </xsd:complexType>
+                        </xsd:element>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="iID" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="triggerNumber" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="StepTriggers" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="StepTriggerInXML" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" name="vPosition" form="unqualified">
+                          <xsd:complexType>
+                            <xsd:sequence minOccurs="0">
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="y" form="unqualified"/>
+                            </xsd:sequence>
+                          </xsd:complexType>
+                        </xsd:element>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="iID" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="StayTriggers" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="StayTriggerInXML" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" name="vPosition" form="unqualified">
+                          <xsd:complexType>
+                            <xsd:sequence minOccurs="0">
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="y" form="unqualified"/>
+                            </xsd:sequence>
+                          </xsd:complexType>
+                        </xsd:element>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="iID" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="6" Name="SavableLevel_映射" RootElement="SavableLevel" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="7" Name="SavableLevel_映射1" RootElement="SavableLevel" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -295,7 +395,7 @@
       <xmlColumnPr mapId="6" xpath="/SavableLevel/tMap/Tile/vTilePosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="iTileType" name="iTileType" dataDxfId="0">
-      <calculatedColumnFormula>INDEX('map source data'!$A$1:$T$20,'exportable data'!B2+1,'exportable data'!A2+1)</calculatedColumnFormula>
+      <calculatedColumnFormula>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B2),'exportable data'!A2+1)</calculatedColumnFormula>
       <xmlColumnPr mapId="6" xpath="/SavableLevel/tMap/Tile/iTileType" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -327,6 +427,27 @@
     </tableColumn>
     <tableColumn id="7" uniqueName="timeInterval" name="timeInterval">
       <xmlColumnPr mapId="6" xpath="/SavableLevel/pPushers/PusherInXML/timeInterval" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="X1:AA3" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="X1:AA3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" uniqueName="x" name="vPositionX">
+      <xmlColumnPr mapId="7" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/x" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="y" name="vPositionY">
+      <xmlColumnPr mapId="7" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/y" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="iID" name="Iid">
+      <xmlColumnPr mapId="7" xpath="/SavableLevel/dDoors/DoorInXML/iID" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="triggerNumber" name="triggerNumber">
+      <xmlColumnPr mapId="7" xpath="/SavableLevel/dDoors/DoorInXML/triggerNumber" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -667,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -765,6 +886,36 @@
       </c>
       <c r="J2">
         <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
@@ -781,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -797,6 +948,36 @@
       </c>
       <c r="J3">
         <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -812,6 +993,9 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -826,6 +1010,36 @@
       </c>
       <c r="J4">
         <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
@@ -833,13 +1047,16 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -855,6 +1072,36 @@
       </c>
       <c r="J5">
         <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -868,7 +1115,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -884,6 +1134,36 @@
       </c>
       <c r="J6">
         <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
@@ -897,7 +1177,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -913,6 +1196,36 @@
       </c>
       <c r="J7">
         <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -926,7 +1239,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -942,6 +1258,36 @@
       </c>
       <c r="J8">
         <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
@@ -955,7 +1301,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -971,14 +1320,53 @@
       </c>
       <c r="J9">
         <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -994,14 +1382,53 @@
       </c>
       <c r="J10">
         <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1017,14 +1444,53 @@
       </c>
       <c r="J11">
         <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1040,14 +1506,53 @@
       </c>
       <c r="J12">
         <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1063,20 +1568,59 @@
       </c>
       <c r="J13">
         <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1086,13 +1630,97 @@
       </c>
       <c r="J14">
         <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <v>2</v>
       </c>
     </row>
@@ -1100,27 +1728,309 @@
       <c r="A16">
         <v>2</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
         <v>2</v>
       </c>
     </row>
@@ -1133,29 +2043,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U401"/>
+  <dimension ref="A1:AA401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="4.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="10" width="2.5" customWidth="1"/>
-    <col min="11" max="12" width="3.5" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,8 +2126,23 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2">
         <f>INT((ROW()-2)/20)</f>
         <v>0</v>
@@ -1224,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B2+1,'exportable data'!A2+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B2),'exportable data'!A2+1)</f>
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1272,8 +2200,20 @@
       <c r="U2" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">INT((ROW()-2)/20)</f>
         <v>0</v>
@@ -1283,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B3+1,'exportable data'!A3+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B3),'exportable data'!A3+1)</f>
         <v>2</v>
       </c>
       <c r="O3" s="1">
@@ -1307,8 +2247,20 @@
       <c r="U3" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1318,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B4+1,'exportable data'!A4+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B4),'exportable data'!A4+1)</f>
         <v>2</v>
       </c>
       <c r="O4" s="1">
@@ -1343,7 +2295,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1353,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B5+1,'exportable data'!A5+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B5),'exportable data'!A5+1)</f>
         <v>2</v>
       </c>
       <c r="O5" s="1">
@@ -1378,7 +2330,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1388,11 +2340,11 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B6+1,'exportable data'!A6+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B6),'exportable data'!A6+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1402,11 +2354,11 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B7+1,'exportable data'!A7+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B7),'exportable data'!A7+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1416,11 +2368,11 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B8+1,'exportable data'!A8+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B8),'exportable data'!A8+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1430,11 +2382,11 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B9+1,'exportable data'!A9+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B9),'exportable data'!A9+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1444,11 +2396,11 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B10+1,'exportable data'!A10+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B10),'exportable data'!A10+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1458,11 +2410,11 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B11+1,'exportable data'!A11+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B11),'exportable data'!A11+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1472,11 +2424,11 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B12+1,'exportable data'!A12+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B12),'exportable data'!A12+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1486,11 +2438,11 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B13+1,'exportable data'!A13+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B13),'exportable data'!A13+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1500,11 +2452,11 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B14+1,'exportable data'!A14+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B14),'exportable data'!A14+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1514,11 +2466,11 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B15+1,'exportable data'!A15+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B15),'exportable data'!A15+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1528,7 +2480,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B16+1,'exportable data'!A16+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B16),'exportable data'!A16+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1542,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B17+1,'exportable data'!A17+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B17),'exportable data'!A17+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1556,7 +2508,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B18+1,'exportable data'!A18+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B18),'exportable data'!A18+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1570,7 +2522,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B19+1,'exportable data'!A19+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B19),'exportable data'!A19+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1584,7 +2536,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B20+1,'exportable data'!A20+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B20),'exportable data'!A20+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1598,7 +2550,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B21+1,'exportable data'!A21+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B21),'exportable data'!A21+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1612,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B22+1,'exportable data'!A22+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B22),'exportable data'!A22+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1626,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B23+1,'exportable data'!A23+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B23),'exportable data'!A23+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1640,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B24+1,'exportable data'!A24+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B24),'exportable data'!A24+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1654,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B25+1,'exportable data'!A25+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B25),'exportable data'!A25+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1668,8 +2620,8 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B26+1,'exportable data'!A26+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B26),'exportable data'!A26+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1682,7 +2634,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B27+1,'exportable data'!A27+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B27),'exportable data'!A27+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1696,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B28+1,'exportable data'!A28+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B28),'exportable data'!A28+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1710,7 +2662,7 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B29+1,'exportable data'!A29+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B29),'exportable data'!A29+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1724,7 +2676,7 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B30+1,'exportable data'!A30+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B30),'exportable data'!A30+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1738,8 +2690,8 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B31+1,'exportable data'!A31+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B31),'exportable data'!A31+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1752,8 +2704,8 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B32+1,'exportable data'!A32+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B32),'exportable data'!A32+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1766,8 +2718,8 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B33+1,'exportable data'!A33+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B33),'exportable data'!A33+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1780,8 +2732,8 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B34+1,'exportable data'!A34+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B34),'exportable data'!A34+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1794,8 +2746,8 @@
         <v>13</v>
       </c>
       <c r="C35">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B35+1,'exportable data'!A35+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B35),'exportable data'!A35+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1808,8 +2760,8 @@
         <v>14</v>
       </c>
       <c r="C36">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B36+1,'exportable data'!A36+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B36),'exportable data'!A36+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1822,8 +2774,8 @@
         <v>15</v>
       </c>
       <c r="C37">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B37+1,'exportable data'!A37+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B37),'exportable data'!A37+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1836,8 +2788,8 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B38+1,'exportable data'!A38+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B38),'exportable data'!A38+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1850,8 +2802,8 @@
         <v>17</v>
       </c>
       <c r="C39">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B39+1,'exportable data'!A39+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B39),'exportable data'!A39+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1864,8 +2816,8 @@
         <v>18</v>
       </c>
       <c r="C40">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B40+1,'exportable data'!A40+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B40),'exportable data'!A40+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1878,8 +2830,8 @@
         <v>19</v>
       </c>
       <c r="C41">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B41+1,'exportable data'!A41+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B41),'exportable data'!A41+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1892,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B42+1,'exportable data'!A42+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B42),'exportable data'!A42+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1906,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B43+1,'exportable data'!A43+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B43),'exportable data'!A43+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1920,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B44+1,'exportable data'!A44+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B44),'exportable data'!A44+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1934,7 +2886,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B45+1,'exportable data'!A45+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B45),'exportable data'!A45+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1948,8 +2900,8 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B46+1,'exportable data'!A46+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B46),'exportable data'!A46+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1962,7 +2914,7 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B47+1,'exportable data'!A47+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B47),'exportable data'!A47+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1976,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B48+1,'exportable data'!A48+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B48),'exportable data'!A48+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1990,7 +2942,7 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B49+1,'exportable data'!A49+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B49),'exportable data'!A49+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2004,7 +2956,7 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B50+1,'exportable data'!A50+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B50),'exportable data'!A50+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2018,8 +2970,8 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B51+1,'exportable data'!A51+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B51),'exportable data'!A51+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -2032,8 +2984,8 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B52+1,'exportable data'!A52+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B52),'exportable data'!A52+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2046,8 +2998,8 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B53+1,'exportable data'!A53+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B53),'exportable data'!A53+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -2060,8 +3012,8 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B54+1,'exportable data'!A54+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B54),'exportable data'!A54+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -2074,8 +3026,8 @@
         <v>13</v>
       </c>
       <c r="C55">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B55+1,'exportable data'!A55+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B55),'exportable data'!A55+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -2088,8 +3040,8 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B56+1,'exportable data'!A56+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B56),'exportable data'!A56+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -2102,8 +3054,8 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B57+1,'exportable data'!A57+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B57),'exportable data'!A57+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2116,8 +3068,8 @@
         <v>16</v>
       </c>
       <c r="C58">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B58+1,'exportable data'!A58+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B58),'exportable data'!A58+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2130,8 +3082,8 @@
         <v>17</v>
       </c>
       <c r="C59">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B59+1,'exportable data'!A59+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B59),'exportable data'!A59+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -2144,8 +3096,8 @@
         <v>18</v>
       </c>
       <c r="C60">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B60+1,'exportable data'!A60+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B60),'exportable data'!A60+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -2158,8 +3110,8 @@
         <v>19</v>
       </c>
       <c r="C61">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B61+1,'exportable data'!A61+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B61),'exportable data'!A61+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -2172,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B62+1,'exportable data'!A62+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B62),'exportable data'!A62+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2186,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B63+1,'exportable data'!A63+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B63),'exportable data'!A63+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2200,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B64+1,'exportable data'!A64+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B64),'exportable data'!A64+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2214,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B65+1,'exportable data'!A65+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B65),'exportable data'!A65+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2228,8 +3180,8 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B66+1,'exportable data'!A66+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B66),'exportable data'!A66+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2242,8 +3194,8 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B67+1,'exportable data'!A67+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B67),'exportable data'!A67+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2256,8 +3208,8 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B68+1,'exportable data'!A68+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B68),'exportable data'!A68+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -2270,8 +3222,8 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B69+1,'exportable data'!A69+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B69),'exportable data'!A69+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -2284,8 +3236,8 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B70+1,'exportable data'!A70+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B70),'exportable data'!A70+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -2298,8 +3250,8 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B71+1,'exportable data'!A71+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B71),'exportable data'!A71+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -2312,8 +3264,8 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B72+1,'exportable data'!A72+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B72),'exportable data'!A72+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -2326,8 +3278,8 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B73+1,'exportable data'!A73+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B73),'exportable data'!A73+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -2340,8 +3292,8 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B74+1,'exportable data'!A74+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B74),'exportable data'!A74+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2354,8 +3306,8 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B75+1,'exportable data'!A75+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B75),'exportable data'!A75+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -2368,8 +3320,8 @@
         <v>14</v>
       </c>
       <c r="C76">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B76+1,'exportable data'!A76+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B76),'exportable data'!A76+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -2382,8 +3334,8 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B77+1,'exportable data'!A77+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B77),'exportable data'!A77+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -2396,8 +3348,8 @@
         <v>16</v>
       </c>
       <c r="C78">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B78+1,'exportable data'!A78+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B78),'exportable data'!A78+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -2410,8 +3362,8 @@
         <v>17</v>
       </c>
       <c r="C79">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B79+1,'exportable data'!A79+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B79),'exportable data'!A79+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -2424,8 +3376,8 @@
         <v>18</v>
       </c>
       <c r="C80">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B80+1,'exportable data'!A80+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B80),'exportable data'!A80+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -2438,8 +3390,8 @@
         <v>19</v>
       </c>
       <c r="C81">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B81+1,'exportable data'!A81+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B81),'exportable data'!A81+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -2452,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B82+1,'exportable data'!A82+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B82),'exportable data'!A82+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2466,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B83+1,'exportable data'!A83+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B83),'exportable data'!A83+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2480,7 +3432,7 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B84+1,'exportable data'!A84+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B84),'exportable data'!A84+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2494,8 +3446,8 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B85+1,'exportable data'!A85+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B85),'exportable data'!A85+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -2508,8 +3460,8 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B86+1,'exportable data'!A86+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B86),'exportable data'!A86+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -2522,8 +3474,8 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B87+1,'exportable data'!A87+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B87),'exportable data'!A87+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -2536,8 +3488,8 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B88+1,'exportable data'!A88+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B88),'exportable data'!A88+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -2550,8 +3502,8 @@
         <v>7</v>
       </c>
       <c r="C89">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B89+1,'exportable data'!A89+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B89),'exportable data'!A89+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -2564,8 +3516,8 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B90+1,'exportable data'!A90+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B90),'exportable data'!A90+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -2578,8 +3530,8 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B91+1,'exportable data'!A91+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B91),'exportable data'!A91+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -2592,8 +3544,8 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B92+1,'exportable data'!A92+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B92),'exportable data'!A92+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -2606,8 +3558,8 @@
         <v>11</v>
       </c>
       <c r="C93">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B93+1,'exportable data'!A93+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B93),'exportable data'!A93+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -2620,8 +3572,8 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B94+1,'exportable data'!A94+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B94),'exportable data'!A94+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -2634,8 +3586,8 @@
         <v>13</v>
       </c>
       <c r="C95">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B95+1,'exportable data'!A95+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B95),'exportable data'!A95+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -2648,8 +3600,8 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B96+1,'exportable data'!A96+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B96),'exportable data'!A96+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -2662,8 +3614,8 @@
         <v>15</v>
       </c>
       <c r="C97">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B97+1,'exportable data'!A97+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B97),'exportable data'!A97+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -2676,8 +3628,8 @@
         <v>16</v>
       </c>
       <c r="C98">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B98+1,'exportable data'!A98+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B98),'exportable data'!A98+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -2690,8 +3642,8 @@
         <v>17</v>
       </c>
       <c r="C99">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B99+1,'exportable data'!A99+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B99),'exportable data'!A99+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -2704,8 +3656,8 @@
         <v>18</v>
       </c>
       <c r="C100">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B100+1,'exportable data'!A100+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B100),'exportable data'!A100+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -2718,8 +3670,8 @@
         <v>19</v>
       </c>
       <c r="C101">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B101+1,'exportable data'!A101+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B101),'exportable data'!A101+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -2732,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B102+1,'exportable data'!A102+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B102),'exportable data'!A102+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2746,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B103+1,'exportable data'!A103+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B103),'exportable data'!A103+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2760,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B104+1,'exportable data'!A104+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B104),'exportable data'!A104+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2774,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B105+1,'exportable data'!A105+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B105),'exportable data'!A105+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2788,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B106+1,'exportable data'!A106+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B106),'exportable data'!A106+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2802,7 +3754,7 @@
         <v>5</v>
       </c>
       <c r="C107">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B107+1,'exportable data'!A107+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B107),'exportable data'!A107+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2816,8 +3768,8 @@
         <v>6</v>
       </c>
       <c r="C108">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B108+1,'exportable data'!A108+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B108),'exportable data'!A108+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -2830,7 +3782,7 @@
         <v>7</v>
       </c>
       <c r="C109">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B109+1,'exportable data'!A109+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B109),'exportable data'!A109+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2844,7 +3796,7 @@
         <v>8</v>
       </c>
       <c r="C110">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B110+1,'exportable data'!A110+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B110),'exportable data'!A110+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2858,7 +3810,7 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B111+1,'exportable data'!A111+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B111),'exportable data'!A111+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2872,7 +3824,7 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B112+1,'exportable data'!A112+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B112),'exportable data'!A112+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2886,7 +3838,7 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B113+1,'exportable data'!A113+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B113),'exportable data'!A113+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2900,7 +3852,7 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B114+1,'exportable data'!A114+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B114),'exportable data'!A114+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2914,7 +3866,7 @@
         <v>13</v>
       </c>
       <c r="C115">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B115+1,'exportable data'!A115+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B115),'exportable data'!A115+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2928,8 +3880,8 @@
         <v>14</v>
       </c>
       <c r="C116">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B116+1,'exportable data'!A116+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B116),'exportable data'!A116+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -2942,8 +3894,8 @@
         <v>15</v>
       </c>
       <c r="C117">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B117+1,'exportable data'!A117+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B117),'exportable data'!A117+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -2956,8 +3908,8 @@
         <v>16</v>
       </c>
       <c r="C118">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B118+1,'exportable data'!A118+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B118),'exportable data'!A118+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -2970,8 +3922,8 @@
         <v>17</v>
       </c>
       <c r="C119">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B119+1,'exportable data'!A119+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B119),'exportable data'!A119+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -2984,8 +3936,8 @@
         <v>18</v>
       </c>
       <c r="C120">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B120+1,'exportable data'!A120+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B120),'exportable data'!A120+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -2998,8 +3950,8 @@
         <v>19</v>
       </c>
       <c r="C121">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B121+1,'exportable data'!A121+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B121),'exportable data'!A121+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -3012,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B122+1,'exportable data'!A122+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B122),'exportable data'!A122+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3026,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B123+1,'exportable data'!A123+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B123),'exportable data'!A123+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3040,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B124+1,'exportable data'!A124+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B124),'exportable data'!A124+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3054,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B125+1,'exportable data'!A125+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B125),'exportable data'!A125+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3068,7 +4020,7 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B126+1,'exportable data'!A126+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B126),'exportable data'!A126+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3082,7 +4034,7 @@
         <v>5</v>
       </c>
       <c r="C127">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B127+1,'exportable data'!A127+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B127),'exportable data'!A127+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3096,8 +4048,8 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B128+1,'exportable data'!A128+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B128),'exportable data'!A128+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -3110,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B129+1,'exportable data'!A129+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B129),'exportable data'!A129+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3124,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="C130">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B130+1,'exportable data'!A130+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B130),'exportable data'!A130+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3138,7 +4090,7 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B131+1,'exportable data'!A131+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B131),'exportable data'!A131+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3152,7 +4104,7 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B132+1,'exportable data'!A132+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B132),'exportable data'!A132+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3166,7 +4118,7 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B133+1,'exportable data'!A133+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B133),'exportable data'!A133+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3180,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B134+1,'exportable data'!A134+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B134),'exportable data'!A134+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3194,7 +4146,7 @@
         <v>13</v>
       </c>
       <c r="C135">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B135+1,'exportable data'!A135+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B135),'exportable data'!A135+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3208,8 +4160,8 @@
         <v>14</v>
       </c>
       <c r="C136">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B136+1,'exportable data'!A136+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B136),'exportable data'!A136+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -3222,8 +4174,8 @@
         <v>15</v>
       </c>
       <c r="C137">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B137+1,'exportable data'!A137+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B137),'exportable data'!A137+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -3236,8 +4188,8 @@
         <v>16</v>
       </c>
       <c r="C138">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B138+1,'exportable data'!A138+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B138),'exportable data'!A138+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -3250,8 +4202,8 @@
         <v>17</v>
       </c>
       <c r="C139">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B139+1,'exportable data'!A139+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B139),'exportable data'!A139+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -3264,8 +4216,8 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B140+1,'exportable data'!A140+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B140),'exportable data'!A140+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -3278,8 +4230,8 @@
         <v>19</v>
       </c>
       <c r="C141">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B141+1,'exportable data'!A141+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B141),'exportable data'!A141+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -3292,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B142+1,'exportable data'!A142+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B142),'exportable data'!A142+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3306,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B143+1,'exportable data'!A143+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B143),'exportable data'!A143+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3320,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="C144">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B144+1,'exportable data'!A144+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B144),'exportable data'!A144+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3334,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B145+1,'exportable data'!A145+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B145),'exportable data'!A145+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3348,7 +4300,7 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B146+1,'exportable data'!A146+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B146),'exportable data'!A146+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3362,7 +4314,7 @@
         <v>5</v>
       </c>
       <c r="C147">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B147+1,'exportable data'!A147+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B147),'exportable data'!A147+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3376,7 +4328,7 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B148+1,'exportable data'!A148+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B148),'exportable data'!A148+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3390,7 +4342,7 @@
         <v>7</v>
       </c>
       <c r="C149">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B149+1,'exportable data'!A149+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B149),'exportable data'!A149+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3404,7 +4356,7 @@
         <v>8</v>
       </c>
       <c r="C150">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B150+1,'exportable data'!A150+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B150),'exportable data'!A150+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3418,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="C151">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B151+1,'exportable data'!A151+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B151),'exportable data'!A151+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3432,7 +4384,7 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B152+1,'exportable data'!A152+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B152),'exportable data'!A152+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3446,7 +4398,7 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B153+1,'exportable data'!A153+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B153),'exportable data'!A153+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3460,7 +4412,7 @@
         <v>12</v>
       </c>
       <c r="C154">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B154+1,'exportable data'!A154+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B154),'exportable data'!A154+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3474,7 +4426,7 @@
         <v>13</v>
       </c>
       <c r="C155">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B155+1,'exportable data'!A155+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B155),'exportable data'!A155+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3488,8 +4440,8 @@
         <v>14</v>
       </c>
       <c r="C156">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B156+1,'exportable data'!A156+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B156),'exportable data'!A156+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
@@ -3502,8 +4454,8 @@
         <v>15</v>
       </c>
       <c r="C157">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B157+1,'exportable data'!A157+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B157),'exportable data'!A157+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -3516,8 +4468,8 @@
         <v>16</v>
       </c>
       <c r="C158">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B158+1,'exportable data'!A158+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B158),'exportable data'!A158+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -3530,8 +4482,8 @@
         <v>17</v>
       </c>
       <c r="C159">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B159+1,'exportable data'!A159+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B159),'exportable data'!A159+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -3544,8 +4496,8 @@
         <v>18</v>
       </c>
       <c r="C160">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B160+1,'exportable data'!A160+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B160),'exportable data'!A160+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -3558,8 +4510,8 @@
         <v>19</v>
       </c>
       <c r="C161">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B161+1,'exportable data'!A161+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B161),'exportable data'!A161+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -3572,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B162+1,'exportable data'!A162+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B162),'exportable data'!A162+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3586,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B163+1,'exportable data'!A163+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B163),'exportable data'!A163+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3600,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="C164">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B164+1,'exportable data'!A164+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B164),'exportable data'!A164+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3614,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B165+1,'exportable data'!A165+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B165),'exportable data'!A165+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3628,7 +4580,7 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B166+1,'exportable data'!A166+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B166),'exportable data'!A166+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3642,7 +4594,7 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B167+1,'exportable data'!A167+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B167),'exportable data'!A167+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3656,7 +4608,7 @@
         <v>6</v>
       </c>
       <c r="C168">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B168+1,'exportable data'!A168+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B168),'exportable data'!A168+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3670,7 +4622,7 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B169+1,'exportable data'!A169+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B169),'exportable data'!A169+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3684,7 +4636,7 @@
         <v>8</v>
       </c>
       <c r="C170">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B170+1,'exportable data'!A170+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B170),'exportable data'!A170+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3698,7 +4650,7 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B171+1,'exportable data'!A171+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B171),'exportable data'!A171+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3712,7 +4664,7 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B172+1,'exportable data'!A172+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B172),'exportable data'!A172+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3726,7 +4678,7 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B173+1,'exportable data'!A173+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B173),'exportable data'!A173+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3740,7 +4692,7 @@
         <v>12</v>
       </c>
       <c r="C174">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B174+1,'exportable data'!A174+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B174),'exportable data'!A174+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3754,7 +4706,7 @@
         <v>13</v>
       </c>
       <c r="C175">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B175+1,'exportable data'!A175+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B175),'exportable data'!A175+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3768,8 +4720,8 @@
         <v>14</v>
       </c>
       <c r="C176">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B176+1,'exportable data'!A176+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B176),'exportable data'!A176+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -3782,8 +4734,8 @@
         <v>15</v>
       </c>
       <c r="C177">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B177+1,'exportable data'!A177+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B177),'exportable data'!A177+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
@@ -3796,8 +4748,8 @@
         <v>16</v>
       </c>
       <c r="C178">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B178+1,'exportable data'!A178+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B178),'exportable data'!A178+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
@@ -3810,8 +4762,8 @@
         <v>17</v>
       </c>
       <c r="C179">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B179+1,'exportable data'!A179+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B179),'exportable data'!A179+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -3824,8 +4776,8 @@
         <v>18</v>
       </c>
       <c r="C180">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B180+1,'exportable data'!A180+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B180),'exportable data'!A180+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -3838,8 +4790,8 @@
         <v>19</v>
       </c>
       <c r="C181">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B181+1,'exportable data'!A181+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B181),'exportable data'!A181+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -3852,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B182+1,'exportable data'!A182+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B182),'exportable data'!A182+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3866,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B183+1,'exportable data'!A183+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B183),'exportable data'!A183+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3880,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C184">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B184+1,'exportable data'!A184+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B184),'exportable data'!A184+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3894,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B185+1,'exportable data'!A185+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B185),'exportable data'!A185+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3908,7 +4860,7 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B186+1,'exportable data'!A186+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B186),'exportable data'!A186+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3922,7 +4874,7 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B187+1,'exportable data'!A187+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B187),'exportable data'!A187+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3936,7 +4888,7 @@
         <v>6</v>
       </c>
       <c r="C188">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B188+1,'exportable data'!A188+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B188),'exportable data'!A188+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3950,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="C189">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B189+1,'exportable data'!A189+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B189),'exportable data'!A189+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3964,7 +4916,7 @@
         <v>8</v>
       </c>
       <c r="C190">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B190+1,'exportable data'!A190+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B190),'exportable data'!A190+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3978,7 +4930,7 @@
         <v>9</v>
       </c>
       <c r="C191">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B191+1,'exportable data'!A191+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B191),'exportable data'!A191+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3992,7 +4944,7 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B192+1,'exportable data'!A192+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B192),'exportable data'!A192+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4006,7 +4958,7 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B193+1,'exportable data'!A193+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B193),'exportable data'!A193+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4020,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="C194">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B194+1,'exportable data'!A194+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B194),'exportable data'!A194+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4034,7 +4986,7 @@
         <v>13</v>
       </c>
       <c r="C195">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B195+1,'exportable data'!A195+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B195),'exportable data'!A195+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4048,8 +5000,8 @@
         <v>14</v>
       </c>
       <c r="C196">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B196+1,'exportable data'!A196+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B196),'exportable data'!A196+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -4062,8 +5014,8 @@
         <v>15</v>
       </c>
       <c r="C197">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B197+1,'exportable data'!A197+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B197),'exportable data'!A197+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -4076,8 +5028,8 @@
         <v>16</v>
       </c>
       <c r="C198">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B198+1,'exportable data'!A198+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B198),'exportable data'!A198+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -4090,8 +5042,8 @@
         <v>17</v>
       </c>
       <c r="C199">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B199+1,'exportable data'!A199+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B199),'exportable data'!A199+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -4104,8 +5056,8 @@
         <v>18</v>
       </c>
       <c r="C200">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B200+1,'exportable data'!A200+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B200),'exportable data'!A200+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -4118,8 +5070,8 @@
         <v>19</v>
       </c>
       <c r="C201">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B201+1,'exportable data'!A201+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B201),'exportable data'!A201+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -4132,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B202+1,'exportable data'!A202+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B202),'exportable data'!A202+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4146,8 +5098,8 @@
         <v>1</v>
       </c>
       <c r="C203">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B203+1,'exportable data'!A203+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B203),'exportable data'!A203+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
@@ -4160,8 +5112,8 @@
         <v>2</v>
       </c>
       <c r="C204">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B204+1,'exportable data'!A204+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B204),'exportable data'!A204+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
@@ -4174,8 +5126,8 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B205+1,'exportable data'!A205+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B205),'exportable data'!A205+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
@@ -4188,8 +5140,8 @@
         <v>4</v>
       </c>
       <c r="C206">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B206+1,'exportable data'!A206+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B206),'exportable data'!A206+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
@@ -4202,8 +5154,8 @@
         <v>5</v>
       </c>
       <c r="C207">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B207+1,'exportable data'!A207+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B207),'exportable data'!A207+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
@@ -4216,8 +5168,8 @@
         <v>6</v>
       </c>
       <c r="C208">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B208+1,'exportable data'!A208+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B208),'exportable data'!A208+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
@@ -4230,8 +5182,8 @@
         <v>7</v>
       </c>
       <c r="C209">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B209+1,'exportable data'!A209+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B209),'exportable data'!A209+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
@@ -4244,8 +5196,8 @@
         <v>8</v>
       </c>
       <c r="C210">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B210+1,'exportable data'!A210+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B210),'exportable data'!A210+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
@@ -4258,8 +5210,8 @@
         <v>9</v>
       </c>
       <c r="C211">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B211+1,'exportable data'!A211+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B211),'exportable data'!A211+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -4272,8 +5224,8 @@
         <v>10</v>
       </c>
       <c r="C212">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B212+1,'exportable data'!A212+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B212),'exportable data'!A212+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
@@ -4286,8 +5238,8 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B213+1,'exportable data'!A213+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B213),'exportable data'!A213+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
@@ -4300,8 +5252,8 @@
         <v>12</v>
       </c>
       <c r="C214">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B214+1,'exportable data'!A214+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B214),'exportable data'!A214+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
@@ -4314,8 +5266,8 @@
         <v>13</v>
       </c>
       <c r="C215">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B215+1,'exportable data'!A215+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B215),'exportable data'!A215+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
@@ -4328,8 +5280,8 @@
         <v>14</v>
       </c>
       <c r="C216">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B216+1,'exportable data'!A216+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B216),'exportable data'!A216+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
@@ -4342,8 +5294,8 @@
         <v>15</v>
       </c>
       <c r="C217">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B217+1,'exportable data'!A217+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B217),'exportable data'!A217+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
@@ -4356,8 +5308,8 @@
         <v>16</v>
       </c>
       <c r="C218">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B218+1,'exportable data'!A218+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B218),'exportable data'!A218+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
@@ -4370,8 +5322,8 @@
         <v>17</v>
       </c>
       <c r="C219">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B219+1,'exportable data'!A219+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B219),'exportable data'!A219+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
@@ -4384,8 +5336,8 @@
         <v>18</v>
       </c>
       <c r="C220">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B220+1,'exportable data'!A220+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B220),'exportable data'!A220+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
@@ -4398,8 +5350,8 @@
         <v>19</v>
       </c>
       <c r="C221">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B221+1,'exportable data'!A221+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B221),'exportable data'!A221+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
@@ -4412,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B222+1,'exportable data'!A222+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B222),'exportable data'!A222+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4426,8 +5378,8 @@
         <v>1</v>
       </c>
       <c r="C223">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B223+1,'exportable data'!A223+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B223),'exportable data'!A223+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
@@ -4440,8 +5392,8 @@
         <v>2</v>
       </c>
       <c r="C224">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B224+1,'exportable data'!A224+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B224),'exportable data'!A224+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
@@ -4454,8 +5406,8 @@
         <v>3</v>
       </c>
       <c r="C225">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B225+1,'exportable data'!A225+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B225),'exportable data'!A225+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
@@ -4468,8 +5420,8 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B226+1,'exportable data'!A226+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B226),'exportable data'!A226+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
@@ -4482,8 +5434,8 @@
         <v>5</v>
       </c>
       <c r="C227">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B227+1,'exportable data'!A227+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B227),'exportable data'!A227+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
@@ -4496,8 +5448,8 @@
         <v>6</v>
       </c>
       <c r="C228">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B228+1,'exportable data'!A228+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B228),'exportable data'!A228+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
@@ -4510,8 +5462,8 @@
         <v>7</v>
       </c>
       <c r="C229">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B229+1,'exportable data'!A229+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B229),'exportable data'!A229+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
@@ -4524,8 +5476,8 @@
         <v>8</v>
       </c>
       <c r="C230">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B230+1,'exportable data'!A230+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B230),'exportable data'!A230+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
@@ -4538,8 +5490,8 @@
         <v>9</v>
       </c>
       <c r="C231">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B231+1,'exportable data'!A231+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B231),'exportable data'!A231+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
@@ -4552,8 +5504,8 @@
         <v>10</v>
       </c>
       <c r="C232">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B232+1,'exportable data'!A232+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B232),'exportable data'!A232+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
@@ -4566,8 +5518,8 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B233+1,'exportable data'!A233+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B233),'exportable data'!A233+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
@@ -4580,8 +5532,8 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B234+1,'exportable data'!A234+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B234),'exportable data'!A234+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
@@ -4594,8 +5546,8 @@
         <v>13</v>
       </c>
       <c r="C235">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B235+1,'exportable data'!A235+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B235),'exportable data'!A235+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
@@ -4608,8 +5560,8 @@
         <v>14</v>
       </c>
       <c r="C236">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B236+1,'exportable data'!A236+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B236),'exportable data'!A236+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
@@ -4622,8 +5574,8 @@
         <v>15</v>
       </c>
       <c r="C237">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B237+1,'exportable data'!A237+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B237),'exportable data'!A237+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
@@ -4636,8 +5588,8 @@
         <v>16</v>
       </c>
       <c r="C238">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B238+1,'exportable data'!A238+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B238),'exportable data'!A238+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
@@ -4650,8 +5602,8 @@
         <v>17</v>
       </c>
       <c r="C239">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B239+1,'exportable data'!A239+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B239),'exportable data'!A239+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
@@ -4664,8 +5616,8 @@
         <v>18</v>
       </c>
       <c r="C240">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B240+1,'exportable data'!A240+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B240),'exportable data'!A240+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
@@ -4678,8 +5630,8 @@
         <v>19</v>
       </c>
       <c r="C241">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B241+1,'exportable data'!A241+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B241),'exportable data'!A241+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
@@ -4692,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B242+1,'exportable data'!A242+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B242),'exportable data'!A242+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4706,8 +5658,8 @@
         <v>1</v>
       </c>
       <c r="C243">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B243+1,'exportable data'!A243+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B243),'exportable data'!A243+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
@@ -4720,8 +5672,8 @@
         <v>2</v>
       </c>
       <c r="C244">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B244+1,'exportable data'!A244+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B244),'exportable data'!A244+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
@@ -4734,8 +5686,8 @@
         <v>3</v>
       </c>
       <c r="C245">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B245+1,'exportable data'!A245+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B245),'exportable data'!A245+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
@@ -4748,8 +5700,8 @@
         <v>4</v>
       </c>
       <c r="C246">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B246+1,'exportable data'!A246+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B246),'exportable data'!A246+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
@@ -4762,8 +5714,8 @@
         <v>5</v>
       </c>
       <c r="C247">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B247+1,'exportable data'!A247+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B247),'exportable data'!A247+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
@@ -4776,8 +5728,8 @@
         <v>6</v>
       </c>
       <c r="C248">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B248+1,'exportable data'!A248+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B248),'exportable data'!A248+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
@@ -4790,8 +5742,8 @@
         <v>7</v>
       </c>
       <c r="C249">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B249+1,'exportable data'!A249+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B249),'exportable data'!A249+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
@@ -4804,8 +5756,8 @@
         <v>8</v>
       </c>
       <c r="C250">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B250+1,'exportable data'!A250+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B250),'exportable data'!A250+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
@@ -4818,8 +5770,8 @@
         <v>9</v>
       </c>
       <c r="C251">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B251+1,'exportable data'!A251+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B251),'exportable data'!A251+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
@@ -4832,8 +5784,8 @@
         <v>10</v>
       </c>
       <c r="C252">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B252+1,'exportable data'!A252+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B252),'exportable data'!A252+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
@@ -4846,8 +5798,8 @@
         <v>11</v>
       </c>
       <c r="C253">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B253+1,'exportable data'!A253+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B253),'exportable data'!A253+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
@@ -4860,8 +5812,8 @@
         <v>12</v>
       </c>
       <c r="C254">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B254+1,'exportable data'!A254+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B254),'exportable data'!A254+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
@@ -4874,8 +5826,8 @@
         <v>13</v>
       </c>
       <c r="C255">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B255+1,'exportable data'!A255+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B255),'exportable data'!A255+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
@@ -4888,8 +5840,8 @@
         <v>14</v>
       </c>
       <c r="C256">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B256+1,'exportable data'!A256+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B256),'exportable data'!A256+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
@@ -4902,8 +5854,8 @@
         <v>15</v>
       </c>
       <c r="C257">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B257+1,'exportable data'!A257+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B257),'exportable data'!A257+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
@@ -4916,8 +5868,8 @@
         <v>16</v>
       </c>
       <c r="C258">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B258+1,'exportable data'!A258+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B258),'exportable data'!A258+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
@@ -4930,8 +5882,8 @@
         <v>17</v>
       </c>
       <c r="C259">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B259+1,'exportable data'!A259+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B259),'exportable data'!A259+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
@@ -4944,8 +5896,8 @@
         <v>18</v>
       </c>
       <c r="C260">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B260+1,'exportable data'!A260+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B260),'exportable data'!A260+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
@@ -4958,8 +5910,8 @@
         <v>19</v>
       </c>
       <c r="C261">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B261+1,'exportable data'!A261+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B261),'exportable data'!A261+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
@@ -4972,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="C262">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B262+1,'exportable data'!A262+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B262),'exportable data'!A262+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4986,8 +5938,8 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B263+1,'exportable data'!A263+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B263),'exportable data'!A263+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
@@ -5000,8 +5952,8 @@
         <v>2</v>
       </c>
       <c r="C264">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B264+1,'exportable data'!A264+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B264),'exportable data'!A264+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
@@ -5014,8 +5966,8 @@
         <v>3</v>
       </c>
       <c r="C265">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B265+1,'exportable data'!A265+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B265),'exportable data'!A265+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
@@ -5028,8 +5980,8 @@
         <v>4</v>
       </c>
       <c r="C266">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B266+1,'exportable data'!A266+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B266),'exportable data'!A266+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
@@ -5042,8 +5994,8 @@
         <v>5</v>
       </c>
       <c r="C267">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B267+1,'exportable data'!A267+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B267),'exportable data'!A267+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
@@ -5056,8 +6008,8 @@
         <v>6</v>
       </c>
       <c r="C268">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B268+1,'exportable data'!A268+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B268),'exportable data'!A268+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
@@ -5070,8 +6022,8 @@
         <v>7</v>
       </c>
       <c r="C269">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B269+1,'exportable data'!A269+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B269),'exportable data'!A269+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
@@ -5084,8 +6036,8 @@
         <v>8</v>
       </c>
       <c r="C270">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B270+1,'exportable data'!A270+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B270),'exportable data'!A270+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
@@ -5098,8 +6050,8 @@
         <v>9</v>
       </c>
       <c r="C271">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B271+1,'exportable data'!A271+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B271),'exportable data'!A271+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
@@ -5112,8 +6064,8 @@
         <v>10</v>
       </c>
       <c r="C272">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B272+1,'exportable data'!A272+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B272),'exportable data'!A272+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
@@ -5126,8 +6078,8 @@
         <v>11</v>
       </c>
       <c r="C273">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B273+1,'exportable data'!A273+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B273),'exportable data'!A273+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
@@ -5140,8 +6092,8 @@
         <v>12</v>
       </c>
       <c r="C274">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B274+1,'exportable data'!A274+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B274),'exportable data'!A274+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
@@ -5154,8 +6106,8 @@
         <v>13</v>
       </c>
       <c r="C275">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B275+1,'exportable data'!A275+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B275),'exportable data'!A275+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
@@ -5168,8 +6120,8 @@
         <v>14</v>
       </c>
       <c r="C276">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B276+1,'exportable data'!A276+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B276),'exportable data'!A276+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
@@ -5182,8 +6134,8 @@
         <v>15</v>
       </c>
       <c r="C277">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B277+1,'exportable data'!A277+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B277),'exportable data'!A277+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
@@ -5196,8 +6148,8 @@
         <v>16</v>
       </c>
       <c r="C278">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B278+1,'exportable data'!A278+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B278),'exportable data'!A278+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
@@ -5210,8 +6162,8 @@
         <v>17</v>
       </c>
       <c r="C279">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B279+1,'exportable data'!A279+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B279),'exportable data'!A279+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
@@ -5224,8 +6176,8 @@
         <v>18</v>
       </c>
       <c r="C280">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B280+1,'exportable data'!A280+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B280),'exportable data'!A280+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
@@ -5238,8 +6190,8 @@
         <v>19</v>
       </c>
       <c r="C281">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B281+1,'exportable data'!A281+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B281),'exportable data'!A281+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
@@ -5252,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="C282">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B282+1,'exportable data'!A282+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B282),'exportable data'!A282+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5266,8 +6218,8 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B283+1,'exportable data'!A283+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B283),'exportable data'!A283+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
@@ -5280,8 +6232,8 @@
         <v>2</v>
       </c>
       <c r="C284">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B284+1,'exportable data'!A284+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B284),'exportable data'!A284+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
@@ -5294,8 +6246,8 @@
         <v>3</v>
       </c>
       <c r="C285">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B285+1,'exportable data'!A285+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B285),'exportable data'!A285+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
@@ -5308,8 +6260,8 @@
         <v>4</v>
       </c>
       <c r="C286">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B286+1,'exportable data'!A286+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B286),'exportable data'!A286+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
@@ -5322,8 +6274,8 @@
         <v>5</v>
       </c>
       <c r="C287">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B287+1,'exportable data'!A287+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B287),'exportable data'!A287+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
@@ -5336,8 +6288,8 @@
         <v>6</v>
       </c>
       <c r="C288">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B288+1,'exportable data'!A288+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B288),'exportable data'!A288+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
@@ -5350,8 +6302,8 @@
         <v>7</v>
       </c>
       <c r="C289">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B289+1,'exportable data'!A289+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B289),'exportable data'!A289+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
@@ -5364,8 +6316,8 @@
         <v>8</v>
       </c>
       <c r="C290">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B290+1,'exportable data'!A290+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B290),'exportable data'!A290+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
@@ -5378,8 +6330,8 @@
         <v>9</v>
       </c>
       <c r="C291">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B291+1,'exportable data'!A291+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B291),'exportable data'!A291+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
@@ -5392,8 +6344,8 @@
         <v>10</v>
       </c>
       <c r="C292">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B292+1,'exportable data'!A292+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B292),'exportable data'!A292+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
@@ -5406,8 +6358,8 @@
         <v>11</v>
       </c>
       <c r="C293">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B293+1,'exportable data'!A293+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B293),'exportable data'!A293+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
@@ -5420,8 +6372,8 @@
         <v>12</v>
       </c>
       <c r="C294">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B294+1,'exportable data'!A294+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B294),'exportable data'!A294+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
@@ -5434,8 +6386,8 @@
         <v>13</v>
       </c>
       <c r="C295">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B295+1,'exportable data'!A295+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B295),'exportable data'!A295+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
@@ -5448,8 +6400,8 @@
         <v>14</v>
       </c>
       <c r="C296">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B296+1,'exportable data'!A296+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B296),'exportable data'!A296+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
@@ -5462,8 +6414,8 @@
         <v>15</v>
       </c>
       <c r="C297">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B297+1,'exportable data'!A297+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B297),'exportable data'!A297+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
@@ -5476,8 +6428,8 @@
         <v>16</v>
       </c>
       <c r="C298">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B298+1,'exportable data'!A298+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B298),'exportable data'!A298+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
@@ -5490,8 +6442,8 @@
         <v>17</v>
       </c>
       <c r="C299">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B299+1,'exportable data'!A299+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B299),'exportable data'!A299+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
@@ -5504,8 +6456,8 @@
         <v>18</v>
       </c>
       <c r="C300">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B300+1,'exportable data'!A300+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B300),'exportable data'!A300+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
@@ -5518,8 +6470,8 @@
         <v>19</v>
       </c>
       <c r="C301">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B301+1,'exportable data'!A301+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B301),'exportable data'!A301+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
@@ -5532,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="C302">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B302+1,'exportable data'!A302+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B302),'exportable data'!A302+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5546,8 +6498,8 @@
         <v>1</v>
       </c>
       <c r="C303">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B303+1,'exportable data'!A303+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B303),'exportable data'!A303+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
@@ -5560,8 +6512,8 @@
         <v>2</v>
       </c>
       <c r="C304">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B304+1,'exportable data'!A304+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B304),'exportable data'!A304+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
@@ -5574,8 +6526,8 @@
         <v>3</v>
       </c>
       <c r="C305">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B305+1,'exportable data'!A305+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B305),'exportable data'!A305+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
@@ -5588,8 +6540,8 @@
         <v>4</v>
       </c>
       <c r="C306">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B306+1,'exportable data'!A306+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B306),'exportable data'!A306+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
@@ -5602,8 +6554,8 @@
         <v>5</v>
       </c>
       <c r="C307">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B307+1,'exportable data'!A307+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B307),'exportable data'!A307+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
@@ -5616,8 +6568,8 @@
         <v>6</v>
       </c>
       <c r="C308">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B308+1,'exportable data'!A308+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B308),'exportable data'!A308+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
@@ -5630,8 +6582,8 @@
         <v>7</v>
       </c>
       <c r="C309">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B309+1,'exportable data'!A309+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B309),'exportable data'!A309+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
@@ -5644,8 +6596,8 @@
         <v>8</v>
       </c>
       <c r="C310">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B310+1,'exportable data'!A310+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B310),'exportable data'!A310+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
@@ -5658,8 +6610,8 @@
         <v>9</v>
       </c>
       <c r="C311">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B311+1,'exportable data'!A311+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B311),'exportable data'!A311+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
@@ -5672,8 +6624,8 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B312+1,'exportable data'!A312+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B312),'exportable data'!A312+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
@@ -5686,8 +6638,8 @@
         <v>11</v>
       </c>
       <c r="C313">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B313+1,'exportable data'!A313+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B313),'exportable data'!A313+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
@@ -5700,8 +6652,8 @@
         <v>12</v>
       </c>
       <c r="C314">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B314+1,'exportable data'!A314+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B314),'exportable data'!A314+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
@@ -5714,8 +6666,8 @@
         <v>13</v>
       </c>
       <c r="C315">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B315+1,'exportable data'!A315+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B315),'exportable data'!A315+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
@@ -5728,8 +6680,8 @@
         <v>14</v>
       </c>
       <c r="C316">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B316+1,'exportable data'!A316+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B316),'exportable data'!A316+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
@@ -5742,8 +6694,8 @@
         <v>15</v>
       </c>
       <c r="C317">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B317+1,'exportable data'!A317+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B317),'exportable data'!A317+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
@@ -5756,8 +6708,8 @@
         <v>16</v>
       </c>
       <c r="C318">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B318+1,'exportable data'!A318+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B318),'exportable data'!A318+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
@@ -5770,8 +6722,8 @@
         <v>17</v>
       </c>
       <c r="C319">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B319+1,'exportable data'!A319+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B319),'exportable data'!A319+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
@@ -5784,8 +6736,8 @@
         <v>18</v>
       </c>
       <c r="C320">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B320+1,'exportable data'!A320+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B320),'exportable data'!A320+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
@@ -5798,8 +6750,8 @@
         <v>19</v>
       </c>
       <c r="C321">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B321+1,'exportable data'!A321+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B321),'exportable data'!A321+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
@@ -5812,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="C322">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B322+1,'exportable data'!A322+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B322),'exportable data'!A322+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5826,8 +6778,8 @@
         <v>1</v>
       </c>
       <c r="C323">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B323+1,'exportable data'!A323+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B323),'exportable data'!A323+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
@@ -5840,8 +6792,8 @@
         <v>2</v>
       </c>
       <c r="C324">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B324+1,'exportable data'!A324+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B324),'exportable data'!A324+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
@@ -5854,8 +6806,8 @@
         <v>3</v>
       </c>
       <c r="C325">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B325+1,'exportable data'!A325+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B325),'exportable data'!A325+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
@@ -5868,8 +6820,8 @@
         <v>4</v>
       </c>
       <c r="C326">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B326+1,'exportable data'!A326+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B326),'exportable data'!A326+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
@@ -5882,8 +6834,8 @@
         <v>5</v>
       </c>
       <c r="C327">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B327+1,'exportable data'!A327+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B327),'exportable data'!A327+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
@@ -5896,8 +6848,8 @@
         <v>6</v>
       </c>
       <c r="C328">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B328+1,'exportable data'!A328+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B328),'exportable data'!A328+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
@@ -5910,8 +6862,8 @@
         <v>7</v>
       </c>
       <c r="C329">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B329+1,'exportable data'!A329+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B329),'exportable data'!A329+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
@@ -5924,8 +6876,8 @@
         <v>8</v>
       </c>
       <c r="C330">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B330+1,'exportable data'!A330+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B330),'exportable data'!A330+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
@@ -5938,8 +6890,8 @@
         <v>9</v>
       </c>
       <c r="C331">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B331+1,'exportable data'!A331+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B331),'exportable data'!A331+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
@@ -5952,8 +6904,8 @@
         <v>10</v>
       </c>
       <c r="C332">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B332+1,'exportable data'!A332+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B332),'exportable data'!A332+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
@@ -5966,8 +6918,8 @@
         <v>11</v>
       </c>
       <c r="C333">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B333+1,'exportable data'!A333+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B333),'exportable data'!A333+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
@@ -5980,8 +6932,8 @@
         <v>12</v>
       </c>
       <c r="C334">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B334+1,'exportable data'!A334+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B334),'exportable data'!A334+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
@@ -5994,8 +6946,8 @@
         <v>13</v>
       </c>
       <c r="C335">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B335+1,'exportable data'!A335+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B335),'exportable data'!A335+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
@@ -6008,8 +6960,8 @@
         <v>14</v>
       </c>
       <c r="C336">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B336+1,'exportable data'!A336+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B336),'exportable data'!A336+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
@@ -6022,8 +6974,8 @@
         <v>15</v>
       </c>
       <c r="C337">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B337+1,'exportable data'!A337+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B337),'exportable data'!A337+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
@@ -6036,8 +6988,8 @@
         <v>16</v>
       </c>
       <c r="C338">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B338+1,'exportable data'!A338+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B338),'exportable data'!A338+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
@@ -6050,8 +7002,8 @@
         <v>17</v>
       </c>
       <c r="C339">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B339+1,'exportable data'!A339+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B339),'exportable data'!A339+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
@@ -6064,8 +7016,8 @@
         <v>18</v>
       </c>
       <c r="C340">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B340+1,'exportable data'!A340+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B340),'exportable data'!A340+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
@@ -6078,8 +7030,8 @@
         <v>19</v>
       </c>
       <c r="C341">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B341+1,'exportable data'!A341+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B341),'exportable data'!A341+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
@@ -6092,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="C342">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B342+1,'exportable data'!A342+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B342),'exportable data'!A342+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6106,8 +7058,8 @@
         <v>1</v>
       </c>
       <c r="C343">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B343+1,'exportable data'!A343+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B343),'exportable data'!A343+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
@@ -6120,8 +7072,8 @@
         <v>2</v>
       </c>
       <c r="C344">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B344+1,'exportable data'!A344+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B344),'exportable data'!A344+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
@@ -6134,8 +7086,8 @@
         <v>3</v>
       </c>
       <c r="C345">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B345+1,'exportable data'!A345+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B345),'exportable data'!A345+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
@@ -6148,8 +7100,8 @@
         <v>4</v>
       </c>
       <c r="C346">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B346+1,'exportable data'!A346+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B346),'exportable data'!A346+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
@@ -6162,8 +7114,8 @@
         <v>5</v>
       </c>
       <c r="C347">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B347+1,'exportable data'!A347+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B347),'exportable data'!A347+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
@@ -6176,8 +7128,8 @@
         <v>6</v>
       </c>
       <c r="C348">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B348+1,'exportable data'!A348+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B348),'exportable data'!A348+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
@@ -6190,8 +7142,8 @@
         <v>7</v>
       </c>
       <c r="C349">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B349+1,'exportable data'!A349+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B349),'exportable data'!A349+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
@@ -6204,8 +7156,8 @@
         <v>8</v>
       </c>
       <c r="C350">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B350+1,'exportable data'!A350+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B350),'exportable data'!A350+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
@@ -6218,8 +7170,8 @@
         <v>9</v>
       </c>
       <c r="C351">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B351+1,'exportable data'!A351+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B351),'exportable data'!A351+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
@@ -6232,8 +7184,8 @@
         <v>10</v>
       </c>
       <c r="C352">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B352+1,'exportable data'!A352+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B352),'exportable data'!A352+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
@@ -6246,8 +7198,8 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B353+1,'exportable data'!A353+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B353),'exportable data'!A353+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
@@ -6260,8 +7212,8 @@
         <v>12</v>
       </c>
       <c r="C354">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B354+1,'exportable data'!A354+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B354),'exportable data'!A354+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
@@ -6274,8 +7226,8 @@
         <v>13</v>
       </c>
       <c r="C355">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B355+1,'exportable data'!A355+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B355),'exportable data'!A355+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
@@ -6288,8 +7240,8 @@
         <v>14</v>
       </c>
       <c r="C356">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B356+1,'exportable data'!A356+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B356),'exportable data'!A356+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
@@ -6302,8 +7254,8 @@
         <v>15</v>
       </c>
       <c r="C357">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B357+1,'exportable data'!A357+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B357),'exportable data'!A357+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
@@ -6316,8 +7268,8 @@
         <v>16</v>
       </c>
       <c r="C358">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B358+1,'exportable data'!A358+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B358),'exportable data'!A358+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
@@ -6330,8 +7282,8 @@
         <v>17</v>
       </c>
       <c r="C359">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B359+1,'exportable data'!A359+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B359),'exportable data'!A359+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
@@ -6344,8 +7296,8 @@
         <v>18</v>
       </c>
       <c r="C360">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B360+1,'exportable data'!A360+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B360),'exportable data'!A360+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
@@ -6358,8 +7310,8 @@
         <v>19</v>
       </c>
       <c r="C361">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B361+1,'exportable data'!A361+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B361),'exportable data'!A361+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
@@ -6372,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="C362">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B362+1,'exportable data'!A362+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B362),'exportable data'!A362+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6386,8 +7338,8 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B363+1,'exportable data'!A363+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B363),'exportable data'!A363+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
@@ -6400,8 +7352,8 @@
         <v>2</v>
       </c>
       <c r="C364">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B364+1,'exportable data'!A364+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B364),'exportable data'!A364+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
@@ -6414,8 +7366,8 @@
         <v>3</v>
       </c>
       <c r="C365">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B365+1,'exportable data'!A365+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B365),'exportable data'!A365+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
@@ -6428,8 +7380,8 @@
         <v>4</v>
       </c>
       <c r="C366">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B366+1,'exportable data'!A366+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B366),'exportable data'!A366+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
@@ -6442,8 +7394,8 @@
         <v>5</v>
       </c>
       <c r="C367">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B367+1,'exportable data'!A367+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B367),'exportable data'!A367+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
@@ -6456,8 +7408,8 @@
         <v>6</v>
       </c>
       <c r="C368">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B368+1,'exportable data'!A368+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B368),'exportable data'!A368+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
@@ -6470,8 +7422,8 @@
         <v>7</v>
       </c>
       <c r="C369">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B369+1,'exportable data'!A369+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B369),'exportable data'!A369+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
@@ -6484,8 +7436,8 @@
         <v>8</v>
       </c>
       <c r="C370">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B370+1,'exportable data'!A370+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B370),'exportable data'!A370+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
@@ -6498,8 +7450,8 @@
         <v>9</v>
       </c>
       <c r="C371">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B371+1,'exportable data'!A371+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B371),'exportable data'!A371+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
@@ -6512,8 +7464,8 @@
         <v>10</v>
       </c>
       <c r="C372">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B372+1,'exportable data'!A372+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B372),'exportable data'!A372+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
@@ -6526,8 +7478,8 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B373+1,'exportable data'!A373+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B373),'exportable data'!A373+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
@@ -6540,8 +7492,8 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B374+1,'exportable data'!A374+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B374),'exportable data'!A374+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
@@ -6554,8 +7506,8 @@
         <v>13</v>
       </c>
       <c r="C375">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B375+1,'exportable data'!A375+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B375),'exportable data'!A375+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
@@ -6568,8 +7520,8 @@
         <v>14</v>
       </c>
       <c r="C376">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B376+1,'exportable data'!A376+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B376),'exportable data'!A376+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
@@ -6582,8 +7534,8 @@
         <v>15</v>
       </c>
       <c r="C377">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B377+1,'exportable data'!A377+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B377),'exportable data'!A377+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
@@ -6596,8 +7548,8 @@
         <v>16</v>
       </c>
       <c r="C378">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B378+1,'exportable data'!A378+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B378),'exportable data'!A378+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
@@ -6610,8 +7562,8 @@
         <v>17</v>
       </c>
       <c r="C379">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B379+1,'exportable data'!A379+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B379),'exportable data'!A379+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
@@ -6624,8 +7576,8 @@
         <v>18</v>
       </c>
       <c r="C380">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B380+1,'exportable data'!A380+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B380),'exportable data'!A380+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
@@ -6638,8 +7590,8 @@
         <v>19</v>
       </c>
       <c r="C381">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B381+1,'exportable data'!A381+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B381),'exportable data'!A381+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -6652,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="C382">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B382+1,'exportable data'!A382+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B382),'exportable data'!A382+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6666,8 +7618,8 @@
         <v>1</v>
       </c>
       <c r="C383">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B383+1,'exportable data'!A383+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B383),'exportable data'!A383+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
@@ -6680,8 +7632,8 @@
         <v>2</v>
       </c>
       <c r="C384">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B384+1,'exportable data'!A384+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B384),'exportable data'!A384+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
@@ -6694,8 +7646,8 @@
         <v>3</v>
       </c>
       <c r="C385">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B385+1,'exportable data'!A385+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B385),'exportable data'!A385+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
@@ -6708,8 +7660,8 @@
         <v>4</v>
       </c>
       <c r="C386">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B386+1,'exportable data'!A386+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B386),'exportable data'!A386+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
@@ -6722,8 +7674,8 @@
         <v>5</v>
       </c>
       <c r="C387">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B387+1,'exportable data'!A387+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B387),'exportable data'!A387+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
@@ -6736,8 +7688,8 @@
         <v>6</v>
       </c>
       <c r="C388">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B388+1,'exportable data'!A388+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B388),'exportable data'!A388+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
@@ -6750,8 +7702,8 @@
         <v>7</v>
       </c>
       <c r="C389">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B389+1,'exportable data'!A389+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B389),'exportable data'!A389+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
@@ -6764,8 +7716,8 @@
         <v>8</v>
       </c>
       <c r="C390">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B390+1,'exportable data'!A390+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B390),'exportable data'!A390+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
@@ -6778,8 +7730,8 @@
         <v>9</v>
       </c>
       <c r="C391">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B391+1,'exportable data'!A391+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B391),'exportable data'!A391+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
@@ -6792,8 +7744,8 @@
         <v>10</v>
       </c>
       <c r="C392">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B392+1,'exportable data'!A392+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B392),'exportable data'!A392+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
@@ -6806,8 +7758,8 @@
         <v>11</v>
       </c>
       <c r="C393">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B393+1,'exportable data'!A393+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B393),'exportable data'!A393+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
@@ -6820,8 +7772,8 @@
         <v>12</v>
       </c>
       <c r="C394">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B394+1,'exportable data'!A394+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B394),'exportable data'!A394+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
@@ -6834,8 +7786,8 @@
         <v>13</v>
       </c>
       <c r="C395">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B395+1,'exportable data'!A395+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B395),'exportable data'!A395+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
@@ -6848,8 +7800,8 @@
         <v>14</v>
       </c>
       <c r="C396">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B396+1,'exportable data'!A396+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B396),'exportable data'!A396+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
@@ -6862,8 +7814,8 @@
         <v>15</v>
       </c>
       <c r="C397">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B397+1,'exportable data'!A397+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B397),'exportable data'!A397+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
@@ -6876,8 +7828,8 @@
         <v>16</v>
       </c>
       <c r="C398">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B398+1,'exportable data'!A398+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B398),'exportable data'!A398+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
@@ -6890,8 +7842,8 @@
         <v>17</v>
       </c>
       <c r="C399">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B399+1,'exportable data'!A399+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B399),'exportable data'!A399+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
@@ -6904,8 +7856,8 @@
         <v>18</v>
       </c>
       <c r="C400">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B400+1,'exportable data'!A400+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B400),'exportable data'!A400+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
@@ -6918,17 +7870,18 @@
         <v>19</v>
       </c>
       <c r="C401">
-        <f>INDEX('map source data'!$A$1:$T$20,'exportable data'!B401+1,'exportable data'!A401+1)</f>
-        <v>0</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B401),'exportable data'!A401+1)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BlockTileSystem/Assets/Levels/map_schema.xlsx
+++ b/BlockTileSystem/Assets/Levels/map_schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map source data" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,146 @@
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+to associate with StayTriggers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+to associate with pushers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+to associate with stepTriggers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+to associate with doors</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1: normal;2: separation;3:merging;4:combined</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,14 +174,17 @@
   <connection id="6" name="map2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\U3D\0.PROJECTS\Hidden\Hidden\Hidden\Assets\Levels\map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="xml" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="map3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\U3D\0.PROJECTS\BlockTileSystem\BlockTileSystem\BlockTileSystem\Assets\Levels\map.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="8" name="xml" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\U3D\0.PROJECTS\BlockTileSystem\BlockTileSystem\BlockTileSystem\Assets\Levels\xml\xml.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,11 +286,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iid</t>
+    <t>triggerNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>triggerNumber</t>
+    <t>StepTriggers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vPositionX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vPositionY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shooters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shootingTimeInterval</t>
+  </si>
+  <si>
+    <t>sShootingDirection</t>
+  </si>
+  <si>
+    <t>isMoving</t>
+  </si>
+  <si>
+    <t>sMovingDirection</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>movingTimeInterval</t>
+  </si>
+  <si>
+    <t>CheckPoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vCheckPoint1PositionX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vCheckPoint1PositionY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vCheckPoint2PositionX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vCheckPoint2PositionY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first positions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second positions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third positions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stars:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StayTriggers:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>East</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +410,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,38 +504,13 @@
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
-            <xsd:element minOccurs="0" nillable="true" name="pPushers" form="unqualified">
+            <xsd:element minOccurs="0" nillable="true" name="sStars" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="PusherInXML" form="unqualified">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="StarInXML" form="unqualified">
                     <xsd:complexType>
                       <xsd:sequence minOccurs="0">
                         <xsd:element minOccurs="0" nillable="true" name="vPosition" form="unqualified">
-                          <xsd:complexType>
-                            <xsd:sequence minOccurs="0">
-                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="x" form="unqualified"/>
-                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="y" form="unqualified"/>
-                            </xsd:sequence>
-                          </xsd:complexType>
-                        </xsd:element>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="isControlled" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sDirection" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="range" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="timeInterval" form="unqualified"/>
-                      </xsd:sequence>
-                    </xsd:complexType>
-                  </xsd:element>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-            <xsd:element minOccurs="0" nillable="true" name="tMap" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Tile" form="unqualified">
-                    <xsd:complexType>
-                      <xsd:sequence minOccurs="0">
-                        <xsd:element minOccurs="0" nillable="true" name="vTilePosition" form="unqualified">
                           <xsd:complexType>
                             <xsd:sequence minOccurs="0">
                               <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
@@ -287,23 +518,12 @@
                             </xsd:sequence>
                           </xsd:complexType>
                         </xsd:element>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="iTileType" form="unqualified"/>
                       </xsd:sequence>
                     </xsd:complexType>
                   </xsd:element>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Schema ID="Schema2">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="SavableLevel">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" nillable="true" name="dDoors" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
@@ -368,35 +588,132 @@
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="Shooters" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="ShooterInXML" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" name="vPosition" form="unqualified">
+                          <xsd:complexType>
+                            <xsd:sequence minOccurs="0">
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="y" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="shootingTimeInterval" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sShootingDirection" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="isMoving" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sMovingDirection" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="range" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="movingTimeInterval" form="unqualified"/>
+                            </xsd:sequence>
+                          </xsd:complexType>
+                        </xsd:element>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="cCheckPoints" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="CheckPointInXML" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" name="vCheckPoint1Position" form="unqualified">
+                          <xsd:complexType>
+                            <xsd:sequence minOccurs="0">
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="y" form="unqualified"/>
+                            </xsd:sequence>
+                          </xsd:complexType>
+                        </xsd:element>
+                        <xsd:element minOccurs="0" nillable="true" name="vCheckPoint2Position" form="unqualified">
+                          <xsd:complexType>
+                            <xsd:sequence minOccurs="0">
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="y" form="unqualified"/>
+                            </xsd:sequence>
+                          </xsd:complexType>
+                        </xsd:element>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="pPushers" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="PusherInXML" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" name="vPosition" form="unqualified">
+                          <xsd:complexType>
+                            <xsd:sequence minOccurs="0">
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="y" form="unqualified"/>
+                            </xsd:sequence>
+                          </xsd:complexType>
+                        </xsd:element>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="isControlled" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sDirection" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="range" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ID" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="timeInterval" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+            <xsd:element minOccurs="0" nillable="true" name="tMap" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Tile" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" name="vTilePosition" form="unqualified">
+                          <xsd:complexType>
+                            <xsd:sequence minOccurs="0">
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="y" form="unqualified"/>
+                            </xsd:sequence>
+                          </xsd:complexType>
+                        </xsd:element>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="iTileType" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
           </xsd:sequence>
         </xsd:complexType>
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="6" Name="SavableLevel_映射" RootElement="SavableLevel" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
-  </Map>
-  <Map ID="7" Name="SavableLevel_映射1" RootElement="SavableLevel" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+  <Map ID="9" Name="SavableLevel_映射" RootElement="SavableLevel" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:C401" tableType="xml" totalsRowShown="0" connectionId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:C401" tableType="xml" totalsRowShown="0" connectionId="7">
   <autoFilter ref="A1:C401"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="x" name="x">
       <calculatedColumnFormula>INT((ROW()-2)/20)</calculatedColumnFormula>
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/tMap/Tile/vTilePosition/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/tMap/Tile/vTilePosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="y">
       <calculatedColumnFormula>MOD(ROW()-2,20)</calculatedColumnFormula>
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/tMap/Tile/vTilePosition/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/tMap/Tile/vTilePosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="iTileType" name="iTileType" dataDxfId="0">
-      <calculatedColumnFormula>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B2),'exportable data'!A2+1)</calculatedColumnFormula>
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/tMap/Tile/iTileType" xmlDataType="integer"/>
+      <calculatedColumnFormula>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B2),'exportable data'!A2+1)</calculatedColumnFormula>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/tMap/Tile/iTileType" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -404,29 +721,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="O1:U5" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="O1:U5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="M1:S5" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="M1:S5"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="x" name="vPositionX">
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/pPushers/PusherInXML/vPosition/x" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/vPosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="vPositionY">
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/pPushers/PusherInXML/vPosition/y" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/vPosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="isControlled" name="isControlled">
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/pPushers/PusherInXML/isControlled" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/isControlled" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="sDirection" name="sDirection">
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/pPushers/PusherInXML/sDirection" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/sDirection" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="range" name="range">
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/pPushers/PusherInXML/range" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/range" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/pPushers/PusherInXML/ID" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/ID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="timeInterval" name="timeInterval">
-      <xmlColumnPr mapId="6" xpath="/SavableLevel/pPushers/PusherInXML/timeInterval" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/timeInterval" xmlDataType="double"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -434,20 +751,125 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="X1:AA3" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="X1:AA3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="AA1:AD3" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="AA1:AD3"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="x" name="vPositionX">
-      <xmlColumnPr mapId="7" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="vPositionY">
-      <xmlColumnPr mapId="7" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/y" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="iID" name="Iid">
-      <xmlColumnPr mapId="7" xpath="/SavableLevel/dDoors/DoorInXML/iID" xmlDataType="integer"/>
+    <tableColumn id="3" uniqueName="iID" name="ID">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/dDoors/DoorInXML/iID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="triggerNumber" name="triggerNumber">
-      <xmlColumnPr mapId="7" xpath="/SavableLevel/dDoors/DoorInXML/triggerNumber" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/dDoors/DoorInXML/triggerNumber" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表12" displayName="表12" ref="I1:J3" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="I1:J3"/>
+  <tableColumns count="2">
+    <tableColumn id="1" uniqueName="x" name="vPositionX">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/sStars/StarInXML/vPosition/x" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="y" name="vPositionY">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/sStars/StarInXML/vPosition/y" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="AG1:AI3" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="AG1:AI3"/>
+  <tableColumns count="3">
+    <tableColumn id="1" uniqueName="x" name="vPositionX">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/StepTriggers/StepTriggerInXML/vPosition/x" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="y" name="vPositionY">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/StepTriggers/StepTriggerInXML/vPosition/y" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="iID" name="ID">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/StepTriggers/StepTriggerInXML/iID" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表14" displayName="表14" ref="V1:X3" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="V1:X3"/>
+  <tableColumns count="3">
+    <tableColumn id="1" uniqueName="x" name="vPositionX">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/StayTriggers/StayTriggerInXML/vPosition/x" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="y" name="vPositionY">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/StayTriggers/StayTriggerInXML/vPosition/y" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="iID" name="ID">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/StayTriggers/StayTriggerInXML/iID" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="AL1:AS3" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="AL1:AS3"/>
+  <tableColumns count="8">
+    <tableColumn id="1" uniqueName="x" name="vPositionX">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/x" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="y" name="vPositionY">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/y" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="shootingTimeInterval" name="shootingTimeInterval">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/shootingTimeInterval" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="sShootingDirection" name="sShootingDirection">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/sShootingDirection" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="isMoving" name="isMoving">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/isMoving" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="sMovingDirection" name="sMovingDirection">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/sMovingDirection" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="range" name="range">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/range" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="movingTimeInterval" name="movingTimeInterval">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/movingTimeInterval" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表16" displayName="表16" ref="AV1:AY4" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="AV1:AY4"/>
+  <tableColumns count="4">
+    <tableColumn id="1" uniqueName="x" name="vCheckPoint1PositionX">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint1Position/x" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="y" name="vCheckPoint1PositionY">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint1Position/y" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="x" name="vCheckPoint2PositionX">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint2Position/x" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="y" name="vCheckPoint2PositionY">
+      <xmlColumnPr mapId="9" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint2Position/y" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -456,44 +878,44 @@
 
 <file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
 <singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <singleXmlCell id="21" r="E2" connectionId="6">
+  <singleXmlCell id="3" r="F1" connectionId="7">
     <xmlCellPr id="1" uniqueName="sLevelName">
-      <xmlPr mapId="6" xpath="/SavableLevel/sLevelName" xmlDataType="string"/>
+      <xmlPr mapId="9" xpath="/SavableLevel/sLevelName" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="22" r="F2" connectionId="6">
+  <singleXmlCell id="5" r="F2" connectionId="7">
     <xmlCellPr id="1" uniqueName="iLevelType">
-      <xmlPr mapId="6" xpath="/SavableLevel/iLevelType" xmlDataType="integer"/>
+      <xmlPr mapId="9" xpath="/SavableLevel/iLevelType" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="23" r="G2" connectionId="6">
+  <singleXmlCell id="6" r="F3" connectionId="7">
     <xmlCellPr id="1" uniqueName="x">
-      <xmlPr mapId="6" xpath="/SavableLevel/vChar1StartPos/x" xmlDataType="integer"/>
+      <xmlPr mapId="9" xpath="/SavableLevel/vChar1StartPos/x" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="24" r="H2" connectionId="6">
+  <singleXmlCell id="7" r="F4" connectionId="7">
     <xmlCellPr id="1" uniqueName="y">
-      <xmlPr mapId="6" xpath="/SavableLevel/vChar1StartPos/y" xmlDataType="integer"/>
+      <xmlPr mapId="9" xpath="/SavableLevel/vChar1StartPos/y" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="25" r="I2" connectionId="6">
+  <singleXmlCell id="8" r="F5" connectionId="7">
     <xmlCellPr id="1" uniqueName="x">
-      <xmlPr mapId="6" xpath="/SavableLevel/vChar2StartPos/x" xmlDataType="integer"/>
+      <xmlPr mapId="9" xpath="/SavableLevel/vChar2StartPos/x" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="26" r="J2" connectionId="6">
+  <singleXmlCell id="9" r="F6" connectionId="7">
     <xmlCellPr id="1" uniqueName="y">
-      <xmlPr mapId="6" xpath="/SavableLevel/vChar2StartPos/y" xmlDataType="integer"/>
+      <xmlPr mapId="9" xpath="/SavableLevel/vChar2StartPos/y" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="27" r="K2" connectionId="6">
+  <singleXmlCell id="10" r="F7" connectionId="7">
     <xmlCellPr id="1" uniqueName="x">
-      <xmlPr mapId="6" xpath="/SavableLevel/vDim/x" xmlDataType="integer"/>
+      <xmlPr mapId="9" xpath="/SavableLevel/vDim/x" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="28" r="L2" connectionId="6">
+  <singleXmlCell id="11" r="F8" connectionId="7">
     <xmlCellPr id="1" uniqueName="y">
-      <xmlPr mapId="6" xpath="/SavableLevel/vDim/y" xmlDataType="integer"/>
+      <xmlPr mapId="9" xpath="/SavableLevel/vDim/y" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -788,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2042,33 +2464,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA401"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY401"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="4.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" customWidth="1"/>
+    <col min="30" max="30" width="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" customWidth="1"/>
+    <col min="39" max="39" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.375" customWidth="1"/>
+    <col min="49" max="51" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2081,68 +2527,125 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
       </c>
       <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AG1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2">
         <f>INT((ROW()-2)/20)</f>
         <v>0</v>
@@ -2152,68 +2655,113 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B2),'exportable data'!A2+1)</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B2),'exportable data'!A2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
         <v>5</v>
       </c>
-      <c r="P2" s="1">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
         <v>5</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1">
-        <v>3</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2">
+      <c r="AM2">
         <v>5</v>
       </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AN2">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2">
+        <v>2</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV2">
+        <v>5</v>
+      </c>
+      <c r="AW2">
+        <v>5</v>
+      </c>
+      <c r="AX2">
+        <v>5</v>
+      </c>
+      <c r="AY2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">INT((ROW()-2)/20)</f>
         <v>0</v>
@@ -2223,44 +2771,91 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B3),'exportable data'!A3+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B3),'exportable data'!A3+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6</v>
       </c>
       <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
         <v>6</v>
       </c>
-      <c r="P3" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="1">
-        <v>4</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
-        <v>6</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AU3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV3">
+        <v>5</v>
+      </c>
+      <c r="AW3">
+        <v>7</v>
+      </c>
+      <c r="AX3">
+        <v>5</v>
+      </c>
+      <c r="AY3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2270,32 +2865,41 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B4),'exportable data'!A4+1)</f>
-        <v>2</v>
-      </c>
-      <c r="O4" s="1">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B4),'exportable data'!A4+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>7</v>
       </c>
-      <c r="P4" s="1">
+      <c r="N4" s="1">
         <v>7</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="S4" s="1">
-        <v>4</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AU4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2305,32 +2909,38 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B5),'exportable data'!A5+1)</f>
-        <v>2</v>
-      </c>
-      <c r="O5" s="1">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B5),'exportable data'!A5+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
         <v>8</v>
       </c>
-      <c r="P5" s="1">
+      <c r="N5" s="1">
         <v>8</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="S5" s="1">
-        <v>4</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2340,11 +2950,17 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B6),'exportable data'!A6+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B6),'exportable data'!A6+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2354,11 +2970,17 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B7),'exportable data'!A7+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B7),'exportable data'!A7+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2368,11 +2990,17 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B8),'exportable data'!A8+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B8),'exportable data'!A8+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2382,11 +3010,11 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B9),'exportable data'!A9+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B9),'exportable data'!A9+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2396,11 +3024,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B10),'exportable data'!A10+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B10),'exportable data'!A10+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2410,11 +3040,11 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B11),'exportable data'!A11+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B11),'exportable data'!A11+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2424,11 +3054,11 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B12),'exportable data'!A12+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B12),'exportable data'!A12+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2438,11 +3068,11 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B13),'exportable data'!A13+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B13),'exportable data'!A13+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2452,11 +3082,11 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B14),'exportable data'!A14+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B14),'exportable data'!A14+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2466,11 +3096,11 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B15),'exportable data'!A15+1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B15),'exportable data'!A15+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2480,7 +3110,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B16),'exportable data'!A16+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B16),'exportable data'!A16+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2494,7 +3124,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B17),'exportable data'!A17+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B17),'exportable data'!A17+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2508,7 +3138,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B18),'exportable data'!A18+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B18),'exportable data'!A18+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2522,7 +3152,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B19),'exportable data'!A19+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B19),'exportable data'!A19+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2536,7 +3166,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B20),'exportable data'!A20+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B20),'exportable data'!A20+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2550,7 +3180,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B21),'exportable data'!A21+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B21),'exportable data'!A21+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2564,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B22),'exportable data'!A22+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B22),'exportable data'!A22+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2578,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B23),'exportable data'!A23+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B23),'exportable data'!A23+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2592,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B24),'exportable data'!A24+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B24),'exportable data'!A24+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2606,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B25),'exportable data'!A25+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B25),'exportable data'!A25+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2620,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B26),'exportable data'!A26+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B26),'exportable data'!A26+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2634,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B27),'exportable data'!A27+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B27),'exportable data'!A27+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2648,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B28),'exportable data'!A28+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B28),'exportable data'!A28+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2662,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B29),'exportable data'!A29+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B29),'exportable data'!A29+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2676,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B30),'exportable data'!A30+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B30),'exportable data'!A30+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2690,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B31),'exportable data'!A31+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B31),'exportable data'!A31+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2704,7 +3334,7 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B32),'exportable data'!A32+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B32),'exportable data'!A32+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2718,7 +3348,7 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B33),'exportable data'!A33+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B33),'exportable data'!A33+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2732,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B34),'exportable data'!A34+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B34),'exportable data'!A34+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2746,7 +3376,7 @@
         <v>13</v>
       </c>
       <c r="C35">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B35),'exportable data'!A35+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B35),'exportable data'!A35+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2760,7 +3390,7 @@
         <v>14</v>
       </c>
       <c r="C36">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B36),'exportable data'!A36+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B36),'exportable data'!A36+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2774,7 +3404,7 @@
         <v>15</v>
       </c>
       <c r="C37">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B37),'exportable data'!A37+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B37),'exportable data'!A37+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2788,7 +3418,7 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B38),'exportable data'!A38+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B38),'exportable data'!A38+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2802,7 +3432,7 @@
         <v>17</v>
       </c>
       <c r="C39">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B39),'exportable data'!A39+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B39),'exportable data'!A39+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2816,7 +3446,7 @@
         <v>18</v>
       </c>
       <c r="C40">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B40),'exportable data'!A40+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B40),'exportable data'!A40+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2830,7 +3460,7 @@
         <v>19</v>
       </c>
       <c r="C41">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B41),'exportable data'!A41+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B41),'exportable data'!A41+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2844,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B42),'exportable data'!A42+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B42),'exportable data'!A42+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -2858,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B43),'exportable data'!A43+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B43),'exportable data'!A43+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2872,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B44),'exportable data'!A44+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B44),'exportable data'!A44+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2886,7 +3516,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B45),'exportable data'!A45+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B45),'exportable data'!A45+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2900,7 +3530,7 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B46),'exportable data'!A46+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B46),'exportable data'!A46+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2914,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B47),'exportable data'!A47+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B47),'exportable data'!A47+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2928,7 +3558,7 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B48),'exportable data'!A48+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B48),'exportable data'!A48+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2942,7 +3572,7 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B49),'exportable data'!A49+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B49),'exportable data'!A49+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2956,7 +3586,7 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B50),'exportable data'!A50+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B50),'exportable data'!A50+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2970,7 +3600,7 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B51),'exportable data'!A51+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B51),'exportable data'!A51+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2984,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B52),'exportable data'!A52+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B52),'exportable data'!A52+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2998,7 +3628,7 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B53),'exportable data'!A53+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B53),'exportable data'!A53+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3012,7 +3642,7 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B54),'exportable data'!A54+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B54),'exportable data'!A54+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3026,7 +3656,7 @@
         <v>13</v>
       </c>
       <c r="C55">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B55),'exportable data'!A55+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B55),'exportable data'!A55+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3040,7 +3670,7 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B56),'exportable data'!A56+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B56),'exportable data'!A56+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3054,7 +3684,7 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B57),'exportable data'!A57+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B57),'exportable data'!A57+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3068,7 +3698,7 @@
         <v>16</v>
       </c>
       <c r="C58">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B58),'exportable data'!A58+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B58),'exportable data'!A58+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3082,7 +3712,7 @@
         <v>17</v>
       </c>
       <c r="C59">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B59),'exportable data'!A59+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B59),'exportable data'!A59+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3096,7 +3726,7 @@
         <v>18</v>
       </c>
       <c r="C60">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B60),'exportable data'!A60+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B60),'exportable data'!A60+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3110,7 +3740,7 @@
         <v>19</v>
       </c>
       <c r="C61">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B61),'exportable data'!A61+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B61),'exportable data'!A61+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3124,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B62),'exportable data'!A62+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B62),'exportable data'!A62+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3138,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B63),'exportable data'!A63+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B63),'exportable data'!A63+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3152,7 +3782,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B64),'exportable data'!A64+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B64),'exportable data'!A64+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3166,7 +3796,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B65),'exportable data'!A65+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B65),'exportable data'!A65+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3180,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B66),'exportable data'!A66+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B66),'exportable data'!A66+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3194,7 +3824,7 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B67),'exportable data'!A67+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B67),'exportable data'!A67+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3208,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B68),'exportable data'!A68+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B68),'exportable data'!A68+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3222,7 +3852,7 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B69),'exportable data'!A69+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B69),'exportable data'!A69+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3236,7 +3866,7 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B70),'exportable data'!A70+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B70),'exportable data'!A70+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3250,7 +3880,7 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B71),'exportable data'!A71+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B71),'exportable data'!A71+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3264,7 +3894,7 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B72),'exportable data'!A72+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B72),'exportable data'!A72+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3278,7 +3908,7 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B73),'exportable data'!A73+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B73),'exportable data'!A73+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3292,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B74),'exportable data'!A74+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B74),'exportable data'!A74+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3306,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B75),'exportable data'!A75+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B75),'exportable data'!A75+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3320,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="C76">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B76),'exportable data'!A76+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B76),'exportable data'!A76+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3334,7 +3964,7 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B77),'exportable data'!A77+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B77),'exportable data'!A77+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3348,7 +3978,7 @@
         <v>16</v>
       </c>
       <c r="C78">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B78),'exportable data'!A78+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B78),'exportable data'!A78+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3362,7 +3992,7 @@
         <v>17</v>
       </c>
       <c r="C79">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B79),'exportable data'!A79+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B79),'exportable data'!A79+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3376,7 +4006,7 @@
         <v>18</v>
       </c>
       <c r="C80">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B80),'exportable data'!A80+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B80),'exportable data'!A80+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3390,7 +4020,7 @@
         <v>19</v>
       </c>
       <c r="C81">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B81),'exportable data'!A81+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B81),'exportable data'!A81+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3404,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B82),'exportable data'!A82+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B82),'exportable data'!A82+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3418,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B83),'exportable data'!A83+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B83),'exportable data'!A83+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3432,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B84),'exportable data'!A84+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B84),'exportable data'!A84+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3446,7 +4076,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B85),'exportable data'!A85+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B85),'exportable data'!A85+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3460,7 +4090,7 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B86),'exportable data'!A86+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B86),'exportable data'!A86+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3474,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B87),'exportable data'!A87+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B87),'exportable data'!A87+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3488,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B88),'exportable data'!A88+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B88),'exportable data'!A88+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3502,7 +4132,7 @@
         <v>7</v>
       </c>
       <c r="C89">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B89),'exportable data'!A89+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B89),'exportable data'!A89+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3516,7 +4146,7 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B90),'exportable data'!A90+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B90),'exportable data'!A90+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3530,7 +4160,7 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B91),'exportable data'!A91+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B91),'exportable data'!A91+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3544,7 +4174,7 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B92),'exportable data'!A92+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B92),'exportable data'!A92+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3558,7 +4188,7 @@
         <v>11</v>
       </c>
       <c r="C93">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B93),'exportable data'!A93+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B93),'exportable data'!A93+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3572,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B94),'exportable data'!A94+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B94),'exportable data'!A94+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3586,7 +4216,7 @@
         <v>13</v>
       </c>
       <c r="C95">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B95),'exportable data'!A95+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B95),'exportable data'!A95+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3600,7 +4230,7 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B96),'exportable data'!A96+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B96),'exportable data'!A96+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3614,7 +4244,7 @@
         <v>15</v>
       </c>
       <c r="C97">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B97),'exportable data'!A97+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B97),'exportable data'!A97+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3628,7 +4258,7 @@
         <v>16</v>
       </c>
       <c r="C98">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B98),'exportable data'!A98+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B98),'exportable data'!A98+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3642,7 +4272,7 @@
         <v>17</v>
       </c>
       <c r="C99">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B99),'exportable data'!A99+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B99),'exportable data'!A99+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3656,7 +4286,7 @@
         <v>18</v>
       </c>
       <c r="C100">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B100),'exportable data'!A100+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B100),'exportable data'!A100+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3670,7 +4300,7 @@
         <v>19</v>
       </c>
       <c r="C101">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B101),'exportable data'!A101+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B101),'exportable data'!A101+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3684,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B102),'exportable data'!A102+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B102),'exportable data'!A102+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3698,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B103),'exportable data'!A103+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B103),'exportable data'!A103+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3712,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B104),'exportable data'!A104+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B104),'exportable data'!A104+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3726,7 +4356,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B105),'exportable data'!A105+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B105),'exportable data'!A105+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3740,7 +4370,7 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B106),'exportable data'!A106+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B106),'exportable data'!A106+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3754,7 +4384,7 @@
         <v>5</v>
       </c>
       <c r="C107">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B107),'exportable data'!A107+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B107),'exportable data'!A107+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3768,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="C108">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B108),'exportable data'!A108+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B108),'exportable data'!A108+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3782,7 +4412,7 @@
         <v>7</v>
       </c>
       <c r="C109">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B109),'exportable data'!A109+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B109),'exportable data'!A109+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3796,7 +4426,7 @@
         <v>8</v>
       </c>
       <c r="C110">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B110),'exportable data'!A110+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B110),'exportable data'!A110+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3810,7 +4440,7 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B111),'exportable data'!A111+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B111),'exportable data'!A111+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3824,7 +4454,7 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B112),'exportable data'!A112+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B112),'exportable data'!A112+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3838,7 +4468,7 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B113),'exportable data'!A113+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B113),'exportable data'!A113+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3852,7 +4482,7 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B114),'exportable data'!A114+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B114),'exportable data'!A114+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3866,7 +4496,7 @@
         <v>13</v>
       </c>
       <c r="C115">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B115),'exportable data'!A115+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B115),'exportable data'!A115+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3880,7 +4510,7 @@
         <v>14</v>
       </c>
       <c r="C116">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B116),'exportable data'!A116+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B116),'exportable data'!A116+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3894,7 +4524,7 @@
         <v>15</v>
       </c>
       <c r="C117">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B117),'exportable data'!A117+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B117),'exportable data'!A117+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3908,7 +4538,7 @@
         <v>16</v>
       </c>
       <c r="C118">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B118),'exportable data'!A118+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B118),'exportable data'!A118+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3922,7 +4552,7 @@
         <v>17</v>
       </c>
       <c r="C119">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B119),'exportable data'!A119+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B119),'exportable data'!A119+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3936,7 +4566,7 @@
         <v>18</v>
       </c>
       <c r="C120">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B120),'exportable data'!A120+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B120),'exportable data'!A120+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3950,7 +4580,7 @@
         <v>19</v>
       </c>
       <c r="C121">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B121),'exportable data'!A121+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B121),'exportable data'!A121+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3964,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B122),'exportable data'!A122+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B122),'exportable data'!A122+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3978,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B123),'exportable data'!A123+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B123),'exportable data'!A123+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3992,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B124),'exportable data'!A124+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B124),'exportable data'!A124+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4006,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B125),'exportable data'!A125+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B125),'exportable data'!A125+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4020,7 +4650,7 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B126),'exportable data'!A126+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B126),'exportable data'!A126+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4034,7 +4664,7 @@
         <v>5</v>
       </c>
       <c r="C127">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B127),'exportable data'!A127+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B127),'exportable data'!A127+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4048,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B128),'exportable data'!A128+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B128),'exportable data'!A128+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4062,7 +4692,7 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B129),'exportable data'!A129+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B129),'exportable data'!A129+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4076,7 +4706,7 @@
         <v>8</v>
       </c>
       <c r="C130">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B130),'exportable data'!A130+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B130),'exportable data'!A130+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4090,7 +4720,7 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B131),'exportable data'!A131+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B131),'exportable data'!A131+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4104,7 +4734,7 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B132),'exportable data'!A132+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B132),'exportable data'!A132+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4118,7 +4748,7 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B133),'exportable data'!A133+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B133),'exportable data'!A133+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4132,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B134),'exportable data'!A134+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B134),'exportable data'!A134+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4146,7 +4776,7 @@
         <v>13</v>
       </c>
       <c r="C135">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B135),'exportable data'!A135+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B135),'exportable data'!A135+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4160,7 +4790,7 @@
         <v>14</v>
       </c>
       <c r="C136">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B136),'exportable data'!A136+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B136),'exportable data'!A136+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4174,7 +4804,7 @@
         <v>15</v>
       </c>
       <c r="C137">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B137),'exportable data'!A137+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B137),'exportable data'!A137+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4188,7 +4818,7 @@
         <v>16</v>
       </c>
       <c r="C138">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B138),'exportable data'!A138+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B138),'exportable data'!A138+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4202,7 +4832,7 @@
         <v>17</v>
       </c>
       <c r="C139">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B139),'exportable data'!A139+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B139),'exportable data'!A139+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4216,7 +4846,7 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B140),'exportable data'!A140+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B140),'exportable data'!A140+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4230,7 +4860,7 @@
         <v>19</v>
       </c>
       <c r="C141">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B141),'exportable data'!A141+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B141),'exportable data'!A141+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4244,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B142),'exportable data'!A142+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B142),'exportable data'!A142+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4258,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B143),'exportable data'!A143+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B143),'exportable data'!A143+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4272,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="C144">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B144),'exportable data'!A144+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B144),'exportable data'!A144+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4286,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B145),'exportable data'!A145+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B145),'exportable data'!A145+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4300,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B146),'exportable data'!A146+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B146),'exportable data'!A146+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4314,7 +4944,7 @@
         <v>5</v>
       </c>
       <c r="C147">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B147),'exportable data'!A147+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B147),'exportable data'!A147+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4328,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B148),'exportable data'!A148+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B148),'exportable data'!A148+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4342,7 +4972,7 @@
         <v>7</v>
       </c>
       <c r="C149">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B149),'exportable data'!A149+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B149),'exportable data'!A149+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4356,7 +4986,7 @@
         <v>8</v>
       </c>
       <c r="C150">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B150),'exportable data'!A150+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B150),'exportable data'!A150+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4370,7 +5000,7 @@
         <v>9</v>
       </c>
       <c r="C151">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B151),'exportable data'!A151+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B151),'exportable data'!A151+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4384,7 +5014,7 @@
         <v>10</v>
       </c>
       <c r="C152">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B152),'exportable data'!A152+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B152),'exportable data'!A152+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4398,7 +5028,7 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B153),'exportable data'!A153+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B153),'exportable data'!A153+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4412,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="C154">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B154),'exportable data'!A154+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B154),'exportable data'!A154+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4426,7 +5056,7 @@
         <v>13</v>
       </c>
       <c r="C155">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B155),'exportable data'!A155+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B155),'exportable data'!A155+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4440,7 +5070,7 @@
         <v>14</v>
       </c>
       <c r="C156">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B156),'exportable data'!A156+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B156),'exportable data'!A156+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4454,7 +5084,7 @@
         <v>15</v>
       </c>
       <c r="C157">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B157),'exportable data'!A157+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B157),'exportable data'!A157+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4468,7 +5098,7 @@
         <v>16</v>
       </c>
       <c r="C158">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B158),'exportable data'!A158+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B158),'exportable data'!A158+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4482,7 +5112,7 @@
         <v>17</v>
       </c>
       <c r="C159">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B159),'exportable data'!A159+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B159),'exportable data'!A159+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4496,7 +5126,7 @@
         <v>18</v>
       </c>
       <c r="C160">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B160),'exportable data'!A160+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B160),'exportable data'!A160+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4510,7 +5140,7 @@
         <v>19</v>
       </c>
       <c r="C161">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B161),'exportable data'!A161+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B161),'exportable data'!A161+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4524,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B162),'exportable data'!A162+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B162),'exportable data'!A162+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4538,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B163),'exportable data'!A163+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B163),'exportable data'!A163+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4552,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="C164">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B164),'exportable data'!A164+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B164),'exportable data'!A164+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4566,7 +5196,7 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B165),'exportable data'!A165+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B165),'exportable data'!A165+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4580,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B166),'exportable data'!A166+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B166),'exportable data'!A166+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4594,7 +5224,7 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B167),'exportable data'!A167+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B167),'exportable data'!A167+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4608,7 +5238,7 @@
         <v>6</v>
       </c>
       <c r="C168">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B168),'exportable data'!A168+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B168),'exportable data'!A168+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4622,7 +5252,7 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B169),'exportable data'!A169+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B169),'exportable data'!A169+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4636,7 +5266,7 @@
         <v>8</v>
       </c>
       <c r="C170">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B170),'exportable data'!A170+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B170),'exportable data'!A170+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4650,7 +5280,7 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B171),'exportable data'!A171+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B171),'exportable data'!A171+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4664,7 +5294,7 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B172),'exportable data'!A172+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B172),'exportable data'!A172+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4678,7 +5308,7 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B173),'exportable data'!A173+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B173),'exportable data'!A173+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4692,7 +5322,7 @@
         <v>12</v>
       </c>
       <c r="C174">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B174),'exportable data'!A174+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B174),'exportable data'!A174+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4706,7 +5336,7 @@
         <v>13</v>
       </c>
       <c r="C175">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B175),'exportable data'!A175+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B175),'exportable data'!A175+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4720,7 +5350,7 @@
         <v>14</v>
       </c>
       <c r="C176">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B176),'exportable data'!A176+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B176),'exportable data'!A176+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4734,7 +5364,7 @@
         <v>15</v>
       </c>
       <c r="C177">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B177),'exportable data'!A177+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B177),'exportable data'!A177+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4748,7 +5378,7 @@
         <v>16</v>
       </c>
       <c r="C178">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B178),'exportable data'!A178+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B178),'exportable data'!A178+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4762,7 +5392,7 @@
         <v>17</v>
       </c>
       <c r="C179">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B179),'exportable data'!A179+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B179),'exportable data'!A179+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4776,7 +5406,7 @@
         <v>18</v>
       </c>
       <c r="C180">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B180),'exportable data'!A180+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B180),'exportable data'!A180+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4790,7 +5420,7 @@
         <v>19</v>
       </c>
       <c r="C181">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B181),'exportable data'!A181+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B181),'exportable data'!A181+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4804,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B182),'exportable data'!A182+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B182),'exportable data'!A182+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4818,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B183),'exportable data'!A183+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B183),'exportable data'!A183+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4832,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="C184">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B184),'exportable data'!A184+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B184),'exportable data'!A184+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4846,7 +5476,7 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B185),'exportable data'!A185+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B185),'exportable data'!A185+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4860,7 +5490,7 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B186),'exportable data'!A186+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B186),'exportable data'!A186+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4874,7 +5504,7 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B187),'exportable data'!A187+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B187),'exportable data'!A187+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4888,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="C188">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B188),'exportable data'!A188+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B188),'exportable data'!A188+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4902,7 +5532,7 @@
         <v>7</v>
       </c>
       <c r="C189">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B189),'exportable data'!A189+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B189),'exportable data'!A189+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4916,7 +5546,7 @@
         <v>8</v>
       </c>
       <c r="C190">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B190),'exportable data'!A190+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B190),'exportable data'!A190+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4930,7 +5560,7 @@
         <v>9</v>
       </c>
       <c r="C191">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B191),'exportable data'!A191+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B191),'exportable data'!A191+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4944,7 +5574,7 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B192),'exportable data'!A192+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B192),'exportable data'!A192+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4958,7 +5588,7 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B193),'exportable data'!A193+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B193),'exportable data'!A193+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4972,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="C194">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B194),'exportable data'!A194+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B194),'exportable data'!A194+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4986,7 +5616,7 @@
         <v>13</v>
       </c>
       <c r="C195">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B195),'exportable data'!A195+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B195),'exportable data'!A195+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5000,7 +5630,7 @@
         <v>14</v>
       </c>
       <c r="C196">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B196),'exportable data'!A196+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B196),'exportable data'!A196+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5014,7 +5644,7 @@
         <v>15</v>
       </c>
       <c r="C197">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B197),'exportable data'!A197+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B197),'exportable data'!A197+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5028,7 +5658,7 @@
         <v>16</v>
       </c>
       <c r="C198">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B198),'exportable data'!A198+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B198),'exportable data'!A198+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5042,7 +5672,7 @@
         <v>17</v>
       </c>
       <c r="C199">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B199),'exportable data'!A199+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B199),'exportable data'!A199+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5056,7 +5686,7 @@
         <v>18</v>
       </c>
       <c r="C200">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B200),'exportable data'!A200+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B200),'exportable data'!A200+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5070,7 +5700,7 @@
         <v>19</v>
       </c>
       <c r="C201">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B201),'exportable data'!A201+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B201),'exportable data'!A201+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5084,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B202),'exportable data'!A202+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B202),'exportable data'!A202+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5098,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="C203">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B203),'exportable data'!A203+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B203),'exportable data'!A203+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5112,7 +5742,7 @@
         <v>2</v>
       </c>
       <c r="C204">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B204),'exportable data'!A204+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B204),'exportable data'!A204+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5126,7 +5756,7 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B205),'exportable data'!A205+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B205),'exportable data'!A205+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5140,7 +5770,7 @@
         <v>4</v>
       </c>
       <c r="C206">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B206),'exportable data'!A206+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B206),'exportable data'!A206+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5154,7 +5784,7 @@
         <v>5</v>
       </c>
       <c r="C207">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B207),'exportable data'!A207+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B207),'exportable data'!A207+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5168,7 +5798,7 @@
         <v>6</v>
       </c>
       <c r="C208">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B208),'exportable data'!A208+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B208),'exportable data'!A208+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5182,7 +5812,7 @@
         <v>7</v>
       </c>
       <c r="C209">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B209),'exportable data'!A209+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B209),'exportable data'!A209+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5196,7 +5826,7 @@
         <v>8</v>
       </c>
       <c r="C210">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B210),'exportable data'!A210+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B210),'exportable data'!A210+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5210,7 +5840,7 @@
         <v>9</v>
       </c>
       <c r="C211">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B211),'exportable data'!A211+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B211),'exportable data'!A211+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5224,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="C212">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B212),'exportable data'!A212+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B212),'exportable data'!A212+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5238,7 +5868,7 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B213),'exportable data'!A213+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B213),'exportable data'!A213+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5252,7 +5882,7 @@
         <v>12</v>
       </c>
       <c r="C214">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B214),'exportable data'!A214+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B214),'exportable data'!A214+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5266,7 +5896,7 @@
         <v>13</v>
       </c>
       <c r="C215">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B215),'exportable data'!A215+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B215),'exportable data'!A215+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5280,7 +5910,7 @@
         <v>14</v>
       </c>
       <c r="C216">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B216),'exportable data'!A216+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B216),'exportable data'!A216+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5294,7 +5924,7 @@
         <v>15</v>
       </c>
       <c r="C217">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B217),'exportable data'!A217+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B217),'exportable data'!A217+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5308,7 +5938,7 @@
         <v>16</v>
       </c>
       <c r="C218">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B218),'exportable data'!A218+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B218),'exportable data'!A218+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5322,7 +5952,7 @@
         <v>17</v>
       </c>
       <c r="C219">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B219),'exportable data'!A219+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B219),'exportable data'!A219+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5336,7 +5966,7 @@
         <v>18</v>
       </c>
       <c r="C220">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B220),'exportable data'!A220+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B220),'exportable data'!A220+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5350,7 +5980,7 @@
         <v>19</v>
       </c>
       <c r="C221">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B221),'exportable data'!A221+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B221),'exportable data'!A221+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5364,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B222),'exportable data'!A222+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B222),'exportable data'!A222+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5378,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="C223">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B223),'exportable data'!A223+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B223),'exportable data'!A223+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5392,7 +6022,7 @@
         <v>2</v>
       </c>
       <c r="C224">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B224),'exportable data'!A224+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B224),'exportable data'!A224+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5406,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="C225">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B225),'exportable data'!A225+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B225),'exportable data'!A225+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5420,7 +6050,7 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B226),'exportable data'!A226+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B226),'exportable data'!A226+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5434,7 +6064,7 @@
         <v>5</v>
       </c>
       <c r="C227">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B227),'exportable data'!A227+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B227),'exportable data'!A227+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5448,7 +6078,7 @@
         <v>6</v>
       </c>
       <c r="C228">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B228),'exportable data'!A228+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B228),'exportable data'!A228+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5462,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="C229">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B229),'exportable data'!A229+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B229),'exportable data'!A229+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5476,7 +6106,7 @@
         <v>8</v>
       </c>
       <c r="C230">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B230),'exportable data'!A230+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B230),'exportable data'!A230+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5490,7 +6120,7 @@
         <v>9</v>
       </c>
       <c r="C231">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B231),'exportable data'!A231+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B231),'exportable data'!A231+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5504,7 +6134,7 @@
         <v>10</v>
       </c>
       <c r="C232">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B232),'exportable data'!A232+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B232),'exportable data'!A232+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5518,7 +6148,7 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B233),'exportable data'!A233+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B233),'exportable data'!A233+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5532,7 +6162,7 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B234),'exportable data'!A234+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B234),'exportable data'!A234+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5546,7 +6176,7 @@
         <v>13</v>
       </c>
       <c r="C235">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B235),'exportable data'!A235+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B235),'exportable data'!A235+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5560,7 +6190,7 @@
         <v>14</v>
       </c>
       <c r="C236">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B236),'exportable data'!A236+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B236),'exportable data'!A236+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5574,7 +6204,7 @@
         <v>15</v>
       </c>
       <c r="C237">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B237),'exportable data'!A237+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B237),'exportable data'!A237+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5588,7 +6218,7 @@
         <v>16</v>
       </c>
       <c r="C238">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B238),'exportable data'!A238+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B238),'exportable data'!A238+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5602,7 +6232,7 @@
         <v>17</v>
       </c>
       <c r="C239">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B239),'exportable data'!A239+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B239),'exportable data'!A239+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5616,7 +6246,7 @@
         <v>18</v>
       </c>
       <c r="C240">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B240),'exportable data'!A240+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B240),'exportable data'!A240+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5630,7 +6260,7 @@
         <v>19</v>
       </c>
       <c r="C241">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B241),'exportable data'!A241+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B241),'exportable data'!A241+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5644,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B242),'exportable data'!A242+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B242),'exportable data'!A242+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5658,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="C243">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B243),'exportable data'!A243+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B243),'exportable data'!A243+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5672,7 +6302,7 @@
         <v>2</v>
       </c>
       <c r="C244">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B244),'exportable data'!A244+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B244),'exportable data'!A244+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5686,7 +6316,7 @@
         <v>3</v>
       </c>
       <c r="C245">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B245),'exportable data'!A245+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B245),'exportable data'!A245+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5700,7 +6330,7 @@
         <v>4</v>
       </c>
       <c r="C246">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B246),'exportable data'!A246+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B246),'exportable data'!A246+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5714,7 +6344,7 @@
         <v>5</v>
       </c>
       <c r="C247">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B247),'exportable data'!A247+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B247),'exportable data'!A247+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5728,7 +6358,7 @@
         <v>6</v>
       </c>
       <c r="C248">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B248),'exportable data'!A248+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B248),'exportable data'!A248+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5742,7 +6372,7 @@
         <v>7</v>
       </c>
       <c r="C249">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B249),'exportable data'!A249+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B249),'exportable data'!A249+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5756,7 +6386,7 @@
         <v>8</v>
       </c>
       <c r="C250">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B250),'exportable data'!A250+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B250),'exportable data'!A250+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5770,7 +6400,7 @@
         <v>9</v>
       </c>
       <c r="C251">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B251),'exportable data'!A251+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B251),'exportable data'!A251+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5784,7 +6414,7 @@
         <v>10</v>
       </c>
       <c r="C252">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B252),'exportable data'!A252+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B252),'exportable data'!A252+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5798,7 +6428,7 @@
         <v>11</v>
       </c>
       <c r="C253">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B253),'exportable data'!A253+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B253),'exportable data'!A253+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5812,7 +6442,7 @@
         <v>12</v>
       </c>
       <c r="C254">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B254),'exportable data'!A254+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B254),'exportable data'!A254+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5826,7 +6456,7 @@
         <v>13</v>
       </c>
       <c r="C255">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B255),'exportable data'!A255+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B255),'exportable data'!A255+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5840,7 +6470,7 @@
         <v>14</v>
       </c>
       <c r="C256">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B256),'exportable data'!A256+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B256),'exportable data'!A256+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5854,7 +6484,7 @@
         <v>15</v>
       </c>
       <c r="C257">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B257),'exportable data'!A257+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B257),'exportable data'!A257+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5868,7 +6498,7 @@
         <v>16</v>
       </c>
       <c r="C258">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B258),'exportable data'!A258+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B258),'exportable data'!A258+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5882,7 +6512,7 @@
         <v>17</v>
       </c>
       <c r="C259">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B259),'exportable data'!A259+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B259),'exportable data'!A259+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5896,7 +6526,7 @@
         <v>18</v>
       </c>
       <c r="C260">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B260),'exportable data'!A260+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B260),'exportable data'!A260+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5910,7 +6540,7 @@
         <v>19</v>
       </c>
       <c r="C261">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B261),'exportable data'!A261+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B261),'exportable data'!A261+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5924,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="C262">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B262),'exportable data'!A262+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B262),'exportable data'!A262+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5938,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B263),'exportable data'!A263+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B263),'exportable data'!A263+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5952,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="C264">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B264),'exportable data'!A264+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B264),'exportable data'!A264+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5966,7 +6596,7 @@
         <v>3</v>
       </c>
       <c r="C265">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B265),'exportable data'!A265+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B265),'exportable data'!A265+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5980,7 +6610,7 @@
         <v>4</v>
       </c>
       <c r="C266">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B266),'exportable data'!A266+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B266),'exportable data'!A266+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5994,7 +6624,7 @@
         <v>5</v>
       </c>
       <c r="C267">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B267),'exportable data'!A267+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B267),'exportable data'!A267+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6008,7 +6638,7 @@
         <v>6</v>
       </c>
       <c r="C268">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B268),'exportable data'!A268+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B268),'exportable data'!A268+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6022,7 +6652,7 @@
         <v>7</v>
       </c>
       <c r="C269">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B269),'exportable data'!A269+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B269),'exportable data'!A269+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6036,7 +6666,7 @@
         <v>8</v>
       </c>
       <c r="C270">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B270),'exportable data'!A270+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B270),'exportable data'!A270+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6050,7 +6680,7 @@
         <v>9</v>
       </c>
       <c r="C271">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B271),'exportable data'!A271+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B271),'exportable data'!A271+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6064,7 +6694,7 @@
         <v>10</v>
       </c>
       <c r="C272">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B272),'exportable data'!A272+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B272),'exportable data'!A272+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6078,7 +6708,7 @@
         <v>11</v>
       </c>
       <c r="C273">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B273),'exportable data'!A273+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B273),'exportable data'!A273+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6092,7 +6722,7 @@
         <v>12</v>
       </c>
       <c r="C274">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B274),'exportable data'!A274+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B274),'exportable data'!A274+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6106,7 +6736,7 @@
         <v>13</v>
       </c>
       <c r="C275">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B275),'exportable data'!A275+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B275),'exportable data'!A275+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6120,7 +6750,7 @@
         <v>14</v>
       </c>
       <c r="C276">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B276),'exportable data'!A276+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B276),'exportable data'!A276+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6134,7 +6764,7 @@
         <v>15</v>
       </c>
       <c r="C277">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B277),'exportable data'!A277+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B277),'exportable data'!A277+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6148,7 +6778,7 @@
         <v>16</v>
       </c>
       <c r="C278">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B278),'exportable data'!A278+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B278),'exportable data'!A278+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6162,7 +6792,7 @@
         <v>17</v>
       </c>
       <c r="C279">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B279),'exportable data'!A279+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B279),'exportable data'!A279+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6176,7 +6806,7 @@
         <v>18</v>
       </c>
       <c r="C280">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B280),'exportable data'!A280+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B280),'exportable data'!A280+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6190,7 +6820,7 @@
         <v>19</v>
       </c>
       <c r="C281">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B281),'exportable data'!A281+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B281),'exportable data'!A281+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6204,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="C282">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B282),'exportable data'!A282+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B282),'exportable data'!A282+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6218,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B283),'exportable data'!A283+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B283),'exportable data'!A283+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6232,7 +6862,7 @@
         <v>2</v>
       </c>
       <c r="C284">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B284),'exportable data'!A284+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B284),'exportable data'!A284+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6246,7 +6876,7 @@
         <v>3</v>
       </c>
       <c r="C285">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B285),'exportable data'!A285+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B285),'exportable data'!A285+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6260,7 +6890,7 @@
         <v>4</v>
       </c>
       <c r="C286">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B286),'exportable data'!A286+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B286),'exportable data'!A286+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6274,7 +6904,7 @@
         <v>5</v>
       </c>
       <c r="C287">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B287),'exportable data'!A287+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B287),'exportable data'!A287+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6288,7 +6918,7 @@
         <v>6</v>
       </c>
       <c r="C288">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B288),'exportable data'!A288+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B288),'exportable data'!A288+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6302,7 +6932,7 @@
         <v>7</v>
       </c>
       <c r="C289">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B289),'exportable data'!A289+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B289),'exportable data'!A289+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6316,7 +6946,7 @@
         <v>8</v>
       </c>
       <c r="C290">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B290),'exportable data'!A290+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B290),'exportable data'!A290+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6330,7 +6960,7 @@
         <v>9</v>
       </c>
       <c r="C291">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B291),'exportable data'!A291+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B291),'exportable data'!A291+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6344,7 +6974,7 @@
         <v>10</v>
       </c>
       <c r="C292">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B292),'exportable data'!A292+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B292),'exportable data'!A292+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6358,7 +6988,7 @@
         <v>11</v>
       </c>
       <c r="C293">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B293),'exportable data'!A293+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B293),'exportable data'!A293+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6372,7 +7002,7 @@
         <v>12</v>
       </c>
       <c r="C294">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B294),'exportable data'!A294+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B294),'exportable data'!A294+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6386,7 +7016,7 @@
         <v>13</v>
       </c>
       <c r="C295">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B295),'exportable data'!A295+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B295),'exportable data'!A295+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6400,7 +7030,7 @@
         <v>14</v>
       </c>
       <c r="C296">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B296),'exportable data'!A296+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B296),'exportable data'!A296+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6414,7 +7044,7 @@
         <v>15</v>
       </c>
       <c r="C297">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B297),'exportable data'!A297+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B297),'exportable data'!A297+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6428,7 +7058,7 @@
         <v>16</v>
       </c>
       <c r="C298">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B298),'exportable data'!A298+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B298),'exportable data'!A298+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6442,7 +7072,7 @@
         <v>17</v>
       </c>
       <c r="C299">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B299),'exportable data'!A299+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B299),'exportable data'!A299+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6456,7 +7086,7 @@
         <v>18</v>
       </c>
       <c r="C300">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B300),'exportable data'!A300+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B300),'exportable data'!A300+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6470,7 +7100,7 @@
         <v>19</v>
       </c>
       <c r="C301">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B301),'exportable data'!A301+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B301),'exportable data'!A301+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6484,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="C302">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B302),'exportable data'!A302+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B302),'exportable data'!A302+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6498,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="C303">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B303),'exportable data'!A303+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B303),'exportable data'!A303+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6512,7 +7142,7 @@
         <v>2</v>
       </c>
       <c r="C304">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B304),'exportable data'!A304+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B304),'exportable data'!A304+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6526,7 +7156,7 @@
         <v>3</v>
       </c>
       <c r="C305">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B305),'exportable data'!A305+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B305),'exportable data'!A305+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6540,7 +7170,7 @@
         <v>4</v>
       </c>
       <c r="C306">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B306),'exportable data'!A306+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B306),'exportable data'!A306+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6554,7 +7184,7 @@
         <v>5</v>
       </c>
       <c r="C307">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B307),'exportable data'!A307+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B307),'exportable data'!A307+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6568,7 +7198,7 @@
         <v>6</v>
       </c>
       <c r="C308">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B308),'exportable data'!A308+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B308),'exportable data'!A308+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6582,7 +7212,7 @@
         <v>7</v>
       </c>
       <c r="C309">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B309),'exportable data'!A309+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B309),'exportable data'!A309+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6596,7 +7226,7 @@
         <v>8</v>
       </c>
       <c r="C310">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B310),'exportable data'!A310+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B310),'exportable data'!A310+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6610,7 +7240,7 @@
         <v>9</v>
       </c>
       <c r="C311">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B311),'exportable data'!A311+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B311),'exportable data'!A311+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6624,7 +7254,7 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B312),'exportable data'!A312+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B312),'exportable data'!A312+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6638,7 +7268,7 @@
         <v>11</v>
       </c>
       <c r="C313">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B313),'exportable data'!A313+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B313),'exportable data'!A313+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6652,7 +7282,7 @@
         <v>12</v>
       </c>
       <c r="C314">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B314),'exportable data'!A314+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B314),'exportable data'!A314+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6666,7 +7296,7 @@
         <v>13</v>
       </c>
       <c r="C315">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B315),'exportable data'!A315+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B315),'exportable data'!A315+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6680,7 +7310,7 @@
         <v>14</v>
       </c>
       <c r="C316">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B316),'exportable data'!A316+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B316),'exportable data'!A316+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6694,7 +7324,7 @@
         <v>15</v>
       </c>
       <c r="C317">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B317),'exportable data'!A317+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B317),'exportable data'!A317+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6708,7 +7338,7 @@
         <v>16</v>
       </c>
       <c r="C318">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B318),'exportable data'!A318+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B318),'exportable data'!A318+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6722,7 +7352,7 @@
         <v>17</v>
       </c>
       <c r="C319">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B319),'exportable data'!A319+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B319),'exportable data'!A319+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6736,7 +7366,7 @@
         <v>18</v>
       </c>
       <c r="C320">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B320),'exportable data'!A320+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B320),'exportable data'!A320+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6750,7 +7380,7 @@
         <v>19</v>
       </c>
       <c r="C321">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B321),'exportable data'!A321+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B321),'exportable data'!A321+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6764,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="C322">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B322),'exportable data'!A322+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B322),'exportable data'!A322+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6778,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="C323">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B323),'exportable data'!A323+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B323),'exportable data'!A323+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6792,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="C324">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B324),'exportable data'!A324+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B324),'exportable data'!A324+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6806,7 +7436,7 @@
         <v>3</v>
       </c>
       <c r="C325">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B325),'exportable data'!A325+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B325),'exportable data'!A325+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6820,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="C326">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B326),'exportable data'!A326+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B326),'exportable data'!A326+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6834,7 +7464,7 @@
         <v>5</v>
       </c>
       <c r="C327">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B327),'exportable data'!A327+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B327),'exportable data'!A327+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6848,7 +7478,7 @@
         <v>6</v>
       </c>
       <c r="C328">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B328),'exportable data'!A328+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B328),'exportable data'!A328+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6862,7 +7492,7 @@
         <v>7</v>
       </c>
       <c r="C329">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B329),'exportable data'!A329+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B329),'exportable data'!A329+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6876,7 +7506,7 @@
         <v>8</v>
       </c>
       <c r="C330">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B330),'exportable data'!A330+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B330),'exportable data'!A330+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6890,7 +7520,7 @@
         <v>9</v>
       </c>
       <c r="C331">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B331),'exportable data'!A331+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B331),'exportable data'!A331+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6904,7 +7534,7 @@
         <v>10</v>
       </c>
       <c r="C332">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B332),'exportable data'!A332+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B332),'exportable data'!A332+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6918,7 +7548,7 @@
         <v>11</v>
       </c>
       <c r="C333">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B333),'exportable data'!A333+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B333),'exportable data'!A333+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6932,7 +7562,7 @@
         <v>12</v>
       </c>
       <c r="C334">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B334),'exportable data'!A334+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B334),'exportable data'!A334+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6946,7 +7576,7 @@
         <v>13</v>
       </c>
       <c r="C335">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B335),'exportable data'!A335+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B335),'exportable data'!A335+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6960,7 +7590,7 @@
         <v>14</v>
       </c>
       <c r="C336">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B336),'exportable data'!A336+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B336),'exportable data'!A336+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6974,7 +7604,7 @@
         <v>15</v>
       </c>
       <c r="C337">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B337),'exportable data'!A337+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B337),'exportable data'!A337+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6988,7 +7618,7 @@
         <v>16</v>
       </c>
       <c r="C338">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B338),'exportable data'!A338+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B338),'exportable data'!A338+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7002,7 +7632,7 @@
         <v>17</v>
       </c>
       <c r="C339">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B339),'exportable data'!A339+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B339),'exportable data'!A339+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7016,7 +7646,7 @@
         <v>18</v>
       </c>
       <c r="C340">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B340),'exportable data'!A340+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B340),'exportable data'!A340+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7030,7 +7660,7 @@
         <v>19</v>
       </c>
       <c r="C341">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B341),'exportable data'!A341+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B341),'exportable data'!A341+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7044,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="C342">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B342),'exportable data'!A342+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B342),'exportable data'!A342+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7058,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="C343">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B343),'exportable data'!A343+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B343),'exportable data'!A343+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7072,7 +7702,7 @@
         <v>2</v>
       </c>
       <c r="C344">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B344),'exportable data'!A344+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B344),'exportable data'!A344+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7086,7 +7716,7 @@
         <v>3</v>
       </c>
       <c r="C345">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B345),'exportable data'!A345+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B345),'exportable data'!A345+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7100,7 +7730,7 @@
         <v>4</v>
       </c>
       <c r="C346">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B346),'exportable data'!A346+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B346),'exportable data'!A346+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7114,7 +7744,7 @@
         <v>5</v>
       </c>
       <c r="C347">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B347),'exportable data'!A347+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B347),'exportable data'!A347+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7128,7 +7758,7 @@
         <v>6</v>
       </c>
       <c r="C348">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B348),'exportable data'!A348+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B348),'exportable data'!A348+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7142,7 +7772,7 @@
         <v>7</v>
       </c>
       <c r="C349">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B349),'exportable data'!A349+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B349),'exportable data'!A349+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7156,7 +7786,7 @@
         <v>8</v>
       </c>
       <c r="C350">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B350),'exportable data'!A350+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B350),'exportable data'!A350+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7170,7 +7800,7 @@
         <v>9</v>
       </c>
       <c r="C351">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B351),'exportable data'!A351+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B351),'exportable data'!A351+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7184,7 +7814,7 @@
         <v>10</v>
       </c>
       <c r="C352">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B352),'exportable data'!A352+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B352),'exportable data'!A352+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7198,7 +7828,7 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B353),'exportable data'!A353+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B353),'exportable data'!A353+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7212,7 +7842,7 @@
         <v>12</v>
       </c>
       <c r="C354">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B354),'exportable data'!A354+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B354),'exportable data'!A354+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7226,7 +7856,7 @@
         <v>13</v>
       </c>
       <c r="C355">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B355),'exportable data'!A355+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B355),'exportable data'!A355+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7240,7 +7870,7 @@
         <v>14</v>
       </c>
       <c r="C356">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B356),'exportable data'!A356+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B356),'exportable data'!A356+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7254,7 +7884,7 @@
         <v>15</v>
       </c>
       <c r="C357">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B357),'exportable data'!A357+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B357),'exportable data'!A357+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7268,7 +7898,7 @@
         <v>16</v>
       </c>
       <c r="C358">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B358),'exportable data'!A358+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B358),'exportable data'!A358+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7282,7 +7912,7 @@
         <v>17</v>
       </c>
       <c r="C359">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B359),'exportable data'!A359+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B359),'exportable data'!A359+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7296,7 +7926,7 @@
         <v>18</v>
       </c>
       <c r="C360">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B360),'exportable data'!A360+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B360),'exportable data'!A360+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7310,7 +7940,7 @@
         <v>19</v>
       </c>
       <c r="C361">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B361),'exportable data'!A361+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B361),'exportable data'!A361+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7324,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="C362">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B362),'exportable data'!A362+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B362),'exportable data'!A362+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7338,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B363),'exportable data'!A363+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B363),'exportable data'!A363+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7352,7 +7982,7 @@
         <v>2</v>
       </c>
       <c r="C364">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B364),'exportable data'!A364+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B364),'exportable data'!A364+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7366,7 +7996,7 @@
         <v>3</v>
       </c>
       <c r="C365">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B365),'exportable data'!A365+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B365),'exportable data'!A365+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7380,7 +8010,7 @@
         <v>4</v>
       </c>
       <c r="C366">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B366),'exportable data'!A366+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B366),'exportable data'!A366+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7394,7 +8024,7 @@
         <v>5</v>
       </c>
       <c r="C367">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B367),'exportable data'!A367+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B367),'exportable data'!A367+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7408,7 +8038,7 @@
         <v>6</v>
       </c>
       <c r="C368">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B368),'exportable data'!A368+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B368),'exportable data'!A368+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7422,7 +8052,7 @@
         <v>7</v>
       </c>
       <c r="C369">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B369),'exportable data'!A369+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B369),'exportable data'!A369+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7436,7 +8066,7 @@
         <v>8</v>
       </c>
       <c r="C370">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B370),'exportable data'!A370+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B370),'exportable data'!A370+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7450,7 +8080,7 @@
         <v>9</v>
       </c>
       <c r="C371">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B371),'exportable data'!A371+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B371),'exportable data'!A371+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7464,7 +8094,7 @@
         <v>10</v>
       </c>
       <c r="C372">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B372),'exportable data'!A372+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B372),'exportable data'!A372+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7478,7 +8108,7 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B373),'exportable data'!A373+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B373),'exportable data'!A373+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7492,7 +8122,7 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B374),'exportable data'!A374+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B374),'exportable data'!A374+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7506,7 +8136,7 @@
         <v>13</v>
       </c>
       <c r="C375">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B375),'exportable data'!A375+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B375),'exportable data'!A375+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7520,7 +8150,7 @@
         <v>14</v>
       </c>
       <c r="C376">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B376),'exportable data'!A376+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B376),'exportable data'!A376+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7534,7 +8164,7 @@
         <v>15</v>
       </c>
       <c r="C377">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B377),'exportable data'!A377+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B377),'exportable data'!A377+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7548,7 +8178,7 @@
         <v>16</v>
       </c>
       <c r="C378">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B378),'exportable data'!A378+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B378),'exportable data'!A378+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7562,7 +8192,7 @@
         <v>17</v>
       </c>
       <c r="C379">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B379),'exportable data'!A379+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B379),'exportable data'!A379+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7576,7 +8206,7 @@
         <v>18</v>
       </c>
       <c r="C380">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B380),'exportable data'!A380+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B380),'exportable data'!A380+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7590,7 +8220,7 @@
         <v>19</v>
       </c>
       <c r="C381">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B381),'exportable data'!A381+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B381),'exportable data'!A381+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7604,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="C382">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B382),'exportable data'!A382+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B382),'exportable data'!A382+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7618,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="C383">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B383),'exportable data'!A383+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B383),'exportable data'!A383+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7632,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="C384">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B384),'exportable data'!A384+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B384),'exportable data'!A384+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7646,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="C385">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B385),'exportable data'!A385+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B385),'exportable data'!A385+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7660,7 +8290,7 @@
         <v>4</v>
       </c>
       <c r="C386">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B386),'exportable data'!A386+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B386),'exportable data'!A386+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7674,7 +8304,7 @@
         <v>5</v>
       </c>
       <c r="C387">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B387),'exportable data'!A387+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B387),'exportable data'!A387+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7688,7 +8318,7 @@
         <v>6</v>
       </c>
       <c r="C388">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B388),'exportable data'!A388+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B388),'exportable data'!A388+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7702,7 +8332,7 @@
         <v>7</v>
       </c>
       <c r="C389">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B389),'exportable data'!A389+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B389),'exportable data'!A389+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7716,7 +8346,7 @@
         <v>8</v>
       </c>
       <c r="C390">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B390),'exportable data'!A390+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B390),'exportable data'!A390+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7730,7 +8360,7 @@
         <v>9</v>
       </c>
       <c r="C391">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B391),'exportable data'!A391+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B391),'exportable data'!A391+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7744,7 +8374,7 @@
         <v>10</v>
       </c>
       <c r="C392">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B392),'exportable data'!A392+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B392),'exportable data'!A392+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7758,7 +8388,7 @@
         <v>11</v>
       </c>
       <c r="C393">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B393),'exportable data'!A393+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B393),'exportable data'!A393+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7772,7 +8402,7 @@
         <v>12</v>
       </c>
       <c r="C394">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B394),'exportable data'!A394+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B394),'exportable data'!A394+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7786,7 +8416,7 @@
         <v>13</v>
       </c>
       <c r="C395">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B395),'exportable data'!A395+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B395),'exportable data'!A395+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7800,7 +8430,7 @@
         <v>14</v>
       </c>
       <c r="C396">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B396),'exportable data'!A396+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B396),'exportable data'!A396+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7814,7 +8444,7 @@
         <v>15</v>
       </c>
       <c r="C397">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B397),'exportable data'!A397+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B397),'exportable data'!A397+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7828,7 +8458,7 @@
         <v>16</v>
       </c>
       <c r="C398">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B398),'exportable data'!A398+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B398),'exportable data'!A398+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7842,7 +8472,7 @@
         <v>17</v>
       </c>
       <c r="C399">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B399),'exportable data'!A399+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B399),'exportable data'!A399+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7856,7 +8486,7 @@
         <v>18</v>
       </c>
       <c r="C400">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B400),'exportable data'!A400+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B400),'exportable data'!A400+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7870,7 +8500,7 @@
         <v>19</v>
       </c>
       <c r="C401">
-        <f>INDEX('map source data'!$A$1:$T$20,$L$2-('exportable data'!B401),'exportable data'!A401+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B401),'exportable data'!A401+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7878,10 +8508,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="8">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BlockTileSystem/Assets/Levels/map_schema.xlsx
+++ b/BlockTileSystem/Assets/Levels/map_schema.xlsx
@@ -177,14 +177,17 @@
   <connection id="7" name="map3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\U3D\0.PROJECTS\BlockTileSystem\BlockTileSystem\BlockTileSystem\Assets\Levels\map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="xml" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="map4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\U3D\0.PROJECTS\BlockTileSystem\BlockTileSystem\BlockTileSystem\Assets\Levels\map.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" name="xml" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\U3D\0.PROJECTS\BlockTileSystem\BlockTileSystem\BlockTileSystem\Assets\Levels\xml\xml.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,7 +476,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema4">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="SavableLevel">
         <xsd:complexType>
@@ -588,7 +591,7 @@
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
-            <xsd:element minOccurs="0" nillable="true" name="Shooters" form="unqualified">
+            <xsd:element minOccurs="0" nillable="true" name="sShooters" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="ShooterInXML" form="unqualified">
@@ -599,15 +602,15 @@
                             <xsd:sequence minOccurs="0">
                               <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="y" form="unqualified"/>
-                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="shootingTimeInterval" form="unqualified"/>
-                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sShootingDirection" form="unqualified"/>
-                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="isMoving" form="unqualified"/>
-                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sMovingDirection" form="unqualified"/>
-                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="range" form="unqualified"/>
-                              <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="movingTimeInterval" form="unqualified"/>
                             </xsd:sequence>
                           </xsd:complexType>
                         </xsd:element>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="shootingTimeInterval" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sShootingDirection" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="isMoving" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sMovingDirection" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="range" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="movingTimeInterval" form="unqualified"/>
                       </xsd:sequence>
                     </xsd:complexType>
                   </xsd:element>
@@ -693,27 +696,27 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="9" Name="SavableLevel_映射" RootElement="SavableLevel" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
+  <Map ID="10" Name="SavableLevel_映射" RootElement="SavableLevel" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:C401" tableType="xml" totalsRowShown="0" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:C401" tableType="xml" totalsRowShown="0" connectionId="8">
   <autoFilter ref="A1:C401"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="x" name="x">
       <calculatedColumnFormula>INT((ROW()-2)/20)</calculatedColumnFormula>
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/tMap/Tile/vTilePosition/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/tMap/Tile/vTilePosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="y">
       <calculatedColumnFormula>MOD(ROW()-2,20)</calculatedColumnFormula>
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/tMap/Tile/vTilePosition/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/tMap/Tile/vTilePosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="iTileType" name="iTileType" dataDxfId="0">
       <calculatedColumnFormula>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B2),'exportable data'!A2+1)</calculatedColumnFormula>
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/tMap/Tile/iTileType" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/tMap/Tile/iTileType" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -721,29 +724,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="M1:S5" tableType="xml" totalsRowShown="0" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="M1:S5" tableType="xml" totalsRowShown="0" connectionId="8">
   <autoFilter ref="M1:S5"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="x" name="vPositionX">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/vPosition/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/pPushers/PusherInXML/vPosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="vPositionY">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/vPosition/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/pPushers/PusherInXML/vPosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="isControlled" name="isControlled">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/isControlled" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/pPushers/PusherInXML/isControlled" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="sDirection" name="sDirection">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/sDirection" xmlDataType="string"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/pPushers/PusherInXML/sDirection" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="range" name="range">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/range" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/pPushers/PusherInXML/range" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/ID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/pPushers/PusherInXML/ID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="timeInterval" name="timeInterval">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/pPushers/PusherInXML/timeInterval" xmlDataType="double"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/pPushers/PusherInXML/timeInterval" xmlDataType="double"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -751,20 +754,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="AA1:AD3" tableType="xml" totalsRowShown="0" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="AA1:AD3" tableType="xml" totalsRowShown="0" connectionId="8">
   <autoFilter ref="AA1:AD3"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="x" name="vPositionX">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="vPositionY">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/dDoors/DoorInXML/vPosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="iID" name="ID">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/dDoors/DoorInXML/iID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/dDoors/DoorInXML/iID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="triggerNumber" name="triggerNumber">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/dDoors/DoorInXML/triggerNumber" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/dDoors/DoorInXML/triggerNumber" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -772,14 +775,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表12" displayName="表12" ref="I1:J3" tableType="xml" totalsRowShown="0" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表12" displayName="表12" ref="I1:J3" tableType="xml" totalsRowShown="0" connectionId="8">
   <autoFilter ref="I1:J3"/>
   <tableColumns count="2">
     <tableColumn id="1" uniqueName="x" name="vPositionX">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/sStars/StarInXML/vPosition/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sStars/StarInXML/vPosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="vPositionY">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/sStars/StarInXML/vPosition/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sStars/StarInXML/vPosition/y" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -787,17 +790,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="AG1:AI3" tableType="xml" totalsRowShown="0" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="AG1:AI3" tableType="xml" totalsRowShown="0" connectionId="8">
   <autoFilter ref="AG1:AI3"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="x" name="vPositionX">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/StepTriggers/StepTriggerInXML/vPosition/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/StepTriggers/StepTriggerInXML/vPosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="vPositionY">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/StepTriggers/StepTriggerInXML/vPosition/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/StepTriggers/StepTriggerInXML/vPosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="iID" name="ID">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/StepTriggers/StepTriggerInXML/iID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/StepTriggers/StepTriggerInXML/iID" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -805,17 +808,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表14" displayName="表14" ref="V1:X3" tableType="xml" totalsRowShown="0" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表14" displayName="表14" ref="V1:X3" tableType="xml" totalsRowShown="0" connectionId="8">
   <autoFilter ref="V1:X3"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="x" name="vPositionX">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/StayTriggers/StayTriggerInXML/vPosition/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/StayTriggers/StayTriggerInXML/vPosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="vPositionY">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/StayTriggers/StayTriggerInXML/vPosition/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/StayTriggers/StayTriggerInXML/vPosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="iID" name="ID">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/StayTriggers/StayTriggerInXML/iID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/StayTriggers/StayTriggerInXML/iID" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -823,32 +826,32 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="AL1:AS3" tableType="xml" totalsRowShown="0" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="AL1:AS3" tableType="xml" totalsRowShown="0" connectionId="8">
   <autoFilter ref="AL1:AS3"/>
   <tableColumns count="8">
     <tableColumn id="1" uniqueName="x" name="vPositionX">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sShooters/ShooterInXML/vPosition/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="vPositionY">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sShooters/ShooterInXML/vPosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="shootingTimeInterval" name="shootingTimeInterval">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/shootingTimeInterval" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sShooters/ShooterInXML/shootingTimeInterval" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="sShootingDirection" name="sShootingDirection">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/sShootingDirection" xmlDataType="string"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sShooters/ShooterInXML/sShootingDirection" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="isMoving" name="isMoving">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/isMoving" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sShooters/ShooterInXML/isMoving" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="sMovingDirection" name="sMovingDirection">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/sMovingDirection" xmlDataType="string"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sShooters/ShooterInXML/sMovingDirection" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="range" name="range">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/range" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sShooters/ShooterInXML/range" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="movingTimeInterval" name="movingTimeInterval">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/Shooters/ShooterInXML/vPosition/movingTimeInterval" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/sShooters/ShooterInXML/movingTimeInterval" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -856,20 +859,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表16" displayName="表16" ref="AV1:AY4" tableType="xml" totalsRowShown="0" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表16" displayName="表16" ref="AV1:AY4" tableType="xml" totalsRowShown="0" connectionId="8">
   <autoFilter ref="AV1:AY4"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="x" name="vCheckPoint1PositionX">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint1Position/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint1Position/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="y" name="vCheckPoint1PositionY">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint1Position/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint1Position/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="x" name="vCheckPoint2PositionX">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint2Position/x" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint2Position/x" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="y" name="vCheckPoint2PositionY">
-      <xmlColumnPr mapId="9" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint2Position/y" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint2Position/y" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -878,44 +881,44 @@
 
 <file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
 <singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <singleXmlCell id="3" r="F1" connectionId="7">
+  <singleXmlCell id="2" r="F1" connectionId="8">
     <xmlCellPr id="1" uniqueName="sLevelName">
-      <xmlPr mapId="9" xpath="/SavableLevel/sLevelName" xmlDataType="string"/>
+      <xmlPr mapId="10" xpath="/SavableLevel/sLevelName" xmlDataType="string"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="5" r="F2" connectionId="7">
+  <singleXmlCell id="3" r="F2" connectionId="8">
     <xmlCellPr id="1" uniqueName="iLevelType">
-      <xmlPr mapId="9" xpath="/SavableLevel/iLevelType" xmlDataType="integer"/>
+      <xmlPr mapId="10" xpath="/SavableLevel/iLevelType" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="6" r="F3" connectionId="7">
+  <singleXmlCell id="5" r="F3" connectionId="8">
     <xmlCellPr id="1" uniqueName="x">
-      <xmlPr mapId="9" xpath="/SavableLevel/vChar1StartPos/x" xmlDataType="integer"/>
+      <xmlPr mapId="10" xpath="/SavableLevel/vChar1StartPos/x" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="7" r="F4" connectionId="7">
+  <singleXmlCell id="6" r="F4" connectionId="8">
     <xmlCellPr id="1" uniqueName="y">
-      <xmlPr mapId="9" xpath="/SavableLevel/vChar1StartPos/y" xmlDataType="integer"/>
+      <xmlPr mapId="10" xpath="/SavableLevel/vChar1StartPos/y" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="8" r="F5" connectionId="7">
+  <singleXmlCell id="7" r="F5" connectionId="8">
     <xmlCellPr id="1" uniqueName="x">
-      <xmlPr mapId="9" xpath="/SavableLevel/vChar2StartPos/x" xmlDataType="integer"/>
+      <xmlPr mapId="10" xpath="/SavableLevel/vChar2StartPos/x" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="9" r="F6" connectionId="7">
+  <singleXmlCell id="8" r="F6" connectionId="8">
     <xmlCellPr id="1" uniqueName="y">
-      <xmlPr mapId="9" xpath="/SavableLevel/vChar2StartPos/y" xmlDataType="integer"/>
+      <xmlPr mapId="10" xpath="/SavableLevel/vChar2StartPos/y" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="10" r="F7" connectionId="7">
+  <singleXmlCell id="9" r="F7" connectionId="8">
     <xmlCellPr id="1" uniqueName="x">
-      <xmlPr mapId="9" xpath="/SavableLevel/vDim/x" xmlDataType="integer"/>
+      <xmlPr mapId="10" xpath="/SavableLevel/vDim/x" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
-  <singleXmlCell id="11" r="F8" connectionId="7">
+  <singleXmlCell id="10" r="F8" connectionId="8">
     <xmlCellPr id="1" uniqueName="y">
-      <xmlPr mapId="9" xpath="/SavableLevel/vDim/y" xmlDataType="integer"/>
+      <xmlPr mapId="10" xpath="/SavableLevel/vDim/y" xmlDataType="integer"/>
     </xmlCellPr>
   </singleXmlCell>
 </singleXmlCells>
@@ -2468,7 +2471,7 @@
   <dimension ref="A1:AY401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2722,10 +2725,10 @@
         <v>1</v>
       </c>
       <c r="AL2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AM2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN2">
         <v>4</v>
@@ -2734,7 +2737,7 @@
         <v>48</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>49</v>
@@ -2837,8 +2840,30 @@
       <c r="AI3">
         <v>2</v>
       </c>
-      <c r="AO3" s="1"/>
-      <c r="AQ3" s="1"/>
+      <c r="AL3">
+        <v>12</v>
+      </c>
+      <c r="AM3">
+        <v>10</v>
+      </c>
+      <c r="AN3">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3">
+        <v>2</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
       <c r="AU3" t="s">
         <v>43</v>
       </c>

--- a/BlockTileSystem/Assets/Levels/map_schema.xlsx
+++ b/BlockTileSystem/Assets/Levels/map_schema.xlsx
@@ -457,7 +457,13 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -706,16 +712,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:C401" tableType="xml" totalsRowShown="0" connectionId="8">
   <autoFilter ref="A1:C401"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="x" name="x">
-      <calculatedColumnFormula>INT((ROW()-2)/20)</calculatedColumnFormula>
+    <tableColumn id="1" uniqueName="x" name="x" dataDxfId="2">
+      <calculatedColumnFormula>INT((ROW()-2)/$F$7)</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/SavableLevel/tMap/Tile/vTilePosition/x" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="y" name="y">
-      <calculatedColumnFormula>MOD(ROW()-2,20)</calculatedColumnFormula>
+    <tableColumn id="2" uniqueName="y" name="y" dataDxfId="1">
+      <calculatedColumnFormula>MOD(ROW()-2,$F$8)</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/SavableLevel/tMap/Tile/vTilePosition/y" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="iTileType" name="iTileType" dataDxfId="0">
-      <calculatedColumnFormula>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B2),'exportable data'!A2+1)</calculatedColumnFormula>
+      <calculatedColumnFormula>INDEX('map source data'!$A$1:$T$20,$F$8-(B2),A2+1)</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/SavableLevel/tMap/Tile/iTileType" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1214,7 +1220,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2471,7 +2477,7 @@
   <dimension ref="A1:AY401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2650,15 +2656,15 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f>INT((ROW()-2)/20)</f>
+        <f t="shared" ref="A2:A65" si="0">INT((ROW()-2)/$F$7)</f>
         <v>0</v>
       </c>
       <c r="B2">
-        <f>MOD(ROW()-2,20)</f>
+        <f t="shared" ref="B2:B65" si="1">MOD(ROW()-2,$F$8)</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B2),'exportable data'!A2+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B2),A2+1)</f>
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -2766,15 +2772,15 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">INT((ROW()-2)/20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="1">MOD(ROW()-2,20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C3">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B3),'exportable data'!A3+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B3),A3+1)</f>
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -2890,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B4),'exportable data'!A4+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B4),A4+1)</f>
         <v>2</v>
       </c>
       <c r="E4" t="s">
@@ -2934,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B5),'exportable data'!A5+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B5),A5+1)</f>
         <v>2</v>
       </c>
       <c r="E5" t="s">
@@ -2975,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B6),'exportable data'!A6+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B6),A6+1)</f>
         <v>2</v>
       </c>
       <c r="E6" t="s">
@@ -2995,7 +3001,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B7),'exportable data'!A7+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B7),A7+1)</f>
         <v>2</v>
       </c>
       <c r="E7" t="s">
@@ -3015,14 +3021,14 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B8),'exportable data'!A8+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B8),A8+1)</f>
         <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.15">
@@ -3035,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B9),'exportable data'!A9+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B9),A9+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3049,7 +3055,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B10),'exportable data'!A10+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B10),A10+1)</f>
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
@@ -3065,7 +3071,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B11),'exportable data'!A11+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B11),A11+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3079,7 +3085,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B12),'exportable data'!A12+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B12),A12+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3093,7 +3099,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B13),'exportable data'!A13+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B13),A13+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3107,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B14),'exportable data'!A14+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B14),A14+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3121,7 +3127,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B15),'exportable data'!A15+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B15),A15+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3135,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B16),'exportable data'!A16+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B16),A16+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3146,10 +3152,10 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B17),'exportable data'!A17+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B17),A17+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3160,10 +3166,10 @@
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B18),'exportable data'!A18+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B18),A18+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3174,10 +3180,10 @@
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B19),'exportable data'!A19+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B19),A19+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3188,10 +3194,10 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B20),'exportable data'!A20+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B20),A20+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3202,10 +3208,10 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B21),'exportable data'!A21+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B21),A21+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3216,11 +3222,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B22),'exportable data'!A22+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B22),A22+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -3230,10 +3236,10 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B23),'exportable data'!A23+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B23),A23+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3244,10 +3250,10 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B24),'exportable data'!A24+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B24),A24+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3258,10 +3264,10 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B25),'exportable data'!A25+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B25),A25+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3272,10 +3278,10 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B26),'exportable data'!A26+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B26),A26+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3286,10 +3292,10 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B27),'exportable data'!A27+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B27),A27+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3300,10 +3306,10 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B28),'exportable data'!A28+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B28),A28+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3314,10 +3320,10 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B29),'exportable data'!A29+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B29),A29+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3328,10 +3334,10 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B30),'exportable data'!A30+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B30),A30+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3342,11 +3348,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B31),'exportable data'!A31+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B31),A31+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -3356,10 +3362,10 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B32),'exportable data'!A32+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B32),A32+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3370,10 +3376,10 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B33),'exportable data'!A33+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B33),A33+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3384,10 +3390,10 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B34),'exportable data'!A34+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B34),A34+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3398,10 +3404,10 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B35),'exportable data'!A35+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B35),A35+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3412,10 +3418,10 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B36),'exportable data'!A36+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B36),A36+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3426,10 +3432,10 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B37),'exportable data'!A37+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B37),A37+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3440,10 +3446,10 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B38),'exportable data'!A38+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B38),A38+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3454,10 +3460,10 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B39),'exportable data'!A39+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B39),A39+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3468,10 +3474,10 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B40),'exportable data'!A40+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B40),A40+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3482,11 +3488,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B41),'exportable data'!A41+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B41),A41+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -3496,11 +3502,11 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B42),'exportable data'!A42+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B42),A42+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -3510,10 +3516,10 @@
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B43),'exportable data'!A43+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B43),A43+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3524,10 +3530,10 @@
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B44),'exportable data'!A44+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B44),A44+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3538,10 +3544,10 @@
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B45),'exportable data'!A45+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B45),A45+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3552,11 +3558,11 @@
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B46),'exportable data'!A46+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B46),A46+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -3566,10 +3572,10 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B47),'exportable data'!A47+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B47),A47+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3580,10 +3586,10 @@
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B48),'exportable data'!A48+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B48),A48+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3594,10 +3600,10 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B49),'exportable data'!A49+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B49),A49+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3608,10 +3614,10 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B50),'exportable data'!A50+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B50),A50+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3622,10 +3628,10 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B51),'exportable data'!A51+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B51),A51+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3636,10 +3642,10 @@
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B52),'exportable data'!A52+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B52),A52+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3650,10 +3656,10 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B53),'exportable data'!A53+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B53),A53+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3664,10 +3670,10 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B54),'exportable data'!A54+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B54),A54+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3678,10 +3684,10 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B55),'exportable data'!A55+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B55),A55+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3692,10 +3698,10 @@
       </c>
       <c r="B56">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B56),'exportable data'!A56+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B56),A56+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3706,10 +3712,10 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B57),'exportable data'!A57+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B57),A57+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3720,10 +3726,10 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C58">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B58),'exportable data'!A58+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B58),A58+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3734,10 +3740,10 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B59),'exportable data'!A59+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B59),A59+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3748,10 +3754,10 @@
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C60">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B60),'exportable data'!A60+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B60),A60+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3762,10 +3768,10 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C61">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B61),'exportable data'!A61+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B61),A61+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -3779,8 +3785,8 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B62),'exportable data'!A62+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B62),A62+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -3793,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B63),'exportable data'!A63+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B63),A63+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3807,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B64),'exportable data'!A64+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B64),A64+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3821,35 +3827,35 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B65),'exportable data'!A65+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B65),A65+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A66:A129" si="2">INT((ROW()-2)/$F$7)</f>
         <v>3</v>
       </c>
       <c r="B66">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B66:B129" si="3">MOD(ROW()-2,$F$8)</f>
         <v>4</v>
       </c>
       <c r="C66">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B66),'exportable data'!A66+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B66),A66+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="2">INT((ROW()-2)/20)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="3">MOD(ROW()-2,20)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C67">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B67),'exportable data'!A67+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B67),A67+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3863,7 +3869,7 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B68),'exportable data'!A68+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B68),A68+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3877,7 +3883,7 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B69),'exportable data'!A69+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B69),A69+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3891,7 +3897,7 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B70),'exportable data'!A70+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B70),A70+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3905,7 +3911,7 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B71),'exportable data'!A71+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B71),A71+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3919,7 +3925,7 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B72),'exportable data'!A72+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B72),A72+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3933,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B73),'exportable data'!A73+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B73),A73+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3947,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B74),'exportable data'!A74+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B74),A74+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3961,7 +3967,7 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B75),'exportable data'!A75+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B75),A75+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3975,8 +3981,8 @@
         <v>14</v>
       </c>
       <c r="C76">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B76),'exportable data'!A76+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B76),A76+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -3986,10 +3992,10 @@
       </c>
       <c r="B77">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B77),'exportable data'!A77+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B77),A77+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4000,10 +4006,10 @@
       </c>
       <c r="B78">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B78),'exportable data'!A78+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B78),A78+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4014,10 +4020,10 @@
       </c>
       <c r="B79">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B79),'exportable data'!A79+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B79),A79+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4028,10 +4034,10 @@
       </c>
       <c r="B80">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B80),'exportable data'!A80+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B80),A80+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4042,11 +4048,11 @@
       </c>
       <c r="B81">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B81),'exportable data'!A81+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B81),A81+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -4056,11 +4062,11 @@
       </c>
       <c r="B82">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B82),'exportable data'!A82+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B82),A82+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -4070,11 +4076,11 @@
       </c>
       <c r="B83">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B83),'exportable data'!A83+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B83),A83+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -4084,11 +4090,11 @@
       </c>
       <c r="B84">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C84">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B84),'exportable data'!A84+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B84),A84+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -4098,11 +4104,11 @@
       </c>
       <c r="B85">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B85),'exportable data'!A85+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B85),A85+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -4112,11 +4118,11 @@
       </c>
       <c r="B86">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B86),'exportable data'!A86+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B86),A86+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -4126,11 +4132,11 @@
       </c>
       <c r="B87">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B87),'exportable data'!A87+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B87),A87+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -4140,11 +4146,11 @@
       </c>
       <c r="B88">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B88),'exportable data'!A88+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B88),A88+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -4154,10 +4160,10 @@
       </c>
       <c r="B89">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C89">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B89),'exportable data'!A89+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B89),A89+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4168,10 +4174,10 @@
       </c>
       <c r="B90">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C90">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B90),'exportable data'!A90+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B90),A90+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4182,11 +4188,11 @@
       </c>
       <c r="B91">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C91">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B91),'exportable data'!A91+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B91),A91+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -4196,11 +4202,11 @@
       </c>
       <c r="B92">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B92),'exportable data'!A92+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B92),A92+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -4210,11 +4216,11 @@
       </c>
       <c r="B93">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B93),'exportable data'!A93+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B93),A93+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -4224,10 +4230,10 @@
       </c>
       <c r="B94">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B94),'exportable data'!A94+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B94),A94+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4238,10 +4244,10 @@
       </c>
       <c r="B95">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B95),'exportable data'!A95+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B95),A95+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4252,10 +4258,10 @@
       </c>
       <c r="B96">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B96),'exportable data'!A96+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B96),A96+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4266,10 +4272,10 @@
       </c>
       <c r="B97">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B97),'exportable data'!A97+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B97),A97+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4280,10 +4286,10 @@
       </c>
       <c r="B98">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B98),'exportable data'!A98+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B98),A98+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4294,10 +4300,10 @@
       </c>
       <c r="B99">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B99),'exportable data'!A99+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B99),A99+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4308,10 +4314,10 @@
       </c>
       <c r="B100">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B100),'exportable data'!A100+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B100),A100+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4322,11 +4328,11 @@
       </c>
       <c r="B101">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C101">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B101),'exportable data'!A101+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B101),A101+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -4336,11 +4342,11 @@
       </c>
       <c r="B102">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B102),'exportable data'!A102+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B102),A102+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -4350,10 +4356,10 @@
       </c>
       <c r="B103">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C103">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B103),'exportable data'!A103+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B103),A103+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4364,10 +4370,10 @@
       </c>
       <c r="B104">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B104),'exportable data'!A104+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B104),A104+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4378,10 +4384,10 @@
       </c>
       <c r="B105">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C105">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B105),'exportable data'!A105+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B105),A105+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4392,11 +4398,11 @@
       </c>
       <c r="B106">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B106),'exportable data'!A106+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B106),A106+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -4406,10 +4412,10 @@
       </c>
       <c r="B107">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B107),'exportable data'!A107+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B107),A107+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4420,10 +4426,10 @@
       </c>
       <c r="B108">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B108),'exportable data'!A108+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B108),A108+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4434,10 +4440,10 @@
       </c>
       <c r="B109">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B109),'exportable data'!A109+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B109),A109+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4448,10 +4454,10 @@
       </c>
       <c r="B110">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B110),'exportable data'!A110+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B110),A110+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4462,10 +4468,10 @@
       </c>
       <c r="B111">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B111),'exportable data'!A111+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B111),A111+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4476,10 +4482,10 @@
       </c>
       <c r="B112">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B112),'exportable data'!A112+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B112),A112+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4490,10 +4496,10 @@
       </c>
       <c r="B113">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B113),'exportable data'!A113+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B113),A113+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4504,10 +4510,10 @@
       </c>
       <c r="B114">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B114),'exportable data'!A114+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B114),A114+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4518,10 +4524,10 @@
       </c>
       <c r="B115">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B115),'exportable data'!A115+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B115),A115+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4532,10 +4538,10 @@
       </c>
       <c r="B116">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B116),'exportable data'!A116+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B116),A116+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4546,10 +4552,10 @@
       </c>
       <c r="B117">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B117),'exportable data'!A117+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B117),A117+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4560,10 +4566,10 @@
       </c>
       <c r="B118">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B118),'exportable data'!A118+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B118),A118+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4574,10 +4580,10 @@
       </c>
       <c r="B119">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B119),'exportable data'!A119+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B119),A119+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4588,10 +4594,10 @@
       </c>
       <c r="B120">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B120),'exportable data'!A120+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B120),A120+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4602,10 +4608,10 @@
       </c>
       <c r="B121">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C121">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B121),'exportable data'!A121+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B121),A121+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -4619,8 +4625,8 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B122),'exportable data'!A122+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B122),A122+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -4633,8 +4639,8 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B123),'exportable data'!A123+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B123),A123+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -4647,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B124),'exportable data'!A124+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B124),A124+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4661,7 +4667,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B125),'exportable data'!A125+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B125),A125+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4675,7 +4681,7 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B126),'exportable data'!A126+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B126),A126+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4689,7 +4695,7 @@
         <v>5</v>
       </c>
       <c r="C127">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B127),'exportable data'!A127+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B127),A127+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4703,8 +4709,8 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B128),'exportable data'!A128+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B128),A128+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -4717,35 +4723,35 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B129),'exportable data'!A129+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B129),A129+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A130:A193" si="4">INT((ROW()-2)/$F$7)</f>
         <v>6</v>
       </c>
       <c r="B130">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B130:B193" si="5">MOD(ROW()-2,$F$8)</f>
         <v>8</v>
       </c>
       <c r="C130">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B130),'exportable data'!A130+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B130),A130+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131">
-        <f t="shared" ref="A131:A194" si="4">INT((ROW()-2)/20)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="5">MOD(ROW()-2,20)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C131">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B131),'exportable data'!A131+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B131),A131+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4759,7 +4765,7 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B132),'exportable data'!A132+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B132),A132+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4773,7 +4779,7 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B133),'exportable data'!A133+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B133),A133+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4787,7 +4793,7 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B134),'exportable data'!A134+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B134),A134+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4801,7 +4807,7 @@
         <v>13</v>
       </c>
       <c r="C135">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B135),'exportable data'!A135+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B135),A135+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4815,8 +4821,8 @@
         <v>14</v>
       </c>
       <c r="C136">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B136),'exportable data'!A136+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B136),A136+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -4826,10 +4832,10 @@
       </c>
       <c r="B137">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B137),'exportable data'!A137+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B137),A137+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4840,11 +4846,11 @@
       </c>
       <c r="B138">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B138),'exportable data'!A138+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B138),A138+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -4854,10 +4860,10 @@
       </c>
       <c r="B139">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B139),'exportable data'!A139+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B139),A139+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4868,10 +4874,10 @@
       </c>
       <c r="B140">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B140),'exportable data'!A140+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B140),A140+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4882,11 +4888,11 @@
       </c>
       <c r="B141">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B141),'exportable data'!A141+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B141),A141+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -4896,11 +4902,11 @@
       </c>
       <c r="B142">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B142),'exportable data'!A142+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B142),A142+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -4910,10 +4916,10 @@
       </c>
       <c r="B143">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B143),'exportable data'!A143+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B143),A143+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4924,10 +4930,10 @@
       </c>
       <c r="B144">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B144),'exportable data'!A144+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B144),A144+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4938,10 +4944,10 @@
       </c>
       <c r="B145">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B145),'exportable data'!A145+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B145),A145+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4952,10 +4958,10 @@
       </c>
       <c r="B146">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B146),'exportable data'!A146+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B146),A146+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4966,10 +4972,10 @@
       </c>
       <c r="B147">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B147),'exportable data'!A147+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B147),A147+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4980,10 +4986,10 @@
       </c>
       <c r="B148">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B148),'exportable data'!A148+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B148),A148+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4994,10 +5000,10 @@
       </c>
       <c r="B149">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B149),'exportable data'!A149+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B149),A149+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5008,10 +5014,10 @@
       </c>
       <c r="B150">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B150),'exportable data'!A150+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B150),A150+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5022,11 +5028,11 @@
       </c>
       <c r="B151">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B151),'exportable data'!A151+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B151),A151+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -5036,10 +5042,10 @@
       </c>
       <c r="B152">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B152),'exportable data'!A152+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B152),A152+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5050,10 +5056,10 @@
       </c>
       <c r="B153">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B153),'exportable data'!A153+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B153),A153+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5064,10 +5070,10 @@
       </c>
       <c r="B154">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B154),'exportable data'!A154+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B154),A154+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5078,10 +5084,10 @@
       </c>
       <c r="B155">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B155),'exportable data'!A155+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B155),A155+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5092,10 +5098,10 @@
       </c>
       <c r="B156">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B156),'exportable data'!A156+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B156),A156+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5106,10 +5112,10 @@
       </c>
       <c r="B157">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B157),'exportable data'!A157+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B157),A157+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5120,10 +5126,10 @@
       </c>
       <c r="B158">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B158),'exportable data'!A158+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B158),A158+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5134,10 +5140,10 @@
       </c>
       <c r="B159">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B159),'exportable data'!A159+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B159),A159+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5148,10 +5154,10 @@
       </c>
       <c r="B160">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C160">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B160),'exportable data'!A160+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B160),A160+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5162,11 +5168,11 @@
       </c>
       <c r="B161">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B161),'exportable data'!A161+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B161),A161+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -5176,11 +5182,11 @@
       </c>
       <c r="B162">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B162),'exportable data'!A162+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B162),A162+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -5190,10 +5196,10 @@
       </c>
       <c r="B163">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B163),'exportable data'!A163+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B163),A163+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5204,10 +5210,10 @@
       </c>
       <c r="B164">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C164">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B164),'exportable data'!A164+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B164),A164+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5218,10 +5224,10 @@
       </c>
       <c r="B165">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B165),'exportable data'!A165+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B165),A165+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5232,11 +5238,11 @@
       </c>
       <c r="B166">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B166),'exportable data'!A166+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B166),A166+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -5246,10 +5252,10 @@
       </c>
       <c r="B167">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C167">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B167),'exportable data'!A167+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B167),A167+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5260,10 +5266,10 @@
       </c>
       <c r="B168">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B168),'exportable data'!A168+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B168),A168+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5274,10 +5280,10 @@
       </c>
       <c r="B169">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C169">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B169),'exportable data'!A169+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B169),A169+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5288,10 +5294,10 @@
       </c>
       <c r="B170">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B170),'exportable data'!A170+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B170),A170+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5302,10 +5308,10 @@
       </c>
       <c r="B171">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C171">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B171),'exportable data'!A171+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B171),A171+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5316,10 +5322,10 @@
       </c>
       <c r="B172">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C172">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B172),'exportable data'!A172+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B172),A172+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5330,10 +5336,10 @@
       </c>
       <c r="B173">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C173">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B173),'exportable data'!A173+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B173),A173+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5344,10 +5350,10 @@
       </c>
       <c r="B174">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C174">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B174),'exportable data'!A174+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B174),A174+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5358,10 +5364,10 @@
       </c>
       <c r="B175">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C175">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B175),'exportable data'!A175+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B175),A175+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5372,10 +5378,10 @@
       </c>
       <c r="B176">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C176">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B176),'exportable data'!A176+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B176),A176+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5386,10 +5392,10 @@
       </c>
       <c r="B177">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C177">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B177),'exportable data'!A177+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B177),A177+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5400,10 +5406,10 @@
       </c>
       <c r="B178">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C178">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B178),'exportable data'!A178+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B178),A178+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5414,10 +5420,10 @@
       </c>
       <c r="B179">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C179">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B179),'exportable data'!A179+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B179),A179+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5428,10 +5434,10 @@
       </c>
       <c r="B180">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C180">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B180),'exportable data'!A180+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B180),A180+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5442,10 +5448,10 @@
       </c>
       <c r="B181">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C181">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B181),'exportable data'!A181+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B181),A181+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -5459,8 +5465,8 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B182),'exportable data'!A182+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B182),A182+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -5473,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B183),'exportable data'!A183+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B183),A183+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5487,7 +5493,7 @@
         <v>2</v>
       </c>
       <c r="C184">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B184),'exportable data'!A184+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B184),A184+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5501,7 +5507,7 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B185),'exportable data'!A185+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B185),A185+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5515,7 +5521,7 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B186),'exportable data'!A186+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B186),A186+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5529,7 +5535,7 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B187),'exportable data'!A187+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B187),A187+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5543,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="C188">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B188),'exportable data'!A188+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B188),A188+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5557,7 +5563,7 @@
         <v>7</v>
       </c>
       <c r="C189">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B189),'exportable data'!A189+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B189),A189+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5571,7 +5577,7 @@
         <v>8</v>
       </c>
       <c r="C190">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B190),'exportable data'!A190+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B190),A190+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5585,7 +5591,7 @@
         <v>9</v>
       </c>
       <c r="C191">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B191),'exportable data'!A191+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B191),A191+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5599,7 +5605,7 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B192),'exportable data'!A192+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B192),A192+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5613,35 +5619,35 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B193),'exportable data'!A193+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B193),A193+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A194:A257" si="6">INT((ROW()-2)/$F$7)</f>
         <v>9</v>
       </c>
       <c r="B194">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B194:B257" si="7">MOD(ROW()-2,$F$8)</f>
         <v>12</v>
       </c>
       <c r="C194">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B194),'exportable data'!A194+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B194),A194+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195">
-        <f t="shared" ref="A195:A258" si="6">INT((ROW()-2)/20)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B258" si="7">MOD(ROW()-2,20)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="C195">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B195),'exportable data'!A195+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B195),A195+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5655,8 +5661,8 @@
         <v>14</v>
       </c>
       <c r="C196">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B196),'exportable data'!A196+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B196),A196+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -5666,10 +5672,10 @@
       </c>
       <c r="B197">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B197),'exportable data'!A197+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B197),A197+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5680,10 +5686,10 @@
       </c>
       <c r="B198">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C198">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B198),'exportable data'!A198+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B198),A198+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5694,10 +5700,10 @@
       </c>
       <c r="B199">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C199">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B199),'exportable data'!A199+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B199),A199+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5708,10 +5714,10 @@
       </c>
       <c r="B200">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C200">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B200),'exportable data'!A200+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B200),A200+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5722,11 +5728,11 @@
       </c>
       <c r="B201">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C201">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B201),'exportable data'!A201+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B201),A201+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -5736,11 +5742,11 @@
       </c>
       <c r="B202">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C202">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B202),'exportable data'!A202+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B202),A202+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -5750,10 +5756,10 @@
       </c>
       <c r="B203">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C203">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B203),'exportable data'!A203+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B203),A203+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5764,10 +5770,10 @@
       </c>
       <c r="B204">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C204">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B204),'exportable data'!A204+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B204),A204+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5778,10 +5784,10 @@
       </c>
       <c r="B205">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C205">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B205),'exportable data'!A205+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B205),A205+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5792,10 +5798,10 @@
       </c>
       <c r="B206">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C206">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B206),'exportable data'!A206+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B206),A206+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5806,10 +5812,10 @@
       </c>
       <c r="B207">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C207">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B207),'exportable data'!A207+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B207),A207+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5820,10 +5826,10 @@
       </c>
       <c r="B208">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C208">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B208),'exportable data'!A208+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B208),A208+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5834,10 +5840,10 @@
       </c>
       <c r="B209">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C209">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B209),'exportable data'!A209+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B209),A209+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5848,10 +5854,10 @@
       </c>
       <c r="B210">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C210">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B210),'exportable data'!A210+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B210),A210+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5862,11 +5868,11 @@
       </c>
       <c r="B211">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C211">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B211),'exportable data'!A211+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B211),A211+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -5876,10 +5882,10 @@
       </c>
       <c r="B212">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C212">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B212),'exportable data'!A212+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B212),A212+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5890,10 +5896,10 @@
       </c>
       <c r="B213">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B213),'exportable data'!A213+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B213),A213+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5904,10 +5910,10 @@
       </c>
       <c r="B214">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C214">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B214),'exportable data'!A214+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B214),A214+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5918,10 +5924,10 @@
       </c>
       <c r="B215">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C215">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B215),'exportable data'!A215+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B215),A215+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5932,10 +5938,10 @@
       </c>
       <c r="B216">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C216">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B216),'exportable data'!A216+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B216),A216+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5946,10 +5952,10 @@
       </c>
       <c r="B217">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C217">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B217),'exportable data'!A217+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B217),A217+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5960,10 +5966,10 @@
       </c>
       <c r="B218">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C218">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B218),'exportable data'!A218+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B218),A218+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5974,10 +5980,10 @@
       </c>
       <c r="B219">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C219">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B219),'exportable data'!A219+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B219),A219+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5988,10 +5994,10 @@
       </c>
       <c r="B220">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C220">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B220),'exportable data'!A220+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B220),A220+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6002,11 +6008,11 @@
       </c>
       <c r="B221">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C221">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B221),'exportable data'!A221+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B221),A221+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
@@ -6016,11 +6022,11 @@
       </c>
       <c r="B222">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C222">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B222),'exportable data'!A222+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B222),A222+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
@@ -6030,10 +6036,10 @@
       </c>
       <c r="B223">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C223">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B223),'exportable data'!A223+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B223),A223+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6044,10 +6050,10 @@
       </c>
       <c r="B224">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C224">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B224),'exportable data'!A224+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B224),A224+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6058,10 +6064,10 @@
       </c>
       <c r="B225">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C225">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B225),'exportable data'!A225+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B225),A225+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6072,11 +6078,11 @@
       </c>
       <c r="B226">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C226">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B226),'exportable data'!A226+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B226),A226+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
@@ -6086,10 +6092,10 @@
       </c>
       <c r="B227">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C227">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B227),'exportable data'!A227+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B227),A227+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6100,10 +6106,10 @@
       </c>
       <c r="B228">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B228),'exportable data'!A228+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B228),A228+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6114,10 +6120,10 @@
       </c>
       <c r="B229">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C229">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B229),'exportable data'!A229+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B229),A229+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6128,10 +6134,10 @@
       </c>
       <c r="B230">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C230">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B230),'exportable data'!A230+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B230),A230+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6142,10 +6148,10 @@
       </c>
       <c r="B231">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C231">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B231),'exportable data'!A231+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B231),A231+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6156,10 +6162,10 @@
       </c>
       <c r="B232">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C232">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B232),'exportable data'!A232+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B232),A232+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6170,10 +6176,10 @@
       </c>
       <c r="B233">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C233">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B233),'exportable data'!A233+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B233),A233+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6184,10 +6190,10 @@
       </c>
       <c r="B234">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C234">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B234),'exportable data'!A234+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B234),A234+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6198,10 +6204,10 @@
       </c>
       <c r="B235">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C235">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B235),'exportable data'!A235+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B235),A235+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6212,10 +6218,10 @@
       </c>
       <c r="B236">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C236">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B236),'exportable data'!A236+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B236),A236+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6226,10 +6232,10 @@
       </c>
       <c r="B237">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C237">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B237),'exportable data'!A237+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B237),A237+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6240,10 +6246,10 @@
       </c>
       <c r="B238">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C238">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B238),'exportable data'!A238+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B238),A238+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6254,10 +6260,10 @@
       </c>
       <c r="B239">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C239">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B239),'exportable data'!A239+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B239),A239+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6268,10 +6274,10 @@
       </c>
       <c r="B240">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C240">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B240),'exportable data'!A240+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B240),A240+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6282,10 +6288,10 @@
       </c>
       <c r="B241">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C241">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B241),'exportable data'!A241+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B241),A241+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -6299,8 +6305,8 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B242),'exportable data'!A242+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B242),A242+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
@@ -6313,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="C243">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B243),'exportable data'!A243+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B243),A243+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6327,7 +6333,7 @@
         <v>2</v>
       </c>
       <c r="C244">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B244),'exportable data'!A244+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B244),A244+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6341,7 +6347,7 @@
         <v>3</v>
       </c>
       <c r="C245">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B245),'exportable data'!A245+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B245),A245+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6355,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="C246">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B246),'exportable data'!A246+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B246),A246+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6369,7 +6375,7 @@
         <v>5</v>
       </c>
       <c r="C247">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B247),'exportable data'!A247+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B247),A247+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6383,7 +6389,7 @@
         <v>6</v>
       </c>
       <c r="C248">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B248),'exportable data'!A248+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B248),A248+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6397,7 +6403,7 @@
         <v>7</v>
       </c>
       <c r="C249">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B249),'exportable data'!A249+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B249),A249+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6411,7 +6417,7 @@
         <v>8</v>
       </c>
       <c r="C250">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B250),'exportable data'!A250+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B250),A250+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6425,7 +6431,7 @@
         <v>9</v>
       </c>
       <c r="C251">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B251),'exportable data'!A251+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B251),A251+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6439,7 +6445,7 @@
         <v>10</v>
       </c>
       <c r="C252">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B252),'exportable data'!A252+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B252),A252+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6453,7 +6459,7 @@
         <v>11</v>
       </c>
       <c r="C253">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B253),'exportable data'!A253+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B253),A253+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6467,7 +6473,7 @@
         <v>12</v>
       </c>
       <c r="C254">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B254),'exportable data'!A254+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B254),A254+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6481,7 +6487,7 @@
         <v>13</v>
       </c>
       <c r="C255">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B255),'exportable data'!A255+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B255),A255+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6495,8 +6501,8 @@
         <v>14</v>
       </c>
       <c r="C256">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B256),'exportable data'!A256+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B256),A256+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
@@ -6506,38 +6512,38 @@
       </c>
       <c r="B257">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C257">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B257),'exportable data'!A257+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B257),A257+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A258:A321" si="8">INT((ROW()-2)/$F$7)</f>
         <v>12</v>
       </c>
       <c r="B258">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" ref="B258:B321" si="9">MOD(ROW()-2,$F$8)</f>
+        <v>1</v>
       </c>
       <c r="C258">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B258),'exportable data'!A258+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B258),A258+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259">
-        <f t="shared" ref="A259:A322" si="8">INT((ROW()-2)/20)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B259">
-        <f t="shared" ref="B259:B322" si="9">MOD(ROW()-2,20)</f>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="C259">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B259),'exportable data'!A259+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B259),A259+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6548,10 +6554,10 @@
       </c>
       <c r="B260">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C260">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B260),'exportable data'!A260+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B260),A260+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6562,11 +6568,11 @@
       </c>
       <c r="B261">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C261">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B261),'exportable data'!A261+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B261),A261+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
@@ -6576,11 +6582,11 @@
       </c>
       <c r="B262">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C262">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B262),'exportable data'!A262+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B262),A262+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
@@ -6590,10 +6596,10 @@
       </c>
       <c r="B263">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C263">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B263),'exportable data'!A263+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B263),A263+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6604,10 +6610,10 @@
       </c>
       <c r="B264">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C264">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B264),'exportable data'!A264+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B264),A264+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6618,10 +6624,10 @@
       </c>
       <c r="B265">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C265">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B265),'exportable data'!A265+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B265),A265+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6632,10 +6638,10 @@
       </c>
       <c r="B266">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C266">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B266),'exportable data'!A266+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B266),A266+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6646,10 +6652,10 @@
       </c>
       <c r="B267">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C267">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B267),'exportable data'!A267+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B267),A267+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6660,10 +6666,10 @@
       </c>
       <c r="B268">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C268">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B268),'exportable data'!A268+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B268),A268+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6674,10 +6680,10 @@
       </c>
       <c r="B269">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C269">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B269),'exportable data'!A269+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B269),A269+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6688,10 +6694,10 @@
       </c>
       <c r="B270">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C270">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B270),'exportable data'!A270+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B270),A270+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6702,11 +6708,11 @@
       </c>
       <c r="B271">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C271">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B271),'exportable data'!A271+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B271),A271+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
@@ -6716,10 +6722,10 @@
       </c>
       <c r="B272">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C272">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B272),'exportable data'!A272+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B272),A272+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6730,10 +6736,10 @@
       </c>
       <c r="B273">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C273">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B273),'exportable data'!A273+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B273),A273+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6744,10 +6750,10 @@
       </c>
       <c r="B274">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C274">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B274),'exportable data'!A274+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B274),A274+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6758,10 +6764,10 @@
       </c>
       <c r="B275">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C275">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B275),'exportable data'!A275+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B275),A275+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6772,10 +6778,10 @@
       </c>
       <c r="B276">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C276">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B276),'exportable data'!A276+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B276),A276+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6786,10 +6792,10 @@
       </c>
       <c r="B277">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C277">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B277),'exportable data'!A277+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B277),A277+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6800,10 +6806,10 @@
       </c>
       <c r="B278">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C278">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B278),'exportable data'!A278+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B278),A278+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6814,10 +6820,10 @@
       </c>
       <c r="B279">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C279">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B279),'exportable data'!A279+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B279),A279+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6828,10 +6834,10 @@
       </c>
       <c r="B280">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C280">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B280),'exportable data'!A280+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B280),A280+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6842,11 +6848,11 @@
       </c>
       <c r="B281">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C281">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B281),'exportable data'!A281+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B281),A281+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
@@ -6856,11 +6862,11 @@
       </c>
       <c r="B282">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C282">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B282),'exportable data'!A282+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B282),A282+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
@@ -6870,10 +6876,10 @@
       </c>
       <c r="B283">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C283">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B283),'exportable data'!A283+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B283),A283+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6884,10 +6890,10 @@
       </c>
       <c r="B284">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C284">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B284),'exportable data'!A284+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B284),A284+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6898,10 +6904,10 @@
       </c>
       <c r="B285">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C285">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B285),'exportable data'!A285+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B285),A285+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6912,11 +6918,11 @@
       </c>
       <c r="B286">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C286">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B286),'exportable data'!A286+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B286),A286+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
@@ -6926,10 +6932,10 @@
       </c>
       <c r="B287">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C287">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B287),'exportable data'!A287+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B287),A287+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6940,10 +6946,10 @@
       </c>
       <c r="B288">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C288">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B288),'exportable data'!A288+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B288),A288+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6954,10 +6960,10 @@
       </c>
       <c r="B289">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C289">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B289),'exportable data'!A289+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B289),A289+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6968,10 +6974,10 @@
       </c>
       <c r="B290">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C290">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B290),'exportable data'!A290+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B290),A290+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6982,10 +6988,10 @@
       </c>
       <c r="B291">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C291">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B291),'exportable data'!A291+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B291),A291+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -6996,10 +7002,10 @@
       </c>
       <c r="B292">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C292">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B292),'exportable data'!A292+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B292),A292+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7010,10 +7016,10 @@
       </c>
       <c r="B293">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C293">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B293),'exportable data'!A293+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B293),A293+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7024,10 +7030,10 @@
       </c>
       <c r="B294">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C294">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B294),'exportable data'!A294+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B294),A294+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7038,10 +7044,10 @@
       </c>
       <c r="B295">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C295">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B295),'exportable data'!A295+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B295),A295+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7052,10 +7058,10 @@
       </c>
       <c r="B296">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C296">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B296),'exportable data'!A296+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B296),A296+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7066,10 +7072,10 @@
       </c>
       <c r="B297">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C297">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B297),'exportable data'!A297+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B297),A297+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7080,10 +7086,10 @@
       </c>
       <c r="B298">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C298">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B298),'exportable data'!A298+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B298),A298+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7094,10 +7100,10 @@
       </c>
       <c r="B299">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C299">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B299),'exportable data'!A299+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B299),A299+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7108,10 +7114,10 @@
       </c>
       <c r="B300">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C300">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B300),'exportable data'!A300+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B300),A300+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7122,10 +7128,10 @@
       </c>
       <c r="B301">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C301">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B301),'exportable data'!A301+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B301),A301+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7139,8 +7145,8 @@
         <v>0</v>
       </c>
       <c r="C302">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B302),'exportable data'!A302+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B302),A302+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
@@ -7153,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="C303">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B303),'exportable data'!A303+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B303),A303+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7167,7 +7173,7 @@
         <v>2</v>
       </c>
       <c r="C304">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B304),'exportable data'!A304+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B304),A304+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7181,7 +7187,7 @@
         <v>3</v>
       </c>
       <c r="C305">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B305),'exportable data'!A305+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B305),A305+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7195,7 +7201,7 @@
         <v>4</v>
       </c>
       <c r="C306">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B306),'exportable data'!A306+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B306),A306+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7209,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="C307">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B307),'exportable data'!A307+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B307),A307+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7223,7 +7229,7 @@
         <v>6</v>
       </c>
       <c r="C308">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B308),'exportable data'!A308+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B308),A308+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7237,7 +7243,7 @@
         <v>7</v>
       </c>
       <c r="C309">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B309),'exportable data'!A309+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B309),A309+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7251,7 +7257,7 @@
         <v>8</v>
       </c>
       <c r="C310">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B310),'exportable data'!A310+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B310),A310+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7265,7 +7271,7 @@
         <v>9</v>
       </c>
       <c r="C311">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B311),'exportable data'!A311+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B311),A311+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7279,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="C312">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B312),'exportable data'!A312+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B312),A312+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7293,7 +7299,7 @@
         <v>11</v>
       </c>
       <c r="C313">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B313),'exportable data'!A313+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B313),A313+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7307,7 +7313,7 @@
         <v>12</v>
       </c>
       <c r="C314">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B314),'exportable data'!A314+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B314),A314+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7321,7 +7327,7 @@
         <v>13</v>
       </c>
       <c r="C315">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B315),'exportable data'!A315+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B315),A315+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7335,8 +7341,8 @@
         <v>14</v>
       </c>
       <c r="C316">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B316),'exportable data'!A316+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B316),A316+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
@@ -7346,10 +7352,10 @@
       </c>
       <c r="B317">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C317">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B317),'exportable data'!A317+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B317),A317+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7360,10 +7366,10 @@
       </c>
       <c r="B318">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C318">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B318),'exportable data'!A318+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B318),A318+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7374,10 +7380,10 @@
       </c>
       <c r="B319">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C319">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B319),'exportable data'!A319+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B319),A319+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7388,10 +7394,10 @@
       </c>
       <c r="B320">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C320">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B320),'exportable data'!A320+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B320),A320+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7402,38 +7408,38 @@
       </c>
       <c r="B321">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C321">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B321),'exportable data'!A321+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B321),A321+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A322:A385" si="10">INT((ROW()-2)/$F$7)</f>
         <v>16</v>
       </c>
       <c r="B322">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="B322:B385" si="11">MOD(ROW()-2,$F$8)</f>
+        <v>5</v>
       </c>
       <c r="C322">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B322),'exportable data'!A322+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B322),A322+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323">
-        <f t="shared" ref="A323:A386" si="10">INT((ROW()-2)/20)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B323">
-        <f t="shared" ref="B323:B386" si="11">MOD(ROW()-2,20)</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="C323">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B323),'exportable data'!A323+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B323),A323+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7444,10 +7450,10 @@
       </c>
       <c r="B324">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C324">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B324),'exportable data'!A324+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B324),A324+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7458,10 +7464,10 @@
       </c>
       <c r="B325">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C325">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B325),'exportable data'!A325+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B325),A325+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7472,10 +7478,10 @@
       </c>
       <c r="B326">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C326">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B326),'exportable data'!A326+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B326),A326+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7486,10 +7492,10 @@
       </c>
       <c r="B327">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C327">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B327),'exportable data'!A327+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B327),A327+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7500,10 +7506,10 @@
       </c>
       <c r="B328">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C328">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B328),'exportable data'!A328+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B328),A328+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7514,10 +7520,10 @@
       </c>
       <c r="B329">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C329">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B329),'exportable data'!A329+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B329),A329+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7528,10 +7534,10 @@
       </c>
       <c r="B330">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C330">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B330),'exportable data'!A330+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B330),A330+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7542,11 +7548,11 @@
       </c>
       <c r="B331">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C331">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B331),'exportable data'!A331+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B331),A331+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
@@ -7556,10 +7562,10 @@
       </c>
       <c r="B332">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C332">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B332),'exportable data'!A332+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B332),A332+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7570,10 +7576,10 @@
       </c>
       <c r="B333">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C333">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B333),'exportable data'!A333+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B333),A333+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7584,10 +7590,10 @@
       </c>
       <c r="B334">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C334">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B334),'exportable data'!A334+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B334),A334+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7598,10 +7604,10 @@
       </c>
       <c r="B335">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C335">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B335),'exportable data'!A335+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B335),A335+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7612,10 +7618,10 @@
       </c>
       <c r="B336">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C336">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B336),'exportable data'!A336+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B336),A336+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7626,10 +7632,10 @@
       </c>
       <c r="B337">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C337">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B337),'exportable data'!A337+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B337),A337+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7640,10 +7646,10 @@
       </c>
       <c r="B338">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C338">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B338),'exportable data'!A338+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B338),A338+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7654,10 +7660,10 @@
       </c>
       <c r="B339">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C339">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B339),'exportable data'!A339+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B339),A339+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7668,10 +7674,10 @@
       </c>
       <c r="B340">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C340">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B340),'exportable data'!A340+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B340),A340+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7682,11 +7688,11 @@
       </c>
       <c r="B341">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C341">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B341),'exportable data'!A341+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B341),A341+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
@@ -7696,11 +7702,11 @@
       </c>
       <c r="B342">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C342">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B342),'exportable data'!A342+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B342),A342+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
@@ -7710,10 +7716,10 @@
       </c>
       <c r="B343">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C343">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B343),'exportable data'!A343+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B343),A343+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7724,10 +7730,10 @@
       </c>
       <c r="B344">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C344">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B344),'exportable data'!A344+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B344),A344+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7738,10 +7744,10 @@
       </c>
       <c r="B345">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C345">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B345),'exportable data'!A345+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B345),A345+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7752,11 +7758,11 @@
       </c>
       <c r="B346">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C346">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B346),'exportable data'!A346+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B346),A346+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
@@ -7766,10 +7772,10 @@
       </c>
       <c r="B347">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C347">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B347),'exportable data'!A347+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B347),A347+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7780,10 +7786,10 @@
       </c>
       <c r="B348">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C348">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B348),'exportable data'!A348+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B348),A348+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7794,10 +7800,10 @@
       </c>
       <c r="B349">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C349">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B349),'exportable data'!A349+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B349),A349+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7808,10 +7814,10 @@
       </c>
       <c r="B350">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C350">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B350),'exportable data'!A350+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B350),A350+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7822,10 +7828,10 @@
       </c>
       <c r="B351">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C351">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B351),'exportable data'!A351+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B351),A351+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7836,10 +7842,10 @@
       </c>
       <c r="B352">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C352">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B352),'exportable data'!A352+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B352),A352+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7850,10 +7856,10 @@
       </c>
       <c r="B353">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C353">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B353),'exportable data'!A353+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B353),A353+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7864,10 +7870,10 @@
       </c>
       <c r="B354">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C354">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B354),'exportable data'!A354+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B354),A354+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7878,10 +7884,10 @@
       </c>
       <c r="B355">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C355">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B355),'exportable data'!A355+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B355),A355+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7892,10 +7898,10 @@
       </c>
       <c r="B356">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C356">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B356),'exportable data'!A356+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B356),A356+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7906,10 +7912,10 @@
       </c>
       <c r="B357">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C357">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B357),'exportable data'!A357+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B357),A357+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7920,10 +7926,10 @@
       </c>
       <c r="B358">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C358">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B358),'exportable data'!A358+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B358),A358+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7934,10 +7940,10 @@
       </c>
       <c r="B359">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C359">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B359),'exportable data'!A359+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B359),A359+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7948,10 +7954,10 @@
       </c>
       <c r="B360">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C360">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B360),'exportable data'!A360+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B360),A360+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -7962,10 +7968,10 @@
       </c>
       <c r="B361">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C361">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B361),'exportable data'!A361+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B361),A361+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -7979,8 +7985,8 @@
         <v>0</v>
       </c>
       <c r="C362">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B362),'exportable data'!A362+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B362),A362+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
@@ -7993,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="C363">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B363),'exportable data'!A363+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B363),A363+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8007,7 +8013,7 @@
         <v>2</v>
       </c>
       <c r="C364">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B364),'exportable data'!A364+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B364),A364+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8021,7 +8027,7 @@
         <v>3</v>
       </c>
       <c r="C365">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B365),'exportable data'!A365+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B365),A365+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8035,7 +8041,7 @@
         <v>4</v>
       </c>
       <c r="C366">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B366),'exportable data'!A366+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B366),A366+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8049,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="C367">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B367),'exportable data'!A367+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B367),A367+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8063,7 +8069,7 @@
         <v>6</v>
       </c>
       <c r="C368">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B368),'exportable data'!A368+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B368),A368+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8077,7 +8083,7 @@
         <v>7</v>
       </c>
       <c r="C369">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B369),'exportable data'!A369+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B369),A369+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8091,7 +8097,7 @@
         <v>8</v>
       </c>
       <c r="C370">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B370),'exportable data'!A370+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B370),A370+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8105,7 +8111,7 @@
         <v>9</v>
       </c>
       <c r="C371">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B371),'exportable data'!A371+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B371),A371+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8119,7 +8125,7 @@
         <v>10</v>
       </c>
       <c r="C372">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B372),'exportable data'!A372+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B372),A372+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8133,7 +8139,7 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B373),'exportable data'!A373+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B373),A373+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8147,7 +8153,7 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B374),'exportable data'!A374+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B374),A374+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8161,7 +8167,7 @@
         <v>13</v>
       </c>
       <c r="C375">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B375),'exportable data'!A375+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B375),A375+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8175,8 +8181,8 @@
         <v>14</v>
       </c>
       <c r="C376">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B376),'exportable data'!A376+1)</f>
-        <v>1</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B376),A376+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
@@ -8186,10 +8192,10 @@
       </c>
       <c r="B377">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C377">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B377),'exportable data'!A377+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B377),A377+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8200,10 +8206,10 @@
       </c>
       <c r="B378">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C378">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B378),'exportable data'!A378+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B378),A378+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8214,10 +8220,10 @@
       </c>
       <c r="B379">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C379">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B379),'exportable data'!A379+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B379),A379+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8228,10 +8234,10 @@
       </c>
       <c r="B380">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C380">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B380),'exportable data'!A380+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B380),A380+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -8242,11 +8248,11 @@
       </c>
       <c r="B381">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C381">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B381),'exportable data'!A381+1)</f>
-        <v>2</v>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B381),A381+1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -8256,10 +8262,10 @@
       </c>
       <c r="B382">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C382">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B382),'exportable data'!A382+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B382),A382+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8270,10 +8276,10 @@
       </c>
       <c r="B383">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C383">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B383),'exportable data'!A383+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B383),A383+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8284,10 +8290,10 @@
       </c>
       <c r="B384">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C384">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B384),'exportable data'!A384+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B384),A384+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8298,38 +8304,38 @@
       </c>
       <c r="B385">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C385">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B385),'exportable data'!A385+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B385),A385+1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A386:A401" si="12">INT((ROW()-2)/$F$7)</f>
         <v>19</v>
       </c>
       <c r="B386">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" ref="B386:B401" si="13">MOD(ROW()-2,$F$8)</f>
+        <v>9</v>
       </c>
       <c r="C386">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B386),'exportable data'!A386+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B386),A386+1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387">
-        <f t="shared" ref="A387:A401" si="12">INT((ROW()-2)/20)</f>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="B387">
-        <f t="shared" ref="B387:B401" si="13">MOD(ROW()-2,20)</f>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="C387">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B387),'exportable data'!A387+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B387),A387+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8340,10 +8346,10 @@
       </c>
       <c r="B388">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C388">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B388),'exportable data'!A388+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B388),A388+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8354,10 +8360,10 @@
       </c>
       <c r="B389">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C389">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B389),'exportable data'!A389+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B389),A389+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8368,10 +8374,10 @@
       </c>
       <c r="B390">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C390">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B390),'exportable data'!A390+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B390),A390+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8382,10 +8388,10 @@
       </c>
       <c r="B391">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C391">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B391),'exportable data'!A391+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B391),A391+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8396,10 +8402,10 @@
       </c>
       <c r="B392">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C392">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B392),'exportable data'!A392+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B392),A392+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8410,10 +8416,10 @@
       </c>
       <c r="B393">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C393">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B393),'exportable data'!A393+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B393),A393+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8424,10 +8430,10 @@
       </c>
       <c r="B394">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C394">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B394),'exportable data'!A394+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B394),A394+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8438,10 +8444,10 @@
       </c>
       <c r="B395">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C395">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B395),'exportable data'!A395+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B395),A395+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8452,10 +8458,10 @@
       </c>
       <c r="B396">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C396">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B396),'exportable data'!A396+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B396),A396+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8466,10 +8472,10 @@
       </c>
       <c r="B397">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C397">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B397),'exportable data'!A397+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B397),A397+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8480,10 +8486,10 @@
       </c>
       <c r="B398">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C398">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B398),'exportable data'!A398+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B398),A398+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8494,10 +8500,10 @@
       </c>
       <c r="B399">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C399">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B399),'exportable data'!A399+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B399),A399+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8508,10 +8514,10 @@
       </c>
       <c r="B400">
         <f t="shared" si="13"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C400">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B400),'exportable data'!A400+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B400),A400+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8522,10 +8528,10 @@
       </c>
       <c r="B401">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C401">
-        <f>INDEX('map source data'!$A$1:$T$20,$F$8-('exportable data'!B401),'exportable data'!A401+1)</f>
+        <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B401),A401+1)</f>
         <v>2</v>
       </c>
     </row>

--- a/BlockTileSystem/Assets/Levels/map_schema.xlsx
+++ b/BlockTileSystem/Assets/Levels/map_schema.xlsx
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2048,10 +2048,10 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2476,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2674,10 +2674,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1">
         <v>5</v>
@@ -2758,13 +2758,13 @@
         <v>42</v>
       </c>
       <c r="AV2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW2">
         <v>5</v>
       </c>
       <c r="AX2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY2">
         <v>6</v>
@@ -2790,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1">
         <v>6</v>
@@ -2874,13 +2874,13 @@
         <v>43</v>
       </c>
       <c r="AV3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW3">
         <v>7</v>
       </c>
       <c r="AX3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY3">
         <v>8</v>
@@ -3028,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.15">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B17),A17+1)</f>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B18),A18+1)</f>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B19),A19+1)</f>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B20),A20+1)</f>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B21),A21+1)</f>
@@ -3222,11 +3222,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B22),A22+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B23),A23+1)</f>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B24),A24+1)</f>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B25),A25+1)</f>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B26),A26+1)</f>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B27),A27+1)</f>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B28),A28+1)</f>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B29),A29+1)</f>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B30),A30+1)</f>
@@ -3348,11 +3348,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B31),A31+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B32),A32+1)</f>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B33),A33+1)</f>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B34),A34+1)</f>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B35),A35+1)</f>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B36),A36+1)</f>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B37),A37+1)</f>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B38),A38+1)</f>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C39">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B39),A39+1)</f>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B40),A40+1)</f>
@@ -3488,11 +3488,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B41),A41+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -3502,11 +3502,11 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B42),A42+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B43),A43+1)</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B44),A44+1)</f>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B45),A45+1)</f>
@@ -3558,11 +3558,11 @@
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B46),A46+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B47),A47+1)</f>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B48),A48+1)</f>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B49),A49+1)</f>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B50),A50+1)</f>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B51),A51+1)</f>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B52),A52+1)</f>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B53),A53+1)</f>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B54),A54+1)</f>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B55),A55+1)</f>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B56),A56+1)</f>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B57),A57+1)</f>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B58),A58+1)</f>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B59),A59+1)</f>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B60),A60+1)</f>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B61),A61+1)</f>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="C62">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B62),A62+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C76">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B76),A76+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B77),A77+1)</f>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B78),A78+1)</f>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B79),A79+1)</f>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B80),A80+1)</f>
@@ -4048,11 +4048,11 @@
       </c>
       <c r="B81">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B81),A81+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -4062,11 +4062,11 @@
       </c>
       <c r="B82">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B82),A82+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -4076,11 +4076,11 @@
       </c>
       <c r="B83">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B83),A83+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -4090,11 +4090,11 @@
       </c>
       <c r="B84">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C84">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B84),A84+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -4104,11 +4104,11 @@
       </c>
       <c r="B85">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B85),A85+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -4118,11 +4118,11 @@
       </c>
       <c r="B86">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B86),A86+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="B87">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C87">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B87),A87+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -4146,11 +4146,11 @@
       </c>
       <c r="B88">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B88),A88+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C89">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B89),A89+1)</f>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C90">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B90),A90+1)</f>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="B91">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C91">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B91),A91+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -4202,11 +4202,11 @@
       </c>
       <c r="B92">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B92),A92+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -4216,11 +4216,11 @@
       </c>
       <c r="B93">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C93">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B93),A93+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C94">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B94),A94+1)</f>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C95">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B95),A95+1)</f>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C96">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B96),A96+1)</f>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C97">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B97),A97+1)</f>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C98">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B98),A98+1)</f>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C99">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B99),A99+1)</f>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C100">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B100),A100+1)</f>
@@ -4328,11 +4328,11 @@
       </c>
       <c r="B101">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C101">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B101),A101+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -4342,11 +4342,11 @@
       </c>
       <c r="B102">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B102),A102+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B103),A103+1)</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B104),A104+1)</f>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C105">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B105),A105+1)</f>
@@ -4398,11 +4398,11 @@
       </c>
       <c r="B106">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C106">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B106),A106+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C107">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B107),A107+1)</f>
@@ -4426,11 +4426,11 @@
       </c>
       <c r="B108">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C108">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B108),A108+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C109">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B109),A109+1)</f>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C110">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B110),A110+1)</f>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C111">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B111),A111+1)</f>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C112">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B112),A112+1)</f>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C113">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B113),A113+1)</f>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C114">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B114),A114+1)</f>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C115">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B115),A115+1)</f>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C116">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B116),A116+1)</f>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C117">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B117),A117+1)</f>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C118">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B118),A118+1)</f>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B119),A119+1)</f>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C120">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B120),A120+1)</f>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C121">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B121),A121+1)</f>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="C122">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B122),A122+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="C123">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B123),A123+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C136">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B136),A136+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C137">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B137),A137+1)</f>
@@ -4846,11 +4846,11 @@
       </c>
       <c r="B138">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C138">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B138),A138+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C139">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B139),A139+1)</f>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C140">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B140),A140+1)</f>
@@ -4888,11 +4888,11 @@
       </c>
       <c r="B141">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C141">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B141),A141+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -4902,11 +4902,11 @@
       </c>
       <c r="B142">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B142),A142+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B143),A143+1)</f>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C144">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B144),A144+1)</f>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B145),A145+1)</f>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C146">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B146),A146+1)</f>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C147">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B147),A147+1)</f>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C148">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B148),A148+1)</f>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C149">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B149),A149+1)</f>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C150">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B150),A150+1)</f>
@@ -5028,11 +5028,11 @@
       </c>
       <c r="B151">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C151">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B151),A151+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C152">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B152),A152+1)</f>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C153">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B153),A153+1)</f>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C154">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B154),A154+1)</f>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C155">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B155),A155+1)</f>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C156">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B156),A156+1)</f>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C157">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B157),A157+1)</f>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C158">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B158),A158+1)</f>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C159">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B159),A159+1)</f>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C160">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B160),A160+1)</f>
@@ -5168,11 +5168,11 @@
       </c>
       <c r="B161">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C161">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B161),A161+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -5182,11 +5182,11 @@
       </c>
       <c r="B162">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B162),A162+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B163),A163+1)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B164),A164+1)</f>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B165),A165+1)</f>
@@ -5238,11 +5238,11 @@
       </c>
       <c r="B166">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C166">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B166),A166+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C167">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B167),A167+1)</f>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C168">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B168),A168+1)</f>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C169">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B169),A169+1)</f>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C170">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B170),A170+1)</f>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C171">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B171),A171+1)</f>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C172">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B172),A172+1)</f>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C173">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B173),A173+1)</f>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C174">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B174),A174+1)</f>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C175">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B175),A175+1)</f>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C176">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B176),A176+1)</f>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C177">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B177),A177+1)</f>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C178">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B178),A178+1)</f>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C179">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B179),A179+1)</f>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C180">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B180),A180+1)</f>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C181">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B181),A181+1)</f>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="C182">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B182),A182+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="C196">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B196),A196+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C197">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B197),A197+1)</f>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C198">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B198),A198+1)</f>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C199">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B199),A199+1)</f>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C200">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B200),A200+1)</f>
@@ -5728,11 +5728,11 @@
       </c>
       <c r="B201">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C201">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B201),A201+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -5742,11 +5742,11 @@
       </c>
       <c r="B202">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C202">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B202),A202+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B203">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C203">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B203),A203+1)</f>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C204">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B204),A204+1)</f>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="B205">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C205">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B205),A205+1)</f>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="B206">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C206">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B206),A206+1)</f>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="B207">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C207">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B207),A207+1)</f>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B208">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C208">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B208),A208+1)</f>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B209">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C209">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B209),A209+1)</f>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="B210">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C210">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B210),A210+1)</f>
@@ -5868,11 +5868,11 @@
       </c>
       <c r="B211">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C211">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B211),A211+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="B212">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C212">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B212),A212+1)</f>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B213">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C213">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B213),A213+1)</f>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="B214">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C214">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B214),A214+1)</f>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C215">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B215),A215+1)</f>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C216">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B216),A216+1)</f>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C217">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B217),A217+1)</f>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C218">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B218),A218+1)</f>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C219">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B219),A219+1)</f>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C220">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B220),A220+1)</f>
@@ -6008,11 +6008,11 @@
       </c>
       <c r="B221">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C221">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B221),A221+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
@@ -6022,11 +6022,11 @@
       </c>
       <c r="B222">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C222">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B222),A222+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C223">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B223),A223+1)</f>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C224">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B224),A224+1)</f>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C225">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B225),A225+1)</f>
@@ -6078,11 +6078,11 @@
       </c>
       <c r="B226">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C226">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B226),A226+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C227">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B227),A227+1)</f>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C228">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B228),A228+1)</f>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C229">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B229),A229+1)</f>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C230">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B230),A230+1)</f>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C231">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B231),A231+1)</f>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C232">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B232),A232+1)</f>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B233">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C233">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B233),A233+1)</f>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C234">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B234),A234+1)</f>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C235">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B235),A235+1)</f>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="B236">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C236">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B236),A236+1)</f>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B237">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C237">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B237),A237+1)</f>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C238">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B238),A238+1)</f>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C239">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B239),A239+1)</f>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C240">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B240),A240+1)</f>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C241">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B241),A241+1)</f>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="C242">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B242),A242+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="C256">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B256),A256+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C257">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B257),A257+1)</f>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="B258">
         <f t="shared" ref="B258:B321" si="9">MOD(ROW()-2,$F$8)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C258">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B258),A258+1)</f>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C259">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B259),A259+1)</f>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="B260">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C260">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B260),A260+1)</f>
@@ -6568,11 +6568,11 @@
       </c>
       <c r="B261">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C261">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B261),A261+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
@@ -6582,11 +6582,11 @@
       </c>
       <c r="B262">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C262">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B262),A262+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C263">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B263),A263+1)</f>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C264">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B264),A264+1)</f>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C265">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B265),A265+1)</f>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C266">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B266),A266+1)</f>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C267">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B267),A267+1)</f>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C268">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B268),A268+1)</f>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B269">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C269">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B269),A269+1)</f>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C270">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B270),A270+1)</f>
@@ -6708,11 +6708,11 @@
       </c>
       <c r="B271">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C271">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B271),A271+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C272">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B272),A272+1)</f>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="B273">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C273">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B273),A273+1)</f>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C274">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B274),A274+1)</f>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C275">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B275),A275+1)</f>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C276">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B276),A276+1)</f>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C277">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B277),A277+1)</f>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C278">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B278),A278+1)</f>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C279">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B279),A279+1)</f>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B280">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C280">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B280),A280+1)</f>
@@ -6848,11 +6848,11 @@
       </c>
       <c r="B281">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C281">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B281),A281+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
@@ -6862,11 +6862,11 @@
       </c>
       <c r="B282">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C282">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B282),A282+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B283">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C283">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B283),A283+1)</f>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="B284">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C284">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B284),A284+1)</f>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B285">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C285">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B285),A285+1)</f>
@@ -6918,11 +6918,11 @@
       </c>
       <c r="B286">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C286">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B286),A286+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="B287">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C287">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B287),A287+1)</f>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B288">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C288">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B288),A288+1)</f>
@@ -6960,7 +6960,7 @@
       </c>
       <c r="B289">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C289">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B289),A289+1)</f>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B290">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C290">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B290),A290+1)</f>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B291">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C291">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B291),A291+1)</f>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="B292">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C292">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B292),A292+1)</f>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="B293">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C293">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B293),A293+1)</f>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="B294">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C294">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B294),A294+1)</f>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B295">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C295">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B295),A295+1)</f>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="B296">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C296">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B296),A296+1)</f>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B297">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C297">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B297),A297+1)</f>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="B298">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C298">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B298),A298+1)</f>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="B299">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C299">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B299),A299+1)</f>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B300">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C300">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B300),A300+1)</f>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B301">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C301">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B301),A301+1)</f>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="C302">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B302),A302+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="C316">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B316),A316+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B317">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C317">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B317),A317+1)</f>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="B318">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C318">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B318),A318+1)</f>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B319">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C319">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B319),A319+1)</f>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="B320">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C320">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B320),A320+1)</f>
@@ -7408,11 +7408,11 @@
       </c>
       <c r="B321">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C321">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B321),A321+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
@@ -7422,11 +7422,11 @@
       </c>
       <c r="B322">
         <f t="shared" ref="B322:B385" si="11">MOD(ROW()-2,$F$8)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C322">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B322),A322+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="B323">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C323">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B323),A323+1)</f>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="B324">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C324">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B324),A324+1)</f>
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B325">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C325">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B325),A325+1)</f>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="B326">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C326">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B326),A326+1)</f>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="B327">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C327">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B327),A327+1)</f>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="B328">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C328">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B328),A328+1)</f>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B329">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C329">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B329),A329+1)</f>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="B330">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C330">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B330),A330+1)</f>
@@ -7548,11 +7548,11 @@
       </c>
       <c r="B331">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C331">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B331),A331+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="B332">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C332">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B332),A332+1)</f>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B333">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C333">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B333),A333+1)</f>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B334">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C334">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B334),A334+1)</f>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B335">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C335">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B335),A335+1)</f>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="B336">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C336">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B336),A336+1)</f>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="B337">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C337">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B337),A337+1)</f>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="B338">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C338">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B338),A338+1)</f>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B339">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C339">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B339),A339+1)</f>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="B340">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C340">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B340),A340+1)</f>
@@ -7688,11 +7688,11 @@
       </c>
       <c r="B341">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C341">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B341),A341+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
@@ -7702,11 +7702,11 @@
       </c>
       <c r="B342">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C342">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B342),A342+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B343">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C343">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B343),A343+1)</f>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B344">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C344">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B344),A344+1)</f>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="B345">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C345">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B345),A345+1)</f>
@@ -7758,11 +7758,11 @@
       </c>
       <c r="B346">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C346">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B346),A346+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="B347">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C347">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B347),A347+1)</f>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B348">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C348">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B348),A348+1)</f>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B349">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C349">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B349),A349+1)</f>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="B350">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C350">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B350),A350+1)</f>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B351">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C351">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B351),A351+1)</f>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B352">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C352">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B352),A352+1)</f>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B353">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C353">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B353),A353+1)</f>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="B354">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C354">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B354),A354+1)</f>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="B355">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C355">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B355),A355+1)</f>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="B356">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C356">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B356),A356+1)</f>
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B357">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C357">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B357),A357+1)</f>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="B358">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C358">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B358),A358+1)</f>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="B359">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C359">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B359),A359+1)</f>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="B360">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C360">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B360),A360+1)</f>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="B361">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C361">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B361),A361+1)</f>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="C362">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B362),A362+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="C376">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B376),A376+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B377">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C377">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B377),A377+1)</f>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="B378">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C378">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B378),A378+1)</f>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="B379">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C379">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B379),A379+1)</f>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="B380">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C380">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B380),A380+1)</f>
@@ -8248,11 +8248,11 @@
       </c>
       <c r="B381">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C381">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B381),A381+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="B382">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C382">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B382),A382+1)</f>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="B383">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C383">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B383),A383+1)</f>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="B384">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C384">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B384),A384+1)</f>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B385">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C385">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B385),A385+1)</f>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="B386">
         <f t="shared" ref="B386:B401" si="13">MOD(ROW()-2,$F$8)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C386">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B386),A386+1)</f>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B387">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C387">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B387),A387+1)</f>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="B388">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C388">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B388),A388+1)</f>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="B389">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C389">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B389),A389+1)</f>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="B390">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C390">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B390),A390+1)</f>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B391">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C391">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B391),A391+1)</f>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="B392">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C392">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B392),A392+1)</f>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="B393">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C393">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B393),A393+1)</f>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="B394">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C394">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B394),A394+1)</f>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="B395">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C395">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B395),A395+1)</f>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="B396">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C396">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B396),A396+1)</f>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="B397">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C397">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B397),A397+1)</f>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="B398">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C398">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B398),A398+1)</f>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B399">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C399">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B399),A399+1)</f>
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B400">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C400">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B400),A400+1)</f>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B401">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C401">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B401),A401+1)</f>

--- a/BlockTileSystem/Assets/Levels/map_schema.xlsx
+++ b/BlockTileSystem/Assets/Levels/map_schema.xlsx
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,18 +380,6 @@
   </si>
   <si>
     <t>East</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,8 +718,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="M1:S5" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="M1:S5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表20" displayName="表20" ref="M1:S3" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="M1:S3"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="x" name="vPositionX">
       <xmlColumnPr mapId="10" xpath="/SavableLevel/pPushers/PusherInXML/vPosition/x" xmlDataType="integer"/>
@@ -865,8 +853,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表16" displayName="表16" ref="AV1:AY4" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="AV1:AY4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表16" displayName="表16" ref="AV1:AY3" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="AV1:AY3"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="x" name="vCheckPoint1PositionX">
       <xmlColumnPr mapId="10" xpath="/SavableLevel/cCheckPoints/CheckPointInXML/vCheckPoint1Position/x" xmlDataType="integer"/>
@@ -2476,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2905,27 +2893,13 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>4</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
       <c r="AU4" t="s">
         <v>44</v>
       </c>
@@ -2949,27 +2923,13 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="M5" s="1">
-        <v>8</v>
-      </c>
-      <c r="N5" s="1">
-        <v>8</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>4</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6">

--- a/BlockTileSystem/Assets/Levels/map_schema.xlsx
+++ b/BlockTileSystem/Assets/Levels/map_schema.xlsx
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pushers:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,14 +262,6 @@
   </si>
   <si>
     <t>timeInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>North</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -351,18 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first positions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second positions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>third positions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stars:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,12 +351,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>North</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>East</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -438,9 +409,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1205,511 +1177,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A8:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
-      <c r="J1">
-        <v>2</v>
-      </c>
-      <c r="K1">
-        <v>2</v>
-      </c>
-      <c r="L1">
-        <v>2</v>
-      </c>
-      <c r="M1">
-        <v>2</v>
-      </c>
-      <c r="N1">
-        <v>2</v>
-      </c>
-      <c r="O1">
-        <v>2</v>
-      </c>
-      <c r="P1">
-        <v>2</v>
-      </c>
-      <c r="Q1">
-        <v>2</v>
-      </c>
-      <c r="R1">
-        <v>2</v>
-      </c>
-      <c r="S1">
-        <v>2</v>
-      </c>
-      <c r="T1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1723,55 +1216,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1785,55 +1233,10 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1847,252 +1250,72 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2107,48 +1330,12 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2157,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2169,54 +1356,18 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2231,105 +1382,39 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2343,55 +1428,13 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2408,48 +1451,6 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
         <v>2</v>
       </c>
     </row>
@@ -2464,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2525,121 +1526,121 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AO1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>38</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.15">
@@ -2662,101 +1663,20 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
-      <c r="AB2">
-        <v>5</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>3</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>10</v>
-      </c>
-      <c r="AM2">
-        <v>10</v>
-      </c>
-      <c r="AN2">
-        <v>4</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR2">
-        <v>2</v>
-      </c>
-      <c r="AS2">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV2">
-        <v>7</v>
-      </c>
-      <c r="AW2">
-        <v>5</v>
-      </c>
-      <c r="AX2">
-        <v>7</v>
-      </c>
-      <c r="AY2">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AQ2" s="1"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -2775,104 +1695,23 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1">
-        <v>6</v>
-      </c>
-      <c r="N3" s="1">
-        <v>6</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>4</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-      <c r="W3">
-        <v>4</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AB3">
-        <v>6</v>
-      </c>
-      <c r="AC3">
-        <v>2</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>2</v>
-      </c>
-      <c r="AI3">
-        <v>2</v>
-      </c>
-      <c r="AL3">
         <v>12</v>
       </c>
-      <c r="AM3">
-        <v>10</v>
-      </c>
-      <c r="AN3">
-        <v>4</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR3">
-        <v>2</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV3">
-        <v>7</v>
-      </c>
-      <c r="AW3">
-        <v>7</v>
-      </c>
-      <c r="AX3">
-        <v>7</v>
-      </c>
-      <c r="AY3">
-        <v>8</v>
-      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AQ3" s="1"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -2891,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2900,9 +1739,6 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="AU4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -2915,13 +1751,13 @@
       </c>
       <c r="C5">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B5),A5+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2942,13 +1778,13 @@
       </c>
       <c r="C6">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B6),A6+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.15">
@@ -2962,7 +1798,7 @@
       </c>
       <c r="C7">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B7),A7+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -2982,7 +1818,7 @@
       </c>
       <c r="C8">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B8),A8+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -3002,7 +1838,7 @@
       </c>
       <c r="C9">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B9),A9+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.15">
@@ -3088,7 +1924,7 @@
       </c>
       <c r="C15">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B15),A15+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.15">
@@ -3102,7 +1938,7 @@
       </c>
       <c r="C16">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B16),A16+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -3116,7 +1952,7 @@
       </c>
       <c r="C17">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B17),A17+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -3130,7 +1966,7 @@
       </c>
       <c r="C18">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B18),A18+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -3144,7 +1980,7 @@
       </c>
       <c r="C19">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B19),A19+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -3158,7 +1994,7 @@
       </c>
       <c r="C20">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B20),A20+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -3172,7 +2008,7 @@
       </c>
       <c r="C21">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B21),A21+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -3214,7 +2050,7 @@
       </c>
       <c r="C24">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B24),A24+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -3228,7 +2064,7 @@
       </c>
       <c r="C25">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B25),A25+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -3242,7 +2078,7 @@
       </c>
       <c r="C26">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B26),A26+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -3256,7 +2092,7 @@
       </c>
       <c r="C27">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B27),A27+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -3270,7 +2106,7 @@
       </c>
       <c r="C28">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B28),A28+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -3284,7 +2120,7 @@
       </c>
       <c r="C29">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B29),A29+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -3298,7 +2134,7 @@
       </c>
       <c r="C30">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B30),A30+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -3354,7 +2190,7 @@
       </c>
       <c r="C34">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B34),A34+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -3368,7 +2204,7 @@
       </c>
       <c r="C35">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B35),A35+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -3382,7 +2218,7 @@
       </c>
       <c r="C36">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B36),A36+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -3396,7 +2232,7 @@
       </c>
       <c r="C37">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B37),A37+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -3410,7 +2246,7 @@
       </c>
       <c r="C38">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B38),A38+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -3424,7 +2260,7 @@
       </c>
       <c r="C39">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B39),A39+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -3438,7 +2274,7 @@
       </c>
       <c r="C40">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B40),A40+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -3452,7 +2288,7 @@
       </c>
       <c r="C41">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B41),A41+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -3634,7 +2470,7 @@
       </c>
       <c r="C54">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B54),A54+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -3648,7 +2484,7 @@
       </c>
       <c r="C55">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B55),A55+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -3662,7 +2498,7 @@
       </c>
       <c r="C56">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B56),A56+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -3676,7 +2512,7 @@
       </c>
       <c r="C57">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B57),A57+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -3690,7 +2526,7 @@
       </c>
       <c r="C58">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B58),A58+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -3704,7 +2540,7 @@
       </c>
       <c r="C59">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B59),A59+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -3718,7 +2554,7 @@
       </c>
       <c r="C60">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B60),A60+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -3732,7 +2568,7 @@
       </c>
       <c r="C61">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B61),A61+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -3774,7 +2610,7 @@
       </c>
       <c r="C64">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B64),A64+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -3788,7 +2624,7 @@
       </c>
       <c r="C65">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B65),A65+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -3816,7 +2652,7 @@
       </c>
       <c r="C67">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B67),A67+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -3830,7 +2666,7 @@
       </c>
       <c r="C68">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B68),A68+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -3844,7 +2680,7 @@
       </c>
       <c r="C69">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B69),A69+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -3858,7 +2694,7 @@
       </c>
       <c r="C70">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B70),A70+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -3914,7 +2750,7 @@
       </c>
       <c r="C74">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B74),A74+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -3928,7 +2764,7 @@
       </c>
       <c r="C75">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B75),A75+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -3942,7 +2778,7 @@
       </c>
       <c r="C76">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B76),A76+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -3956,7 +2792,7 @@
       </c>
       <c r="C77">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B77),A77+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -3970,7 +2806,7 @@
       </c>
       <c r="C78">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B78),A78+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -3984,7 +2820,7 @@
       </c>
       <c r="C79">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B79),A79+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -3998,7 +2834,7 @@
       </c>
       <c r="C80">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B80),A80+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -4012,7 +2848,7 @@
       </c>
       <c r="C81">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B81),A81+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -4040,7 +2876,7 @@
       </c>
       <c r="C83">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B83),A83+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -4082,7 +2918,7 @@
       </c>
       <c r="C86">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B86),A86+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -4124,7 +2960,7 @@
       </c>
       <c r="C89">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B89),A89+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -4138,7 +2974,7 @@
       </c>
       <c r="C90">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B90),A90+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -4152,7 +2988,7 @@
       </c>
       <c r="C91">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B91),A91+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -4166,7 +3002,7 @@
       </c>
       <c r="C92">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B92),A92+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -4180,7 +3016,7 @@
       </c>
       <c r="C93">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B93),A93+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -4194,7 +3030,7 @@
       </c>
       <c r="C94">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B94),A94+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -4208,7 +3044,7 @@
       </c>
       <c r="C95">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B95),A95+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -4222,7 +3058,7 @@
       </c>
       <c r="C96">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B96),A96+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -4236,7 +3072,7 @@
       </c>
       <c r="C97">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B97),A97+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -4250,7 +3086,7 @@
       </c>
       <c r="C98">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B98),A98+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -4264,7 +3100,7 @@
       </c>
       <c r="C99">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B99),A99+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -4278,7 +3114,7 @@
       </c>
       <c r="C100">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B100),A100+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -4292,7 +3128,7 @@
       </c>
       <c r="C101">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B101),A101+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -4320,7 +3156,7 @@
       </c>
       <c r="C103">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B103),A103+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -4334,7 +3170,7 @@
       </c>
       <c r="C104">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B104),A104+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -4390,7 +3226,7 @@
       </c>
       <c r="C108">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B108),A108+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -4404,7 +3240,7 @@
       </c>
       <c r="C109">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B109),A109+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -4418,7 +3254,7 @@
       </c>
       <c r="C110">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B110),A110+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -4432,7 +3268,7 @@
       </c>
       <c r="C111">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B111),A111+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -4446,7 +3282,7 @@
       </c>
       <c r="C112">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B112),A112+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -4460,7 +3296,7 @@
       </c>
       <c r="C113">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B113),A113+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -4474,7 +3310,7 @@
       </c>
       <c r="C114">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B114),A114+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -4488,7 +3324,7 @@
       </c>
       <c r="C115">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B115),A115+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -4502,7 +3338,7 @@
       </c>
       <c r="C116">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B116),A116+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -4516,7 +3352,7 @@
       </c>
       <c r="C117">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B117),A117+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -4530,7 +3366,7 @@
       </c>
       <c r="C118">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B118),A118+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -4544,7 +3380,7 @@
       </c>
       <c r="C119">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B119),A119+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -4558,7 +3394,7 @@
       </c>
       <c r="C120">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B120),A120+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -4572,7 +3408,7 @@
       </c>
       <c r="C121">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B121),A121+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -4586,7 +3422,7 @@
       </c>
       <c r="C122">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B122),A122+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -4600,7 +3436,7 @@
       </c>
       <c r="C123">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B123),A123+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -4614,7 +3450,7 @@
       </c>
       <c r="C124">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B124),A124+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -4670,7 +3506,7 @@
       </c>
       <c r="C128">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B128),A128+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -4684,7 +3520,7 @@
       </c>
       <c r="C129">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B129),A129+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -4698,7 +3534,7 @@
       </c>
       <c r="C130">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B130),A130+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -4712,7 +3548,7 @@
       </c>
       <c r="C131">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B131),A131+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -4726,7 +3562,7 @@
       </c>
       <c r="C132">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B132),A132+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -4740,7 +3576,7 @@
       </c>
       <c r="C133">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B133),A133+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -4754,7 +3590,7 @@
       </c>
       <c r="C134">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B134),A134+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -4768,7 +3604,7 @@
       </c>
       <c r="C135">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B135),A135+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -4782,7 +3618,7 @@
       </c>
       <c r="C136">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B136),A136+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -4796,7 +3632,7 @@
       </c>
       <c r="C137">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B137),A137+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -4810,7 +3646,7 @@
       </c>
       <c r="C138">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B138),A138+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -4824,7 +3660,7 @@
       </c>
       <c r="C139">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B139),A139+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -4838,7 +3674,7 @@
       </c>
       <c r="C140">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B140),A140+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -4852,7 +3688,7 @@
       </c>
       <c r="C141">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B141),A141+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -4866,7 +3702,7 @@
       </c>
       <c r="C142">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B142),A142+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -4880,7 +3716,7 @@
       </c>
       <c r="C143">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B143),A143+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -4894,7 +3730,7 @@
       </c>
       <c r="C144">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B144),A144+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
@@ -4950,7 +3786,7 @@
       </c>
       <c r="C148">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B148),A148+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -4964,7 +3800,7 @@
       </c>
       <c r="C149">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B149),A149+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
@@ -4978,7 +3814,7 @@
       </c>
       <c r="C150">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B150),A150+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -4992,7 +3828,7 @@
       </c>
       <c r="C151">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B151),A151+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -5006,7 +3842,7 @@
       </c>
       <c r="C152">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B152),A152+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
@@ -5020,7 +3856,7 @@
       </c>
       <c r="C153">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B153),A153+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -5034,7 +3870,7 @@
       </c>
       <c r="C154">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B154),A154+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -5048,7 +3884,7 @@
       </c>
       <c r="C155">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B155),A155+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
@@ -5062,7 +3898,7 @@
       </c>
       <c r="C156">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B156),A156+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
@@ -5076,7 +3912,7 @@
       </c>
       <c r="C157">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B157),A157+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -5090,7 +3926,7 @@
       </c>
       <c r="C158">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B158),A158+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -5104,7 +3940,7 @@
       </c>
       <c r="C159">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B159),A159+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -5118,7 +3954,7 @@
       </c>
       <c r="C160">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B160),A160+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -5132,7 +3968,7 @@
       </c>
       <c r="C161">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B161),A161+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -5146,7 +3982,7 @@
       </c>
       <c r="C162">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B162),A162+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -5160,7 +3996,7 @@
       </c>
       <c r="C163">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B163),A163+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -5174,7 +4010,7 @@
       </c>
       <c r="C164">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B164),A164+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -5188,7 +4024,7 @@
       </c>
       <c r="C165">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B165),A165+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -5202,7 +4038,7 @@
       </c>
       <c r="C166">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B166),A166+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -5216,7 +4052,7 @@
       </c>
       <c r="C167">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B167),A167+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
@@ -5230,7 +4066,7 @@
       </c>
       <c r="C168">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B168),A168+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -5244,7 +4080,7 @@
       </c>
       <c r="C169">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B169),A169+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -5258,7 +4094,7 @@
       </c>
       <c r="C170">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B170),A170+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -5272,7 +4108,7 @@
       </c>
       <c r="C171">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B171),A171+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -5286,7 +4122,7 @@
       </c>
       <c r="C172">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B172),A172+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -5300,7 +4136,7 @@
       </c>
       <c r="C173">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B173),A173+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -5314,7 +4150,7 @@
       </c>
       <c r="C174">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B174),A174+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -5328,7 +4164,7 @@
       </c>
       <c r="C175">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B175),A175+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -5342,7 +4178,7 @@
       </c>
       <c r="C176">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B176),A176+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -5356,7 +4192,7 @@
       </c>
       <c r="C177">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B177),A177+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
@@ -5370,7 +4206,7 @@
       </c>
       <c r="C178">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B178),A178+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
@@ -5384,7 +4220,7 @@
       </c>
       <c r="C179">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B179),A179+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -5398,7 +4234,7 @@
       </c>
       <c r="C180">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B180),A180+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -5412,7 +4248,7 @@
       </c>
       <c r="C181">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B181),A181+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -5426,7 +4262,7 @@
       </c>
       <c r="C182">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B182),A182+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -5440,7 +4276,7 @@
       </c>
       <c r="C183">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B183),A183+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -5454,7 +4290,7 @@
       </c>
       <c r="C184">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B184),A184+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -5468,7 +4304,7 @@
       </c>
       <c r="C185">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B185),A185+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -5482,7 +4318,7 @@
       </c>
       <c r="C186">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B186),A186+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -5496,7 +4332,7 @@
       </c>
       <c r="C187">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B187),A187+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -5510,7 +4346,7 @@
       </c>
       <c r="C188">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B188),A188+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -5524,7 +4360,7 @@
       </c>
       <c r="C189">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B189),A189+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -5538,7 +4374,7 @@
       </c>
       <c r="C190">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B190),A190+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -5552,7 +4388,7 @@
       </c>
       <c r="C191">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B191),A191+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
@@ -5566,7 +4402,7 @@
       </c>
       <c r="C192">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B192),A192+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
@@ -5580,7 +4416,7 @@
       </c>
       <c r="C193">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B193),A193+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -5594,7 +4430,7 @@
       </c>
       <c r="C194">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B194),A194+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -5608,7 +4444,7 @@
       </c>
       <c r="C195">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B195),A195+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -5622,7 +4458,7 @@
       </c>
       <c r="C196">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B196),A196+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -5636,7 +4472,7 @@
       </c>
       <c r="C197">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B197),A197+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -5650,7 +4486,7 @@
       </c>
       <c r="C198">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B198),A198+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -5664,7 +4500,7 @@
       </c>
       <c r="C199">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B199),A199+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -5678,7 +4514,7 @@
       </c>
       <c r="C200">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B200),A200+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -5692,7 +4528,7 @@
       </c>
       <c r="C201">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B201),A201+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -5706,7 +4542,7 @@
       </c>
       <c r="C202">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B202),A202+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -5720,7 +4556,7 @@
       </c>
       <c r="C203">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B203),A203+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
@@ -5734,7 +4570,7 @@
       </c>
       <c r="C204">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B204),A204+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
@@ -5748,7 +4584,7 @@
       </c>
       <c r="C205">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B205),A205+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
@@ -5762,7 +4598,7 @@
       </c>
       <c r="C206">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B206),A206+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
@@ -5776,7 +4612,7 @@
       </c>
       <c r="C207">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B207),A207+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
@@ -5790,7 +4626,7 @@
       </c>
       <c r="C208">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B208),A208+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
@@ -5804,7 +4640,7 @@
       </c>
       <c r="C209">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B209),A209+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
@@ -5818,7 +4654,7 @@
       </c>
       <c r="C210">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B210),A210+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
@@ -5832,7 +4668,7 @@
       </c>
       <c r="C211">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B211),A211+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -5846,7 +4682,7 @@
       </c>
       <c r="C212">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B212),A212+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
@@ -5860,7 +4696,7 @@
       </c>
       <c r="C213">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B213),A213+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
@@ -5874,7 +4710,7 @@
       </c>
       <c r="C214">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B214),A214+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
@@ -5888,7 +4724,7 @@
       </c>
       <c r="C215">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B215),A215+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
@@ -5902,7 +4738,7 @@
       </c>
       <c r="C216">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B216),A216+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
@@ -5916,7 +4752,7 @@
       </c>
       <c r="C217">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B217),A217+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
@@ -5930,7 +4766,7 @@
       </c>
       <c r="C218">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B218),A218+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
@@ -5944,7 +4780,7 @@
       </c>
       <c r="C219">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B219),A219+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
@@ -5958,7 +4794,7 @@
       </c>
       <c r="C220">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B220),A220+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
@@ -5972,7 +4808,7 @@
       </c>
       <c r="C221">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B221),A221+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
@@ -5986,7 +4822,7 @@
       </c>
       <c r="C222">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B222),A222+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
@@ -6000,7 +4836,7 @@
       </c>
       <c r="C223">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B223),A223+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
@@ -6014,7 +4850,7 @@
       </c>
       <c r="C224">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B224),A224+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
@@ -6028,7 +4864,7 @@
       </c>
       <c r="C225">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B225),A225+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
@@ -6042,7 +4878,7 @@
       </c>
       <c r="C226">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B226),A226+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
@@ -6056,7 +4892,7 @@
       </c>
       <c r="C227">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B227),A227+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
@@ -6070,7 +4906,7 @@
       </c>
       <c r="C228">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B228),A228+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
@@ -6084,7 +4920,7 @@
       </c>
       <c r="C229">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B229),A229+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
@@ -6098,7 +4934,7 @@
       </c>
       <c r="C230">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B230),A230+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
@@ -6112,7 +4948,7 @@
       </c>
       <c r="C231">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B231),A231+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
@@ -6126,7 +4962,7 @@
       </c>
       <c r="C232">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B232),A232+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
@@ -6140,7 +4976,7 @@
       </c>
       <c r="C233">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B233),A233+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
@@ -6154,7 +4990,7 @@
       </c>
       <c r="C234">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B234),A234+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
@@ -6168,7 +5004,7 @@
       </c>
       <c r="C235">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B235),A235+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
@@ -6182,7 +5018,7 @@
       </c>
       <c r="C236">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B236),A236+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
@@ -6196,7 +5032,7 @@
       </c>
       <c r="C237">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B237),A237+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
@@ -6210,7 +5046,7 @@
       </c>
       <c r="C238">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B238),A238+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
@@ -6224,7 +5060,7 @@
       </c>
       <c r="C239">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B239),A239+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
@@ -6238,7 +5074,7 @@
       </c>
       <c r="C240">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B240),A240+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
@@ -6252,7 +5088,7 @@
       </c>
       <c r="C241">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B241),A241+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
@@ -6266,7 +5102,7 @@
       </c>
       <c r="C242">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B242),A242+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
@@ -6280,7 +5116,7 @@
       </c>
       <c r="C243">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B243),A243+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
@@ -6294,7 +5130,7 @@
       </c>
       <c r="C244">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B244),A244+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
@@ -6308,7 +5144,7 @@
       </c>
       <c r="C245">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B245),A245+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
@@ -6322,7 +5158,7 @@
       </c>
       <c r="C246">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B246),A246+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
@@ -6336,7 +5172,7 @@
       </c>
       <c r="C247">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B247),A247+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
@@ -6350,7 +5186,7 @@
       </c>
       <c r="C248">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B248),A248+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
@@ -6364,7 +5200,7 @@
       </c>
       <c r="C249">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B249),A249+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
@@ -6378,7 +5214,7 @@
       </c>
       <c r="C250">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B250),A250+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
@@ -6392,7 +5228,7 @@
       </c>
       <c r="C251">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B251),A251+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
@@ -6406,7 +5242,7 @@
       </c>
       <c r="C252">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B252),A252+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
@@ -6420,7 +5256,7 @@
       </c>
       <c r="C253">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B253),A253+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
@@ -6434,7 +5270,7 @@
       </c>
       <c r="C254">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B254),A254+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
@@ -6448,7 +5284,7 @@
       </c>
       <c r="C255">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B255),A255+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
@@ -6462,7 +5298,7 @@
       </c>
       <c r="C256">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B256),A256+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
@@ -6476,7 +5312,7 @@
       </c>
       <c r="C257">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B257),A257+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
@@ -6490,7 +5326,7 @@
       </c>
       <c r="C258">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B258),A258+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
@@ -6504,7 +5340,7 @@
       </c>
       <c r="C259">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B259),A259+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
@@ -6518,7 +5354,7 @@
       </c>
       <c r="C260">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B260),A260+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
@@ -6532,7 +5368,7 @@
       </c>
       <c r="C261">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B261),A261+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
@@ -6546,7 +5382,7 @@
       </c>
       <c r="C262">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B262),A262+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
@@ -6560,7 +5396,7 @@
       </c>
       <c r="C263">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B263),A263+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
@@ -6574,7 +5410,7 @@
       </c>
       <c r="C264">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B264),A264+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
@@ -6588,7 +5424,7 @@
       </c>
       <c r="C265">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B265),A265+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
@@ -6602,7 +5438,7 @@
       </c>
       <c r="C266">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B266),A266+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
@@ -6616,7 +5452,7 @@
       </c>
       <c r="C267">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B267),A267+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
@@ -6630,7 +5466,7 @@
       </c>
       <c r="C268">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B268),A268+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
@@ -6644,7 +5480,7 @@
       </c>
       <c r="C269">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B269),A269+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
@@ -6658,7 +5494,7 @@
       </c>
       <c r="C270">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B270),A270+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
@@ -6672,7 +5508,7 @@
       </c>
       <c r="C271">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B271),A271+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
@@ -6686,7 +5522,7 @@
       </c>
       <c r="C272">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B272),A272+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
@@ -6700,7 +5536,7 @@
       </c>
       <c r="C273">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B273),A273+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
@@ -6714,7 +5550,7 @@
       </c>
       <c r="C274">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B274),A274+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
@@ -6728,7 +5564,7 @@
       </c>
       <c r="C275">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B275),A275+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
@@ -6742,7 +5578,7 @@
       </c>
       <c r="C276">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B276),A276+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
@@ -6756,7 +5592,7 @@
       </c>
       <c r="C277">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B277),A277+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
@@ -6770,7 +5606,7 @@
       </c>
       <c r="C278">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B278),A278+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
@@ -6784,7 +5620,7 @@
       </c>
       <c r="C279">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B279),A279+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
@@ -6798,7 +5634,7 @@
       </c>
       <c r="C280">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B280),A280+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
@@ -6812,7 +5648,7 @@
       </c>
       <c r="C281">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B281),A281+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
@@ -6826,7 +5662,7 @@
       </c>
       <c r="C282">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B282),A282+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
@@ -6840,7 +5676,7 @@
       </c>
       <c r="C283">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B283),A283+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
@@ -6854,7 +5690,7 @@
       </c>
       <c r="C284">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B284),A284+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
@@ -6868,7 +5704,7 @@
       </c>
       <c r="C285">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B285),A285+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
@@ -6882,7 +5718,7 @@
       </c>
       <c r="C286">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B286),A286+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
@@ -6896,7 +5732,7 @@
       </c>
       <c r="C287">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B287),A287+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
@@ -6910,7 +5746,7 @@
       </c>
       <c r="C288">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B288),A288+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
@@ -6924,7 +5760,7 @@
       </c>
       <c r="C289">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B289),A289+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
@@ -6938,7 +5774,7 @@
       </c>
       <c r="C290">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B290),A290+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
@@ -6952,7 +5788,7 @@
       </c>
       <c r="C291">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B291),A291+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
@@ -6966,7 +5802,7 @@
       </c>
       <c r="C292">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B292),A292+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
@@ -6980,7 +5816,7 @@
       </c>
       <c r="C293">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B293),A293+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
@@ -6994,7 +5830,7 @@
       </c>
       <c r="C294">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B294),A294+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
@@ -7008,7 +5844,7 @@
       </c>
       <c r="C295">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B295),A295+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
@@ -7022,7 +5858,7 @@
       </c>
       <c r="C296">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B296),A296+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
@@ -7036,7 +5872,7 @@
       </c>
       <c r="C297">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B297),A297+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
@@ -7050,7 +5886,7 @@
       </c>
       <c r="C298">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B298),A298+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
@@ -7064,7 +5900,7 @@
       </c>
       <c r="C299">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B299),A299+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
@@ -7078,7 +5914,7 @@
       </c>
       <c r="C300">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B300),A300+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
@@ -7092,7 +5928,7 @@
       </c>
       <c r="C301">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B301),A301+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
@@ -7106,7 +5942,7 @@
       </c>
       <c r="C302">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B302),A302+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
@@ -7120,7 +5956,7 @@
       </c>
       <c r="C303">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B303),A303+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
@@ -7134,7 +5970,7 @@
       </c>
       <c r="C304">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B304),A304+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
@@ -7148,7 +5984,7 @@
       </c>
       <c r="C305">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B305),A305+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
@@ -7162,7 +5998,7 @@
       </c>
       <c r="C306">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B306),A306+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
@@ -7176,7 +6012,7 @@
       </c>
       <c r="C307">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B307),A307+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
@@ -7190,7 +6026,7 @@
       </c>
       <c r="C308">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B308),A308+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
@@ -7204,7 +6040,7 @@
       </c>
       <c r="C309">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B309),A309+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
@@ -7218,7 +6054,7 @@
       </c>
       <c r="C310">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B310),A310+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
@@ -7232,7 +6068,7 @@
       </c>
       <c r="C311">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B311),A311+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
@@ -7246,7 +6082,7 @@
       </c>
       <c r="C312">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B312),A312+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
@@ -7260,7 +6096,7 @@
       </c>
       <c r="C313">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B313),A313+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
@@ -7274,7 +6110,7 @@
       </c>
       <c r="C314">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B314),A314+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
@@ -7288,7 +6124,7 @@
       </c>
       <c r="C315">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B315),A315+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
@@ -7302,7 +6138,7 @@
       </c>
       <c r="C316">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B316),A316+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
@@ -7316,7 +6152,7 @@
       </c>
       <c r="C317">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B317),A317+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
@@ -7330,7 +6166,7 @@
       </c>
       <c r="C318">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B318),A318+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
@@ -7344,7 +6180,7 @@
       </c>
       <c r="C319">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B319),A319+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
@@ -7358,7 +6194,7 @@
       </c>
       <c r="C320">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B320),A320+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
@@ -7372,7 +6208,7 @@
       </c>
       <c r="C321">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B321),A321+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
@@ -7386,7 +6222,7 @@
       </c>
       <c r="C322">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B322),A322+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
@@ -7400,7 +6236,7 @@
       </c>
       <c r="C323">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B323),A323+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
@@ -7414,7 +6250,7 @@
       </c>
       <c r="C324">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B324),A324+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
@@ -7428,7 +6264,7 @@
       </c>
       <c r="C325">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B325),A325+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
@@ -7442,7 +6278,7 @@
       </c>
       <c r="C326">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B326),A326+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
@@ -7456,7 +6292,7 @@
       </c>
       <c r="C327">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B327),A327+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
@@ -7470,7 +6306,7 @@
       </c>
       <c r="C328">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B328),A328+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
@@ -7484,7 +6320,7 @@
       </c>
       <c r="C329">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B329),A329+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
@@ -7498,7 +6334,7 @@
       </c>
       <c r="C330">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B330),A330+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
@@ -7512,7 +6348,7 @@
       </c>
       <c r="C331">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B331),A331+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
@@ -7526,7 +6362,7 @@
       </c>
       <c r="C332">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B332),A332+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
@@ -7540,7 +6376,7 @@
       </c>
       <c r="C333">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B333),A333+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
@@ -7554,7 +6390,7 @@
       </c>
       <c r="C334">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B334),A334+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
@@ -7568,7 +6404,7 @@
       </c>
       <c r="C335">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B335),A335+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
@@ -7582,7 +6418,7 @@
       </c>
       <c r="C336">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B336),A336+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
@@ -7596,7 +6432,7 @@
       </c>
       <c r="C337">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B337),A337+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
@@ -7610,7 +6446,7 @@
       </c>
       <c r="C338">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B338),A338+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
@@ -7624,7 +6460,7 @@
       </c>
       <c r="C339">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B339),A339+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
@@ -7638,7 +6474,7 @@
       </c>
       <c r="C340">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B340),A340+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
@@ -7652,7 +6488,7 @@
       </c>
       <c r="C341">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B341),A341+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
@@ -7666,7 +6502,7 @@
       </c>
       <c r="C342">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B342),A342+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
@@ -7680,7 +6516,7 @@
       </c>
       <c r="C343">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B343),A343+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
@@ -7694,7 +6530,7 @@
       </c>
       <c r="C344">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B344),A344+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
@@ -7708,7 +6544,7 @@
       </c>
       <c r="C345">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B345),A345+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
@@ -7722,7 +6558,7 @@
       </c>
       <c r="C346">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B346),A346+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
@@ -7736,7 +6572,7 @@
       </c>
       <c r="C347">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B347),A347+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
@@ -7750,7 +6586,7 @@
       </c>
       <c r="C348">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B348),A348+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
@@ -7764,7 +6600,7 @@
       </c>
       <c r="C349">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B349),A349+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
@@ -7778,7 +6614,7 @@
       </c>
       <c r="C350">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B350),A350+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
@@ -7792,7 +6628,7 @@
       </c>
       <c r="C351">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B351),A351+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
@@ -7806,7 +6642,7 @@
       </c>
       <c r="C352">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B352),A352+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
@@ -7820,7 +6656,7 @@
       </c>
       <c r="C353">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B353),A353+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
@@ -7834,7 +6670,7 @@
       </c>
       <c r="C354">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B354),A354+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
@@ -7848,7 +6684,7 @@
       </c>
       <c r="C355">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B355),A355+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
@@ -7862,7 +6698,7 @@
       </c>
       <c r="C356">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B356),A356+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
@@ -7876,7 +6712,7 @@
       </c>
       <c r="C357">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B357),A357+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
@@ -7890,7 +6726,7 @@
       </c>
       <c r="C358">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B358),A358+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
@@ -7904,7 +6740,7 @@
       </c>
       <c r="C359">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B359),A359+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
@@ -7918,7 +6754,7 @@
       </c>
       <c r="C360">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B360),A360+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
@@ -7932,7 +6768,7 @@
       </c>
       <c r="C361">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B361),A361+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
@@ -7946,7 +6782,7 @@
       </c>
       <c r="C362">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B362),A362+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
@@ -7960,7 +6796,7 @@
       </c>
       <c r="C363">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B363),A363+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
@@ -7974,7 +6810,7 @@
       </c>
       <c r="C364">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B364),A364+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
@@ -7988,7 +6824,7 @@
       </c>
       <c r="C365">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B365),A365+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
@@ -8002,7 +6838,7 @@
       </c>
       <c r="C366">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B366),A366+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
@@ -8016,7 +6852,7 @@
       </c>
       <c r="C367">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B367),A367+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
@@ -8030,7 +6866,7 @@
       </c>
       <c r="C368">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B368),A368+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
@@ -8044,7 +6880,7 @@
       </c>
       <c r="C369">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B369),A369+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
@@ -8058,7 +6894,7 @@
       </c>
       <c r="C370">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B370),A370+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
@@ -8072,7 +6908,7 @@
       </c>
       <c r="C371">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B371),A371+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
@@ -8086,7 +6922,7 @@
       </c>
       <c r="C372">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B372),A372+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
@@ -8100,7 +6936,7 @@
       </c>
       <c r="C373">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B373),A373+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
@@ -8114,7 +6950,7 @@
       </c>
       <c r="C374">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B374),A374+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
@@ -8128,7 +6964,7 @@
       </c>
       <c r="C375">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B375),A375+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
@@ -8142,7 +6978,7 @@
       </c>
       <c r="C376">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B376),A376+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
@@ -8156,7 +6992,7 @@
       </c>
       <c r="C377">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B377),A377+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
@@ -8170,7 +7006,7 @@
       </c>
       <c r="C378">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B378),A378+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
@@ -8184,7 +7020,7 @@
       </c>
       <c r="C379">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B379),A379+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
@@ -8198,7 +7034,7 @@
       </c>
       <c r="C380">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B380),A380+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
@@ -8212,7 +7048,7 @@
       </c>
       <c r="C381">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B381),A381+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -8226,7 +7062,7 @@
       </c>
       <c r="C382">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B382),A382+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
@@ -8240,7 +7076,7 @@
       </c>
       <c r="C383">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B383),A383+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
@@ -8254,7 +7090,7 @@
       </c>
       <c r="C384">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B384),A384+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
@@ -8268,7 +7104,7 @@
       </c>
       <c r="C385">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B385),A385+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
@@ -8282,7 +7118,7 @@
       </c>
       <c r="C386">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B386),A386+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
@@ -8296,7 +7132,7 @@
       </c>
       <c r="C387">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B387),A387+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
@@ -8310,7 +7146,7 @@
       </c>
       <c r="C388">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B388),A388+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
@@ -8324,7 +7160,7 @@
       </c>
       <c r="C389">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B389),A389+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
@@ -8338,161 +7174,161 @@
       </c>
       <c r="C390">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B390),A390+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A391">
+      <c r="A391" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="2">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B391),A391+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A392">
+      <c r="A392" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="2">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B392),A392+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A393">
+      <c r="A393" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="2">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B393),A393+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A394">
+      <c r="A394" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="2">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B394),A394+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A395">
+      <c r="A395" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="2">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B395),A395+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A396">
+      <c r="A396" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B396),A396+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A397">
+      <c r="A397" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="2">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B397),A397+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A398">
+      <c r="A398" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="2">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B398),A398+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A399">
+      <c r="A399" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="2">
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B399),A399+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A400">
+      <c r="A400" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="2">
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B400),A400+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A401">
+      <c r="A401" s="2">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="2">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="2">
         <f>INDEX('map source data'!$A$1:$T$20,$F$8-(B401),A401+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/BlockTileSystem/Assets/Levels/map_schema.xlsx
+++ b/BlockTileSystem/Assets/Levels/map_schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="map source data" sheetId="1" r:id="rId1"/>
@@ -1183,40 +1183,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>0</v>
-      </c>
+      <c r="A1" s="6">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>0</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1227,12 +1393,24 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -1242,9 +1420,15 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1257,17 +1441,21 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>0</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1280,9 +1468,7 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>0</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1295,266 +1481,118 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2</v>
-      </c>
-      <c r="H12" s="6">
-        <v>2</v>
-      </c>
-      <c r="I12" s="6">
-        <v>2</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>2</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>2</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>2</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6">
-        <v>2</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>2</v>
-      </c>
-      <c r="K15" s="6">
-        <v>2</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
-        <v>2</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6">
-        <v>2</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
-        <v>0</v>
-      </c>
+      <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <v>2</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6">
-        <v>2</v>
-      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
-        <v>0</v>
-      </c>
+      <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-      <c r="I18" s="6">
-        <v>2</v>
-      </c>
-      <c r="J18" s="6">
-        <v>2</v>
-      </c>
-      <c r="K18" s="6">
-        <v>2</v>
-      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
-        <v>0</v>
-      </c>
+      <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>2</v>
-      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
-        <v>0</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6">
-        <v>2</v>
-      </c>
-      <c r="G20" s="6">
-        <v>2</v>
-      </c>
-      <c r="H20" s="6">
-        <v>2</v>
-      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -1687,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A621" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A621" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D627" sqref="D627"/>
     </sheetView>
   </sheetViews>
@@ -2090,7 +2128,7 @@
       </c>
       <c r="C11">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B11),A11+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.15">
@@ -2104,7 +2142,7 @@
       </c>
       <c r="C12">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B12),A12+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.15">
@@ -2118,7 +2156,7 @@
       </c>
       <c r="C13">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B13),A13+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.15">
@@ -2132,7 +2170,7 @@
       </c>
       <c r="C14">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B14),A14+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.15">
@@ -2146,7 +2184,7 @@
       </c>
       <c r="C15">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B15),A15+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.15">
@@ -2244,7 +2282,7 @@
       </c>
       <c r="C22">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B22),A22+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2258,7 +2296,7 @@
       </c>
       <c r="C23">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B23),A23+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2272,7 +2310,7 @@
       </c>
       <c r="C24">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B24),A24+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -2286,7 +2324,7 @@
       </c>
       <c r="C25">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B25),A25+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -2300,7 +2338,7 @@
       </c>
       <c r="C26">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B26),A26+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2440,7 +2478,7 @@
       </c>
       <c r="C36">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B36),A36+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -2454,7 +2492,7 @@
       </c>
       <c r="C37">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B37),A37+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -2468,7 +2506,7 @@
       </c>
       <c r="C38">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B38),A38+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -2482,7 +2520,7 @@
       </c>
       <c r="C39">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B39),A39+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -2496,7 +2534,7 @@
       </c>
       <c r="C40">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B40),A40+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2594,7 +2632,7 @@
       </c>
       <c r="C47">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B47),A47+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -2608,7 +2646,7 @@
       </c>
       <c r="C48">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B48),A48+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -2622,7 +2660,7 @@
       </c>
       <c r="C49">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B49),A49+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -2636,7 +2674,7 @@
       </c>
       <c r="C50">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B50),A50+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -2650,7 +2688,7 @@
       </c>
       <c r="C51">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B51),A51+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -2790,7 +2828,7 @@
       </c>
       <c r="C61">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B61),A61+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -2804,7 +2842,7 @@
       </c>
       <c r="C62">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B62),A62+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2818,7 +2856,7 @@
       </c>
       <c r="C63">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B63),A63+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2832,7 +2870,7 @@
       </c>
       <c r="C64">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B64),A64+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -2846,7 +2884,7 @@
       </c>
       <c r="C65">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B65),A65+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -2944,7 +2982,7 @@
       </c>
       <c r="C72">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B72),A72+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -2958,7 +2996,7 @@
       </c>
       <c r="C73">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B73),A73+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -2972,7 +3010,7 @@
       </c>
       <c r="C74">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B74),A74+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2986,7 +3024,7 @@
       </c>
       <c r="C75">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B75),A75+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -3000,7 +3038,7 @@
       </c>
       <c r="C76">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B76),A76+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -3140,7 +3178,7 @@
       </c>
       <c r="C86">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B86),A86+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -3154,7 +3192,7 @@
       </c>
       <c r="C87">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B87),A87+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -3168,7 +3206,7 @@
       </c>
       <c r="C88">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B88),A88+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -3182,7 +3220,7 @@
       </c>
       <c r="C89">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B89),A89+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -3196,7 +3234,7 @@
       </c>
       <c r="C90">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B90),A90+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -3294,7 +3332,7 @@
       </c>
       <c r="C97">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B97),A97+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -3308,7 +3346,7 @@
       </c>
       <c r="C98">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B98),A98+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -3322,7 +3360,7 @@
       </c>
       <c r="C99">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B99),A99+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -3336,7 +3374,7 @@
       </c>
       <c r="C100">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B100),A100+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -3350,7 +3388,7 @@
       </c>
       <c r="C101">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B101),A101+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -3490,7 +3528,7 @@
       </c>
       <c r="C111">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B111),A111+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -3504,7 +3542,7 @@
       </c>
       <c r="C112">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B112),A112+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -3518,7 +3556,7 @@
       </c>
       <c r="C113">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B113),A113+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -3532,7 +3570,7 @@
       </c>
       <c r="C114">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B114),A114+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -3546,7 +3584,7 @@
       </c>
       <c r="C115">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B115),A115+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -3644,7 +3682,7 @@
       </c>
       <c r="C122">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B122),A122+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -3658,7 +3696,7 @@
       </c>
       <c r="C123">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B123),A123+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -3672,7 +3710,7 @@
       </c>
       <c r="C124">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B124),A124+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -3686,7 +3724,7 @@
       </c>
       <c r="C125">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B125),A125+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -3700,7 +3738,7 @@
       </c>
       <c r="C126">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B126),A126+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -3784,7 +3822,7 @@
       </c>
       <c r="C132">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B132),A132+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -3798,7 +3836,7 @@
       </c>
       <c r="C133">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B133),A133+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -3812,7 +3850,7 @@
       </c>
       <c r="C134">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B134),A134+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -3826,7 +3864,7 @@
       </c>
       <c r="C135">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B135),A135+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -3840,7 +3878,7 @@
       </c>
       <c r="C136">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B136),A136+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -3854,7 +3892,7 @@
       </c>
       <c r="C137">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B137),A137+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -3868,7 +3906,7 @@
       </c>
       <c r="C138">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B138),A138+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -3882,7 +3920,7 @@
       </c>
       <c r="C139">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B139),A139+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -3896,7 +3934,7 @@
       </c>
       <c r="C140">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B140),A140+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -3938,7 +3976,7 @@
       </c>
       <c r="C143">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B143),A143+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -3952,7 +3990,7 @@
       </c>
       <c r="C144">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B144),A144+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
@@ -3966,7 +4004,7 @@
       </c>
       <c r="C145">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B145),A145+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
@@ -3980,7 +4018,7 @@
       </c>
       <c r="C146">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B146),A146+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -3994,7 +4032,7 @@
       </c>
       <c r="C147">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B147),A147+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
@@ -4008,7 +4046,7 @@
       </c>
       <c r="C148">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B148),A148+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -4022,7 +4060,7 @@
       </c>
       <c r="C149">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B149),A149+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
@@ -4036,7 +4074,7 @@
       </c>
       <c r="C150">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B150),A150+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -4050,7 +4088,7 @@
       </c>
       <c r="C151">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B151),A151+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -4134,7 +4172,7 @@
       </c>
       <c r="C157">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B157),A157+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -4148,7 +4186,7 @@
       </c>
       <c r="C158">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B158),A158+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -4162,7 +4200,7 @@
       </c>
       <c r="C159">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B159),A159+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -4176,7 +4214,7 @@
       </c>
       <c r="C160">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B160),A160+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -4190,7 +4228,7 @@
       </c>
       <c r="C161">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B161),A161+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -4204,7 +4242,7 @@
       </c>
       <c r="C162">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B162),A162+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -4218,7 +4256,7 @@
       </c>
       <c r="C163">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B163),A163+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -4232,7 +4270,7 @@
       </c>
       <c r="C164">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B164),A164+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -4246,7 +4284,7 @@
       </c>
       <c r="C165">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B165),A165+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -4288,7 +4326,7 @@
       </c>
       <c r="C168">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B168),A168+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -4302,7 +4340,7 @@
       </c>
       <c r="C169">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B169),A169+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -4316,7 +4354,7 @@
       </c>
       <c r="C170">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B170),A170+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -4330,7 +4368,7 @@
       </c>
       <c r="C171">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B171),A171+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -4344,7 +4382,7 @@
       </c>
       <c r="C172">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B172),A172+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -4358,7 +4396,7 @@
       </c>
       <c r="C173">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B173),A173+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -4372,7 +4410,7 @@
       </c>
       <c r="C174">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B174),A174+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -4386,7 +4424,7 @@
       </c>
       <c r="C175">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B175),A175+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -4400,7 +4438,7 @@
       </c>
       <c r="C176">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B176),A176+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -4484,7 +4522,7 @@
       </c>
       <c r="C182">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B182),A182+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -4498,7 +4536,7 @@
       </c>
       <c r="C183">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B183),A183+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -4512,7 +4550,7 @@
       </c>
       <c r="C184">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B184),A184+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -4526,7 +4564,7 @@
       </c>
       <c r="C185">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B185),A185+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -4540,7 +4578,7 @@
       </c>
       <c r="C186">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B186),A186+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -4554,7 +4592,7 @@
       </c>
       <c r="C187">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B187),A187+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -4568,7 +4606,7 @@
       </c>
       <c r="C188">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B188),A188+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -4582,7 +4620,7 @@
       </c>
       <c r="C189">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B189),A189+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -4596,7 +4634,7 @@
       </c>
       <c r="C190">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B190),A190+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -4638,7 +4676,7 @@
       </c>
       <c r="C193">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B193),A193+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -4652,7 +4690,7 @@
       </c>
       <c r="C194">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B194),A194+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -4666,7 +4704,7 @@
       </c>
       <c r="C195">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B195),A195+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -4680,7 +4718,7 @@
       </c>
       <c r="C196">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B196),A196+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -4694,7 +4732,7 @@
       </c>
       <c r="C197">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B197),A197+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -4708,7 +4746,7 @@
       </c>
       <c r="C198">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B198),A198+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -4722,7 +4760,7 @@
       </c>
       <c r="C199">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B199),A199+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -4736,7 +4774,7 @@
       </c>
       <c r="C200">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B200),A200+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -4750,7 +4788,7 @@
       </c>
       <c r="C201">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B201),A201+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -4862,7 +4900,7 @@
       </c>
       <c r="C209">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B209),A209+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
@@ -4876,7 +4914,7 @@
       </c>
       <c r="C210">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B210),A210+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
@@ -4890,7 +4928,7 @@
       </c>
       <c r="C211">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B211),A211+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -4904,7 +4942,7 @@
       </c>
       <c r="C212">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B212),A212+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
@@ -4918,7 +4956,7 @@
       </c>
       <c r="C213">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B213),A213+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
@@ -4932,7 +4970,7 @@
       </c>
       <c r="C214">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B214),A214+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
@@ -4946,7 +4984,7 @@
       </c>
       <c r="C215">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B215),A215+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
@@ -5016,7 +5054,7 @@
       </c>
       <c r="C220">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B220),A220+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
@@ -5030,7 +5068,7 @@
       </c>
       <c r="C221">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B221),A221+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
@@ -5044,7 +5082,7 @@
       </c>
       <c r="C222">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B222),A222+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
@@ -5058,7 +5096,7 @@
       </c>
       <c r="C223">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B223),A223+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
@@ -5072,7 +5110,7 @@
       </c>
       <c r="C224">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B224),A224+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
@@ -5086,7 +5124,7 @@
       </c>
       <c r="C225">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B225),A225+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
@@ -5100,7 +5138,7 @@
       </c>
       <c r="C226">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B226),A226+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
@@ -5212,7 +5250,7 @@
       </c>
       <c r="C234">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B234),A234+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
@@ -5226,7 +5264,7 @@
       </c>
       <c r="C235">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B235),A235+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
@@ -5240,7 +5278,7 @@
       </c>
       <c r="C236">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B236),A236+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
@@ -5254,7 +5292,7 @@
       </c>
       <c r="C237">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B237),A237+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
@@ -5268,7 +5306,7 @@
       </c>
       <c r="C238">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B238),A238+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
@@ -5282,7 +5320,7 @@
       </c>
       <c r="C239">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B239),A239+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
@@ -5296,7 +5334,7 @@
       </c>
       <c r="C240">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B240),A240+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
@@ -5366,7 +5404,7 @@
       </c>
       <c r="C245">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B245),A245+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
@@ -5380,7 +5418,7 @@
       </c>
       <c r="C246">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B246),A246+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
@@ -5394,7 +5432,7 @@
       </c>
       <c r="C247">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B247),A247+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
@@ -5408,7 +5446,7 @@
       </c>
       <c r="C248">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B248),A248+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
@@ -5422,7 +5460,7 @@
       </c>
       <c r="C249">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B249),A249+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
@@ -5436,7 +5474,7 @@
       </c>
       <c r="C250">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B250),A250+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
@@ -5450,7 +5488,7 @@
       </c>
       <c r="C251">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B251),A251+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
@@ -5562,7 +5600,7 @@
       </c>
       <c r="C259">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B259),A259+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
@@ -5576,7 +5614,7 @@
       </c>
       <c r="C260">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B260),A260+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
@@ -5590,7 +5628,7 @@
       </c>
       <c r="C261">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B261),A261+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
@@ -5604,7 +5642,7 @@
       </c>
       <c r="C262">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B262),A262+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
@@ -5716,7 +5754,7 @@
       </c>
       <c r="C270">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B270),A270+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
@@ -5730,7 +5768,7 @@
       </c>
       <c r="C271">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B271),A271+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
@@ -5744,7 +5782,7 @@
       </c>
       <c r="C272">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B272),A272+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
@@ -5758,7 +5796,7 @@
       </c>
       <c r="C273">
         <f>INDEX('map source data'!$A$1:$AZ$100,$F$8-(B273),A273+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
@@ -10691,11 +10729,11 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A626" s="2">
-        <f t="shared" ref="A626:A657" si="30">INT((ROW()-2)/$F$7)</f>
+        <f t="shared" ref="A626" si="30">INT((ROW()-2)/$F$7)</f>
         <v>24</v>
       </c>
       <c r="B626" s="2">
-        <f t="shared" ref="B626:B657" si="31">MOD(ROW()-2,$F$8)</f>
+        <f t="shared" ref="B626" si="31">MOD(ROW()-2,$F$8)</f>
         <v>24</v>
       </c>
       <c r="C626" s="2">
